--- a/src/excel/organization.xlsx
+++ b/src/excel/organization.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="21000" windowHeight="8555"/>
+    <workbookView windowWidth="23040" windowHeight="9420"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="265" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="270" uniqueCount="46">
   <si>
     <t>name</t>
   </si>
@@ -139,16 +139,65 @@
   <si>
     <t>Senate Agriculture, Nutrition, and Forestry</t>
   </si>
+  <si>
+    <t>alls­herjar­nefnd</t>
+  </si>
+  <si>
+    <t>mennta­mála­nefnd</t>
+  </si>
+  <si>
+    <t>M.P. 2015 poz. 364   akt indywidualny Uchwała Sejmu Rzeczypospolitej Polskiej z dnia 9 kwietnia 2015 r. w sprawie powołania Generalnego Inspektora Ochrony Danych Osobowych
+M.P. 2015 poz. 363   akt indywidualny Uchwała Senatu Rzeczypospolitej Polskiej z dnia 16 kwietnia 2015 r. w sprawie wyrażenia zgody na powołanie Generalnego Inspektora Ochrony Danych Osobowych
+M.P. 2015 poz. 25   akt indywidualny Uchwała Senatu Rzeczypospolitej Polskiej z dnia 18 grudnia 2014 r. w sprawie wyrażenia zgody na odwołanie Generalnego Inspektora Ochrony Danych Osobowych
+M.P. 2014 poz. 1224   akt indywidualny Uchwała Sejmu Rzeczypospolitej Polskiej z dnia 3 grudnia 2014 r. w sprawie odwołania Generalnego Inspektora Ochrony Danych Osobowych
+M.P. 2014 poz. 721   akt indywidualny Uchwała Sejmu Rzeczypospolitej Polskiej z dnia 25 lipca 2014 r. w sprawie powołania Generalnego Inspektora Ochrony Danych Osobowych
+M.P. 2014 poz. 706   akt indywidualny Uchwała Senatu Rzeczypospolitej Polskiej z dnia 7 sierpnia 2014 r. w sprawie wyrażenia zgody na powołanie Generalnego Inspektora Ochrony Danych Osobowych
+M.P. 2010 nr 53 poz. 719   akt indywidualny Uchwała Senatu Rzeczypospolitej Polskiej z dnia 22 lipca 2010 r. w sprawie wyrażenia zgody na powołanie Generalnego Inspektora Ochrony Danych Osobowych
+M.P. 2010 nr 53 poz. 715   akt indywidualny Uchwała Sejmu Rzeczypospolitej Polskiej z dnia 25 czerwca 2010 r. w sprawie powołania Generalnego Inspektora Ochrony Danych Osobowych
+M.P. 2006 nr 47 poz. 494   akt indywidualny Uchwała Senatu Rzeczypospolitej Polskiej z dnia 6 lipca 2006 r. w sprawie wyrażenia zgody na powołanie Generalnego Inspektora Ochrony Danych Osobowych
+M.P. 2006 nr 47 poz. 493   akt indywidualny Uchwała Sejmu Rzeczypospolitej Polskiej z dnia 23 czerwca 2006 r. w sprawie powołania Generalnego Inspektora Ochrony Danych Osobowych
+M.P. 2002 nr 19 poz. 329   akt indywidualny Uchwała Sejmu Rzeczypospolitej Polskiej z dnia 26 kwietnia 2002 r. w sprawie powołania Generalnego Inspektora Ochrony Danych Osobowych.
+M.P. 2002 nr 18 poz. 306   akt indywidualny Uchwała Senatu Rzeczypospolitej Polskiej z dnia 8 maja 2002 r. w sprawie wyrażenia zgody na powołanie Generalnego Inspektora Ochrony Danych Osobowych.
+M.P. 1998 nr 11 poz. 188   akt indywidualny Uchwała Sejmu Rzeczypospolitej Polskiej z dnia 2 kwietnia 1998 r. w sprawie powołania Generalnego Inspektora Ochrony Danych Osobowych.
+Dz.U. 2018 poz. 990   nieobowiązujący - uchylona podstawa prawna Rozporządzenie Prezydenta Rzeczypospolitej Polskiej z dnia 22 maja 2018 r. zmieniające rozporządzenie w sprawie nadania statutu Biuru Generalnego Inspektora Ochrony Danych Osobowych
+Dz.U. 2015 poz. 2020   nieobowiązujący - uchylona podstawa prawna Rozporządzenie Prezydenta Rzeczypospolitej Polskiej z dnia 19 listopada 2015 r. zmieniające rozporządzenie w sprawie nadania statutu Biuru Generalnego Inspektora Ochrony Danych Osobowych
+Dz.U. 2015 poz. 745   uznany za uchylony Rozporządzenie Ministra Administracji i Cyfryzacji z dnia 11 maja 2015 r. w sprawie trybu i sposobu realizacji zadań w celu zapewniania przestrzegania przepisów o ochronie danych osobowych przez administratora bezpieczeństwa informacji
+Dz.U. 2015 poz. 719   uznany za uchylony Rozporządzenie Ministra Administracji i Cyfryzacji z dnia 11 maja 2015 r. w sprawie sposobu prowadzenia przez administratora bezpieczeństwa informacji rejestru zbiorów danych
+Dz.U. 2014 poz. 1934   nieobowiązujący - uchylona podstawa prawna Rozporządzenie Ministra Administracji i Cyfryzacji z dnia 10 grudnia 2014 r. w sprawie wzorów zgłoszeń powołania i odwołania administratora bezpieczeństwa informacji
+Dz.U. 2011 nr 225 poz. 1350   nieobowiązujący - uchylona podstawa prawna Rozporządzenie Prezydenta Rzeczypospolitej Polskiej z dnia 10 października 2011 r. w sprawie nadania statutu Biuru Generalnego Inspektora Ochrony Danych Osobowych
+Dz.U. 2011 nr 103 poz. 601   uznany za uchylony Rozporządzenie Ministra Spraw Wewnętrznych i Administracji z dnia 11 maja 2011 r. zmieniające rozporządzenie w sprawie wzorów imiennego upoważnienia i legitymacji służbowej inspektora Biura Generalnego Inspektora Ochrony Danych Osobowych
+Dz.U. 2008 nr 229 poz. 1536   nieobowiązujący - uchylona podstawa prawna Rozporządzenie Ministra Spraw Wewnętrznych i Administracji z dnia 11 grudnia 2008 r. w sprawie wzoru zgłoszenia zbioru danych do rejestracji Generalnemu Inspektorowi Ochrony Danych Osobowych
+Dz.U. 2006 nr 203 poz. 1494   uznany za uchylony Rozporządzenie Prezydenta Rzeczypospolitej Polskiej z dnia 3 listopada 2006 r. w sprawie nadania statutu Biuru Generalnego Inspektora Ochrony Danych Osobowych
+Dz.U. 2004 nr 100 poz. 1025   uchylony Rozporządzenie Ministra Spraw Wewnętrznych i Administracji z dnia 29 kwietnia 2004 r. w sprawie wzoru zgłoszenia zbioru danych do rejestracji Generalnemu Inspektorowi Ochrony Danych Osobowych
+Dz.U. 2004 nr 100 poz. 1024   uznany za uchylony Rozporządzenie Ministra Spraw Wewnętrznych i Administracji z dnia 29 kwietnia 2004 r. w sprawie dokumentacji przetwarzania danych osobowych oraz warunków technicznych i organizacyjnych, jakim powinny odpowiadać urządzenia i systemy informatyczne służące do przetwarzania danych osobowych
+Dz.U. 2004 nr 94 poz. 923   uznany za uchylony Rozporządzenie Ministra Spraw Wewnętrznych i Administracji z dnia 22 kwietnia 2004 r. w sprawie wzorów imiennego upoważnienia i legitymacji służbowej inspektora Biura Generalnego Inspektora Ochrony Danych Osobowych
+Dz.U. 2003 nr 61 poz. 545   uznany za uchylony Rozporządzenie Ministra Spraw Wewnętrznych i Administracji z dnia 20 marca 2003 r. zmieniające rozporządzenie w sprawie określenia wzorów wniosku o udostępnienie danych osobowych, zgłoszenia zbioru danych do rejestracji oraz imiennego upoważnienia i legitymacji służbowej inspektora Biura Generalnego Inspektora Ochrony Danych Osobowych
+Dz.U. 2002 nr 154 poz. 1285   uznany za uchylony Rozporządzenie Ministra Spraw Wewnętrznych i Administracji z dnia 3 września 2002 r. zmieniające rozporządzenie w sprawie określenia wzorów wniosku o udostępnienie danych osobowych, zgłoszenia zbioru danych do rejestracji oraz imiennego upoważnienia i legitymacji służbowej inspektora Biura Generalnego Inspektora Ochrony Danych Osobowych.
+Dz.U. 2001 nr 121 poz. 1306   uznany za uchylony Rozporządzenie Ministra Spraw Wewnętrznych i Administracji z dnia 1 października 2001 r. zmieniające rozporządzenie w sprawie określenia podstawowych warunków technicznych i organizacyjnych, jakim powinny odpowiadać urządzenia i systemy informatyczne służące do przetwarzania danych osobowych.
+Dz.U. 2000 nr 98 poz. 1063   uchylony Rozporządzenie Prezydenta Rzeczypospolitej Polskiej z dnia 3 listopada 2000 r. zmieniające rozporządzenie w sprawie nadania statutu Biuru Generalnego Inspektora Ochrony Danych Osobowych.
+Dz.U. 1999 nr 93 poz. 1081   uznany za uchylony Rozporządzenie Ministra Spraw Wewnętrznych i Administracji z dnia 2 listopada 1999 r. zmieniające rozporządzenie w sprawie określenia wzorów wniosku o udostępnienie danych osobowych, zgłoszenia zbioru danych do rejestracji oraz imiennego upoważnienia i legitymacji służbowej inspektora Biura Generalnego Inspektora Ochrony Danych Osobowych.
+Dz.U. 1999 nr 6 poz. 49   uznany za uchylony Rozporządzenie Ministra Spraw Wewnętrznych i Administracji z dnia 8 stycznia 1999 r. zmieniające rozporządzenie w sprawie określenia wzorów wniosku o udostępnienie danych osobowych, zgłoszenia zbioru danych do rejestracji oraz imiennego upoważnienia i legitymacji służbowej inspektora Biura Generalnego Inspektora Ochrony Danych Osobowych.
+Dz.U. 1998 nr 80 poz. 522   uznany za uchylony Rozporządzenie Ministra Spraw Wewnętrznych i Administracji z dnia 3 czerwca 1998 r. w sprawie określenia wzorów wniosku o udostępnienie danych osobowych, zgłoszenia zbioru danych do rejestracji oraz imiennego upoważnienia i legitymacji służbowej inspektora Biura Generalnego Inspektora Ochrony Danych Osobowych.
+Dz.U. 1998 nr 80 poz. 521   uznany za uchylony Rozporządzenie Ministra Spraw Wewnętrznych i Administracji z dnia 3 czerwca 1998 r. w sprawie określenia podstawowych warunków technicznych i organizacyjnych, jakim powinny odpowiadać urządzenia i systemy informatyczne służące do przetwarzania danych osobowych.
+Dz.U. 1998 nr 73 poz. 464   uchylony Rozporządzenie Prezydenta Rzeczypospolitej Polskiej z dnia 29 maja 1998 r. w sprawie nadania statutu Biuru Generalnego Inspektora Ochrony Danych Osobowych.</t>
+  </si>
+  <si>
+    <t>RADA MINISTRÓW
+MIN. WŁAŚCIWY DS ADMINISTRACJI PUBLICZNEJ</t>
+  </si>
+  <si>
+    <t>Justitiedepartementet L6</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="23">
     <font>
@@ -177,8 +226,23 @@
       <charset val="134"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -199,8 +263,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -214,7 +279,23 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -228,16 +309,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -248,14 +329,6 @@
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -276,7 +349,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -284,30 +357,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -330,13 +379,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -348,19 +415,61 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -372,43 +481,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -426,7 +499,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -438,55 +541,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -504,13 +559,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -611,6 +660,17 @@
     <border>
       <left/>
       <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top/>
       <bottom style="medium">
         <color theme="4"/>
@@ -633,31 +693,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FFB2B2B2"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -677,6 +723,24 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -691,21 +755,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -714,10 +763,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -726,133 +775,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="32" borderId="15" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="18" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="18" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="28" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="8" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="17" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1250,12 +1299,12 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:A1759"/>
+  <dimension ref="A1:A1764"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A1763" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="H9" sqref="H9"/>
+      <selection pane="bottomLeft" activeCell="A1764" sqref="A1764"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6"/>
@@ -1263,7 +1312,7 @@
     <col min="1" max="1" width="53.5277777777778" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="42.75" spans="1:1">
+    <row r="1" ht="21.75" spans="1:1">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1273,1081 +1322,1081 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:1">
+    <row r="3" ht="14.4" spans="1:1">
       <c r="A3" s="4" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:1">
+    <row r="4" ht="14.4" spans="1:1">
       <c r="A4" s="4"/>
     </row>
-    <row r="5" spans="1:1">
+    <row r="5" ht="14.4" spans="1:1">
       <c r="A5" s="4"/>
     </row>
-    <row r="6" spans="1:1">
+    <row r="6" ht="14.4" spans="1:1">
       <c r="A6" s="4"/>
     </row>
-    <row r="7" spans="1:1">
+    <row r="7" ht="14.4" spans="1:1">
       <c r="A7" s="4"/>
     </row>
-    <row r="8" spans="1:1">
+    <row r="8" ht="14.4" spans="1:1">
       <c r="A8" s="4" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="1:1">
+    <row r="9" ht="14.4" spans="1:1">
       <c r="A9" s="4"/>
     </row>
-    <row r="10" spans="1:1">
+    <row r="10" ht="14.4" spans="1:1">
       <c r="A10" s="4"/>
     </row>
-    <row r="11" spans="1:1">
+    <row r="11" ht="14.4" spans="1:1">
       <c r="A11" s="4"/>
     </row>
-    <row r="12" spans="1:1">
+    <row r="12" ht="14.4" spans="1:1">
       <c r="A12" s="4"/>
     </row>
-    <row r="13" spans="1:1">
+    <row r="13" ht="14.4" spans="1:1">
       <c r="A13" s="4"/>
     </row>
-    <row r="14" spans="1:1">
+    <row r="14" ht="14.4" spans="1:1">
       <c r="A14" s="4"/>
     </row>
-    <row r="15" spans="1:1">
+    <row r="15" ht="14.4" spans="1:1">
       <c r="A15" s="4"/>
     </row>
-    <row r="16" spans="1:1">
+    <row r="16" ht="14.4" spans="1:1">
       <c r="A16" s="4"/>
     </row>
-    <row r="17" spans="1:1">
+    <row r="17" ht="14.4" spans="1:1">
       <c r="A17" s="4"/>
     </row>
-    <row r="18" spans="1:1">
+    <row r="18" ht="14.4" spans="1:1">
       <c r="A18" s="4"/>
     </row>
-    <row r="19" spans="1:1">
+    <row r="19" ht="14.4" spans="1:1">
       <c r="A19" s="4" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="20" spans="1:1">
+    <row r="20" ht="14.4" spans="1:1">
       <c r="A20" s="4"/>
     </row>
-    <row r="21" spans="1:1">
+    <row r="21" ht="14.4" spans="1:1">
       <c r="A21" s="4" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="22" spans="1:1">
+    <row r="22" ht="14.4" spans="1:1">
       <c r="A22" s="4"/>
     </row>
-    <row r="23" spans="1:1">
+    <row r="23" ht="14.4" spans="1:1">
       <c r="A23" s="4"/>
     </row>
-    <row r="24" spans="1:1">
+    <row r="24" ht="14.4" spans="1:1">
       <c r="A24" s="4" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="25" spans="1:1">
+    <row r="25" ht="14.4" spans="1:1">
       <c r="A25" s="4"/>
     </row>
-    <row r="26" spans="1:1">
+    <row r="26" ht="14.4" spans="1:1">
       <c r="A26" s="4" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="27" spans="1:1">
+    <row r="27" ht="14.4" spans="1:1">
       <c r="A27" s="4"/>
     </row>
-    <row r="28" spans="1:1">
+    <row r="28" ht="14.4" spans="1:1">
       <c r="A28" s="4"/>
     </row>
-    <row r="29" spans="1:1">
+    <row r="29" ht="14.4" spans="1:1">
       <c r="A29" s="4"/>
     </row>
-    <row r="30" spans="1:1">
+    <row r="30" ht="14.4" spans="1:1">
       <c r="A30" s="4"/>
     </row>
-    <row r="31" spans="1:1">
+    <row r="31" ht="14.4" spans="1:1">
       <c r="A31" s="4"/>
     </row>
-    <row r="32" spans="1:1">
+    <row r="32" ht="14.4" spans="1:1">
       <c r="A32" s="4"/>
     </row>
-    <row r="33" spans="1:1">
+    <row r="33" ht="14.4" spans="1:1">
       <c r="A33" s="4"/>
     </row>
-    <row r="34" spans="1:1">
+    <row r="34" ht="14.4" spans="1:1">
       <c r="A34" s="4"/>
     </row>
-    <row r="35" spans="1:1">
+    <row r="35" ht="14.4" spans="1:1">
       <c r="A35" s="4"/>
     </row>
-    <row r="36" spans="1:1">
+    <row r="36" ht="14.4" spans="1:1">
       <c r="A36" s="4"/>
     </row>
-    <row r="37" spans="1:1">
+    <row r="37" ht="14.4" spans="1:1">
       <c r="A37" s="4"/>
     </row>
-    <row r="38" spans="1:1">
+    <row r="38" ht="14.4" spans="1:1">
       <c r="A38" s="4"/>
     </row>
-    <row r="39" spans="1:1">
+    <row r="39" ht="14.4" spans="1:1">
       <c r="A39" s="4"/>
     </row>
-    <row r="40" spans="1:1">
+    <row r="40" ht="14.4" spans="1:1">
       <c r="A40" s="4"/>
     </row>
-    <row r="41" spans="1:1">
+    <row r="41" ht="14.4" spans="1:1">
       <c r="A41" s="4"/>
     </row>
-    <row r="42" spans="1:1">
+    <row r="42" ht="14.4" spans="1:1">
       <c r="A42" s="4"/>
     </row>
-    <row r="43" spans="1:1">
+    <row r="43" ht="14.4" spans="1:1">
       <c r="A43" s="4"/>
     </row>
-    <row r="44" spans="1:1">
+    <row r="44" ht="14.4" spans="1:1">
       <c r="A44" s="4"/>
     </row>
-    <row r="45" spans="1:1">
+    <row r="45" ht="14.4" spans="1:1">
       <c r="A45" s="4"/>
     </row>
-    <row r="46" spans="1:1">
+    <row r="46" ht="14.4" spans="1:1">
       <c r="A46" s="4"/>
     </row>
-    <row r="47" spans="1:1">
+    <row r="47" ht="14.4" spans="1:1">
       <c r="A47" s="4"/>
     </row>
-    <row r="48" spans="1:1">
+    <row r="48" ht="14.4" spans="1:1">
       <c r="A48" s="4"/>
     </row>
-    <row r="49" spans="1:1">
+    <row r="49" ht="14.4" spans="1:1">
       <c r="A49" s="4"/>
     </row>
-    <row r="50" spans="1:1">
+    <row r="50" ht="14.4" spans="1:1">
       <c r="A50" s="4" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="51" spans="1:1">
+    <row r="51" ht="14.4" spans="1:1">
       <c r="A51" s="4"/>
     </row>
-    <row r="52" spans="1:1">
+    <row r="52" ht="14.4" spans="1:1">
       <c r="A52" s="4" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="53" spans="1:1">
+    <row r="53" ht="14.4" spans="1:1">
       <c r="A53" s="4"/>
     </row>
-    <row r="54" spans="1:1">
+    <row r="54" ht="14.4" spans="1:1">
       <c r="A54" s="4"/>
     </row>
-    <row r="55" spans="1:1">
+    <row r="55" ht="14.4" spans="1:1">
       <c r="A55" s="4" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="56" spans="1:1">
+    <row r="56" ht="14.4" spans="1:1">
       <c r="A56" s="4"/>
     </row>
-    <row r="57" spans="1:1">
+    <row r="57" ht="14.4" spans="1:1">
       <c r="A57" s="4" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="58" spans="1:1">
+    <row r="58" ht="14.4" spans="1:1">
       <c r="A58" s="4"/>
     </row>
-    <row r="59" spans="1:1">
+    <row r="59" ht="14.4" spans="1:1">
       <c r="A59" s="4"/>
     </row>
-    <row r="60" spans="1:1">
+    <row r="60" ht="14.4" spans="1:1">
       <c r="A60" s="4"/>
     </row>
-    <row r="61" spans="1:1">
+    <row r="61" ht="14.4" spans="1:1">
       <c r="A61" s="4"/>
     </row>
-    <row r="62" spans="1:1">
+    <row r="62" ht="14.4" spans="1:1">
       <c r="A62" s="4"/>
     </row>
-    <row r="63" spans="1:1">
+    <row r="63" ht="14.4" spans="1:1">
       <c r="A63" s="4"/>
     </row>
-    <row r="64" spans="1:1">
+    <row r="64" ht="14.4" spans="1:1">
       <c r="A64" s="4"/>
     </row>
-    <row r="65" spans="1:1">
+    <row r="65" ht="14.4" spans="1:1">
       <c r="A65" s="4" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="66" spans="1:1">
+    <row r="66" ht="14.4" spans="1:1">
       <c r="A66" s="4"/>
     </row>
-    <row r="67" spans="1:1">
+    <row r="67" ht="14.4" spans="1:1">
       <c r="A67" s="4"/>
     </row>
-    <row r="68" spans="1:1">
+    <row r="68" ht="14.4" spans="1:1">
       <c r="A68" s="4"/>
     </row>
-    <row r="69" spans="1:1">
+    <row r="69" ht="14.4" spans="1:1">
       <c r="A69" s="4"/>
     </row>
-    <row r="70" spans="1:1">
+    <row r="70" ht="14.4" spans="1:1">
       <c r="A70" s="4"/>
     </row>
-    <row r="71" spans="1:1">
+    <row r="71" ht="14.4" spans="1:1">
       <c r="A71" s="4"/>
     </row>
-    <row r="72" spans="1:1">
+    <row r="72" ht="14.4" spans="1:1">
       <c r="A72" s="4"/>
     </row>
-    <row r="73" spans="1:1">
+    <row r="73" ht="14.4" spans="1:1">
       <c r="A73" s="4" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="74" spans="1:1">
+    <row r="74" ht="14.4" spans="1:1">
       <c r="A74" s="4"/>
     </row>
-    <row r="75" spans="1:1">
+    <row r="75" ht="14.4" spans="1:1">
       <c r="A75" s="4"/>
     </row>
-    <row r="76" spans="1:1">
+    <row r="76" ht="14.4" spans="1:1">
       <c r="A76" s="4"/>
     </row>
-    <row r="77" spans="1:1">
+    <row r="77" ht="14.4" spans="1:1">
       <c r="A77" s="4"/>
     </row>
-    <row r="78" spans="1:1">
+    <row r="78" ht="14.4" spans="1:1">
       <c r="A78" s="4" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="79" spans="1:1">
+    <row r="79" ht="14.4" spans="1:1">
       <c r="A79" s="4"/>
     </row>
-    <row r="80" spans="1:1">
+    <row r="80" ht="14.4" spans="1:1">
       <c r="A80" s="4"/>
     </row>
-    <row r="81" spans="1:1">
+    <row r="81" ht="14.4" spans="1:1">
       <c r="A81" s="4"/>
     </row>
-    <row r="82" spans="1:1">
+    <row r="82" ht="14.4" spans="1:1">
       <c r="A82" s="4"/>
     </row>
-    <row r="83" spans="1:1">
+    <row r="83" ht="14.4" spans="1:1">
       <c r="A83" s="4"/>
     </row>
-    <row r="84" spans="1:1">
+    <row r="84" ht="14.4" spans="1:1">
       <c r="A84" s="4"/>
     </row>
-    <row r="85" spans="1:1">
+    <row r="85" ht="14.4" spans="1:1">
       <c r="A85" s="4"/>
     </row>
-    <row r="86" spans="1:1">
+    <row r="86" ht="14.4" spans="1:1">
       <c r="A86" s="4"/>
     </row>
-    <row r="87" spans="1:1">
+    <row r="87" ht="14.4" spans="1:1">
       <c r="A87" s="4"/>
     </row>
-    <row r="88" spans="1:1">
+    <row r="88" ht="14.4" spans="1:1">
       <c r="A88" s="4" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="89" spans="1:1">
+    <row r="89" ht="14.4" spans="1:1">
       <c r="A89" s="4"/>
     </row>
-    <row r="90" spans="1:1">
+    <row r="90" ht="14.4" spans="1:1">
       <c r="A90" s="4"/>
     </row>
-    <row r="91" spans="1:1">
+    <row r="91" ht="14.4" spans="1:1">
       <c r="A91" s="4"/>
     </row>
-    <row r="92" spans="1:1">
+    <row r="92" ht="14.4" spans="1:1">
       <c r="A92" s="4"/>
     </row>
-    <row r="93" spans="1:1">
+    <row r="93" ht="14.4" spans="1:1">
       <c r="A93" s="4" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="94" spans="1:1">
+    <row r="94" ht="14.4" spans="1:1">
       <c r="A94" s="4"/>
     </row>
-    <row r="95" spans="1:1">
+    <row r="95" ht="14.4" spans="1:1">
       <c r="A95" s="4"/>
     </row>
-    <row r="96" spans="1:1">
+    <row r="96" ht="14.4" spans="1:1">
       <c r="A96" s="4"/>
     </row>
-    <row r="97" spans="1:1">
+    <row r="97" ht="14.4" spans="1:1">
       <c r="A97" s="4"/>
     </row>
-    <row r="98" spans="1:1">
+    <row r="98" ht="14.4" spans="1:1">
       <c r="A98" s="4" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="99" spans="1:1">
+    <row r="99" ht="14.4" spans="1:1">
       <c r="A99" s="4"/>
     </row>
-    <row r="100" spans="1:1">
+    <row r="100" ht="14.4" spans="1:1">
       <c r="A100" s="4"/>
     </row>
-    <row r="101" spans="1:1">
+    <row r="101" ht="14.4" spans="1:1">
       <c r="A101" s="4"/>
     </row>
-    <row r="102" spans="1:1">
+    <row r="102" ht="14.4" spans="1:1">
       <c r="A102" s="4" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="103" spans="1:1">
+    <row r="103" ht="14.4" spans="1:1">
       <c r="A103" s="4"/>
     </row>
-    <row r="104" spans="1:1">
+    <row r="104" ht="14.4" spans="1:1">
       <c r="A104" s="4"/>
     </row>
-    <row r="105" spans="1:1">
+    <row r="105" ht="14.4" spans="1:1">
       <c r="A105" s="4"/>
     </row>
-    <row r="106" spans="1:1">
+    <row r="106" ht="14.4" spans="1:1">
       <c r="A106" s="4" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="107" spans="1:1">
+    <row r="107" ht="14.4" spans="1:1">
       <c r="A107" s="4"/>
     </row>
-    <row r="108" spans="1:1">
+    <row r="108" ht="14.4" spans="1:1">
       <c r="A108" s="4"/>
     </row>
-    <row r="109" spans="1:1">
+    <row r="109" ht="14.4" spans="1:1">
       <c r="A109" s="4"/>
     </row>
-    <row r="110" spans="1:1">
+    <row r="110" ht="14.4" spans="1:1">
       <c r="A110" s="4"/>
     </row>
-    <row r="111" spans="1:1">
+    <row r="111" ht="14.4" spans="1:1">
       <c r="A111" s="4"/>
     </row>
-    <row r="112" spans="1:1">
+    <row r="112" ht="14.4" spans="1:1">
       <c r="A112" s="4"/>
     </row>
-    <row r="113" spans="1:1">
+    <row r="113" ht="14.4" spans="1:1">
       <c r="A113" s="4"/>
     </row>
-    <row r="114" spans="1:1">
+    <row r="114" ht="14.4" spans="1:1">
       <c r="A114" s="4"/>
     </row>
-    <row r="115" spans="1:1">
+    <row r="115" ht="14.4" spans="1:1">
       <c r="A115" s="4" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="116" spans="1:1">
+    <row r="116" ht="14.4" spans="1:1">
       <c r="A116" s="4"/>
     </row>
-    <row r="117" spans="1:1">
+    <row r="117" ht="14.4" spans="1:1">
       <c r="A117" s="4" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="118" spans="1:1">
+    <row r="118" ht="14.4" spans="1:1">
       <c r="A118" s="4"/>
     </row>
-    <row r="119" spans="1:1">
+    <row r="119" ht="14.4" spans="1:1">
       <c r="A119" s="4" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="120" spans="1:1">
+    <row r="120" ht="14.4" spans="1:1">
       <c r="A120" s="4"/>
     </row>
-    <row r="121" spans="1:1">
+    <row r="121" ht="14.4" spans="1:1">
       <c r="A121" s="4"/>
     </row>
-    <row r="122" spans="1:1">
+    <row r="122" ht="14.4" spans="1:1">
       <c r="A122" s="4" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="123" spans="1:1">
+    <row r="123" ht="14.4" spans="1:1">
       <c r="A123" s="4"/>
     </row>
-    <row r="124" spans="1:1">
+    <row r="124" ht="14.4" spans="1:1">
       <c r="A124" s="4"/>
     </row>
-    <row r="125" spans="1:1">
+    <row r="125" ht="14.4" spans="1:1">
       <c r="A125" s="4"/>
     </row>
-    <row r="126" spans="1:1">
+    <row r="126" ht="14.4" spans="1:1">
       <c r="A126" s="4"/>
     </row>
-    <row r="127" spans="1:1">
+    <row r="127" ht="14.4" spans="1:1">
       <c r="A127" s="4"/>
     </row>
-    <row r="128" spans="1:1">
+    <row r="128" ht="14.4" spans="1:1">
       <c r="A128" s="4"/>
     </row>
-    <row r="129" spans="1:1">
+    <row r="129" ht="14.4" spans="1:1">
       <c r="A129" s="4"/>
     </row>
-    <row r="130" spans="1:1">
+    <row r="130" ht="14.4" spans="1:1">
       <c r="A130" s="4"/>
     </row>
-    <row r="131" spans="1:1">
+    <row r="131" ht="14.4" spans="1:1">
       <c r="A131" s="4"/>
     </row>
-    <row r="132" spans="1:1">
+    <row r="132" ht="14.4" spans="1:1">
       <c r="A132" s="4"/>
     </row>
-    <row r="133" spans="1:1">
+    <row r="133" ht="14.4" spans="1:1">
       <c r="A133" s="4"/>
     </row>
-    <row r="134" spans="1:1">
+    <row r="134" ht="14.4" spans="1:1">
       <c r="A134" s="4"/>
     </row>
-    <row r="135" spans="1:1">
+    <row r="135" ht="14.4" spans="1:1">
       <c r="A135" s="4"/>
     </row>
-    <row r="136" spans="1:1">
+    <row r="136" ht="14.4" spans="1:1">
       <c r="A136" s="4"/>
     </row>
-    <row r="137" spans="1:1">
+    <row r="137" ht="14.4" spans="1:1">
       <c r="A137" s="4"/>
     </row>
-    <row r="138" spans="1:1">
+    <row r="138" ht="14.4" spans="1:1">
       <c r="A138" s="4"/>
     </row>
-    <row r="139" spans="1:1">
+    <row r="139" ht="14.4" spans="1:1">
       <c r="A139" s="4"/>
     </row>
-    <row r="140" spans="1:1">
+    <row r="140" ht="14.4" spans="1:1">
       <c r="A140" s="4" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="141" spans="1:1">
+    <row r="141" ht="14.4" spans="1:1">
       <c r="A141" s="4"/>
     </row>
-    <row r="142" spans="1:1">
+    <row r="142" ht="14.4" spans="1:1">
       <c r="A142" s="4"/>
     </row>
-    <row r="143" spans="1:1">
+    <row r="143" ht="14.4" spans="1:1">
       <c r="A143" s="4" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="144" spans="1:1">
+    <row r="144" ht="14.4" spans="1:1">
       <c r="A144" s="4"/>
     </row>
-    <row r="145" spans="1:1">
+    <row r="145" ht="14.4" spans="1:1">
       <c r="A145" s="4"/>
     </row>
-    <row r="146" spans="1:1">
+    <row r="146" ht="14.4" spans="1:1">
       <c r="A146" s="4"/>
     </row>
-    <row r="147" spans="1:1">
+    <row r="147" ht="14.4" spans="1:1">
       <c r="A147" s="4" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="148" spans="1:1">
+    <row r="148" ht="14.4" spans="1:1">
       <c r="A148" s="4"/>
     </row>
-    <row r="149" spans="1:1">
+    <row r="149" ht="14.4" spans="1:1">
       <c r="A149" s="4"/>
     </row>
-    <row r="150" spans="1:1">
+    <row r="150" ht="14.4" spans="1:1">
       <c r="A150" s="4"/>
     </row>
-    <row r="151" spans="1:1">
+    <row r="151" ht="14.4" spans="1:1">
       <c r="A151" s="4"/>
     </row>
-    <row r="152" spans="1:1">
+    <row r="152" ht="14.4" spans="1:1">
       <c r="A152" s="4"/>
     </row>
-    <row r="153" spans="1:1">
+    <row r="153" ht="14.4" spans="1:1">
       <c r="A153" s="4"/>
     </row>
-    <row r="154" spans="1:1">
+    <row r="154" ht="14.4" spans="1:1">
       <c r="A154" s="4"/>
     </row>
-    <row r="155" spans="1:1">
+    <row r="155" ht="14.4" spans="1:1">
       <c r="A155" s="4" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="156" spans="1:1">
+    <row r="156" ht="14.4" spans="1:1">
       <c r="A156" s="4"/>
     </row>
-    <row r="157" spans="1:1">
+    <row r="157" ht="14.4" spans="1:1">
       <c r="A157" s="4"/>
     </row>
-    <row r="158" spans="1:1">
+    <row r="158" ht="14.4" spans="1:1">
       <c r="A158" s="4"/>
     </row>
-    <row r="159" spans="1:1">
+    <row r="159" ht="14.4" spans="1:1">
       <c r="A159" s="4"/>
     </row>
-    <row r="160" spans="1:1">
+    <row r="160" ht="14.4" spans="1:1">
       <c r="A160" s="4"/>
     </row>
-    <row r="161" spans="1:1">
+    <row r="161" ht="14.4" spans="1:1">
       <c r="A161" s="4"/>
     </row>
-    <row r="162" spans="1:1">
+    <row r="162" ht="14.4" spans="1:1">
       <c r="A162" s="4"/>
     </row>
-    <row r="163" spans="1:1">
+    <row r="163" ht="14.4" spans="1:1">
       <c r="A163" s="4" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="164" spans="1:1">
+    <row r="164" ht="14.4" spans="1:1">
       <c r="A164" s="4"/>
     </row>
-    <row r="165" spans="1:1">
+    <row r="165" ht="14.4" spans="1:1">
       <c r="A165" s="4"/>
     </row>
-    <row r="166" spans="1:1">
+    <row r="166" ht="14.4" spans="1:1">
       <c r="A166" s="4"/>
     </row>
-    <row r="167" spans="1:1">
+    <row r="167" ht="14.4" spans="1:1">
       <c r="A167" s="4"/>
     </row>
-    <row r="168" spans="1:1">
+    <row r="168" ht="14.4" spans="1:1">
       <c r="A168" s="4"/>
     </row>
-    <row r="169" spans="1:1">
+    <row r="169" ht="14.4" spans="1:1">
       <c r="A169" s="4" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="170" spans="1:1">
+    <row r="170" ht="14.4" spans="1:1">
       <c r="A170" s="4"/>
     </row>
-    <row r="171" spans="1:1">
+    <row r="171" ht="14.4" spans="1:1">
       <c r="A171" s="4"/>
     </row>
-    <row r="172" spans="1:1">
+    <row r="172" ht="14.4" spans="1:1">
       <c r="A172" s="4"/>
     </row>
-    <row r="173" spans="1:1">
+    <row r="173" ht="14.4" spans="1:1">
       <c r="A173" s="4"/>
     </row>
-    <row r="174" spans="1:1">
+    <row r="174" ht="14.4" spans="1:1">
       <c r="A174" s="4"/>
     </row>
-    <row r="175" spans="1:1">
+    <row r="175" ht="14.4" spans="1:1">
       <c r="A175" s="4"/>
     </row>
-    <row r="176" spans="1:1">
+    <row r="176" ht="14.4" spans="1:1">
       <c r="A176" s="4"/>
     </row>
-    <row r="177" spans="1:1">
+    <row r="177" ht="14.4" spans="1:1">
       <c r="A177" s="4"/>
     </row>
-    <row r="178" spans="1:1">
+    <row r="178" ht="14.4" spans="1:1">
       <c r="A178" s="4"/>
     </row>
-    <row r="179" spans="1:1">
+    <row r="179" ht="14.4" spans="1:1">
       <c r="A179" s="4"/>
     </row>
-    <row r="180" spans="1:1">
+    <row r="180" ht="14.4" spans="1:1">
       <c r="A180" s="4"/>
     </row>
-    <row r="181" spans="1:1">
+    <row r="181" ht="14.4" spans="1:1">
       <c r="A181" s="4"/>
     </row>
-    <row r="182" spans="1:1">
+    <row r="182" ht="14.4" spans="1:1">
       <c r="A182" s="4"/>
     </row>
-    <row r="183" spans="1:1">
+    <row r="183" ht="14.4" spans="1:1">
       <c r="A183" s="4"/>
     </row>
-    <row r="184" spans="1:1">
+    <row r="184" ht="14.4" spans="1:1">
       <c r="A184" s="4"/>
     </row>
-    <row r="185" spans="1:1">
+    <row r="185" ht="14.4" spans="1:1">
       <c r="A185" s="4"/>
     </row>
-    <row r="186" spans="1:1">
+    <row r="186" ht="14.4" spans="1:1">
       <c r="A186" s="4"/>
     </row>
-    <row r="187" spans="1:1">
+    <row r="187" ht="14.4" spans="1:1">
       <c r="A187" s="4"/>
     </row>
-    <row r="188" spans="1:1">
+    <row r="188" ht="14.4" spans="1:1">
       <c r="A188" s="4"/>
     </row>
-    <row r="189" spans="1:1">
+    <row r="189" ht="14.4" spans="1:1">
       <c r="A189" s="4"/>
     </row>
-    <row r="190" spans="1:1">
+    <row r="190" ht="14.4" spans="1:1">
       <c r="A190" s="4"/>
     </row>
-    <row r="191" spans="1:1">
+    <row r="191" ht="14.4" spans="1:1">
       <c r="A191" s="4"/>
     </row>
-    <row r="192" spans="1:1">
+    <row r="192" ht="14.4" spans="1:1">
       <c r="A192" s="4"/>
     </row>
-    <row r="193" spans="1:1">
+    <row r="193" ht="14.4" spans="1:1">
       <c r="A193" s="4"/>
     </row>
-    <row r="194" spans="1:1">
+    <row r="194" ht="14.4" spans="1:1">
       <c r="A194" s="4"/>
     </row>
-    <row r="195" spans="1:1">
+    <row r="195" ht="14.4" spans="1:1">
       <c r="A195" s="4"/>
     </row>
-    <row r="196" spans="1:1">
+    <row r="196" ht="14.4" spans="1:1">
       <c r="A196" s="4"/>
     </row>
-    <row r="197" spans="1:1">
+    <row r="197" ht="14.4" spans="1:1">
       <c r="A197" s="4"/>
     </row>
-    <row r="198" spans="1:1">
+    <row r="198" ht="14.4" spans="1:1">
       <c r="A198" s="4"/>
     </row>
-    <row r="199" spans="1:1">
+    <row r="199" ht="14.4" spans="1:1">
       <c r="A199" s="4"/>
     </row>
-    <row r="200" spans="1:1">
+    <row r="200" ht="14.4" spans="1:1">
       <c r="A200" s="4"/>
     </row>
-    <row r="201" spans="1:1">
+    <row r="201" ht="14.4" spans="1:1">
       <c r="A201" s="4"/>
     </row>
-    <row r="202" spans="1:1">
+    <row r="202" ht="14.4" spans="1:1">
       <c r="A202" s="4"/>
     </row>
-    <row r="203" spans="1:1">
+    <row r="203" ht="14.4" spans="1:1">
       <c r="A203" s="4"/>
     </row>
-    <row r="204" spans="1:1">
+    <row r="204" ht="14.4" spans="1:1">
       <c r="A204" s="4"/>
     </row>
-    <row r="205" spans="1:1">
+    <row r="205" ht="14.4" spans="1:1">
       <c r="A205" s="4"/>
     </row>
-    <row r="206" spans="1:1">
+    <row r="206" ht="14.4" spans="1:1">
       <c r="A206" s="4"/>
     </row>
-    <row r="207" spans="1:1">
+    <row r="207" ht="14.4" spans="1:1">
       <c r="A207" s="4" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="208" spans="1:1">
+    <row r="208" ht="14.4" spans="1:1">
       <c r="A208" s="4"/>
     </row>
-    <row r="209" spans="1:1">
+    <row r="209" ht="14.4" spans="1:1">
       <c r="A209" s="4"/>
     </row>
-    <row r="210" spans="1:1">
+    <row r="210" ht="14.4" spans="1:1">
       <c r="A210" s="4"/>
     </row>
-    <row r="211" spans="1:1">
+    <row r="211" ht="14.4" spans="1:1">
       <c r="A211" s="4"/>
     </row>
-    <row r="212" spans="1:1">
+    <row r="212" ht="14.4" spans="1:1">
       <c r="A212" s="4"/>
     </row>
-    <row r="213" spans="1:1">
+    <row r="213" ht="14.4" spans="1:1">
       <c r="A213" s="4" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="214" spans="1:1">
+    <row r="214" ht="14.4" spans="1:1">
       <c r="A214" s="4"/>
     </row>
-    <row r="215" spans="1:1">
+    <row r="215" ht="14.4" spans="1:1">
       <c r="A215" s="4"/>
     </row>
-    <row r="216" spans="1:1">
+    <row r="216" ht="14.4" spans="1:1">
       <c r="A216" s="4"/>
     </row>
-    <row r="217" spans="1:1">
+    <row r="217" ht="14.4" spans="1:1">
       <c r="A217" s="4"/>
     </row>
-    <row r="218" spans="1:1">
+    <row r="218" ht="14.4" spans="1:1">
       <c r="A218" s="4" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="219" spans="1:1">
+    <row r="219" ht="14.4" spans="1:1">
       <c r="A219" s="4"/>
     </row>
-    <row r="220" spans="1:1">
+    <row r="220" ht="14.4" spans="1:1">
       <c r="A220" s="4"/>
     </row>
-    <row r="221" spans="1:1">
+    <row r="221" ht="14.4" spans="1:1">
       <c r="A221" s="4"/>
     </row>
-    <row r="222" spans="1:1">
+    <row r="222" ht="14.4" spans="1:1">
       <c r="A222" s="4" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="223" spans="1:1">
+    <row r="223" ht="14.4" spans="1:1">
       <c r="A223" s="4"/>
     </row>
-    <row r="224" spans="1:1">
+    <row r="224" ht="14.4" spans="1:1">
       <c r="A224" s="4"/>
     </row>
-    <row r="225" spans="1:1">
+    <row r="225" ht="14.4" spans="1:1">
       <c r="A225" s="4"/>
     </row>
-    <row r="226" spans="1:1">
+    <row r="226" ht="14.4" spans="1:1">
       <c r="A226" s="4"/>
     </row>
-    <row r="227" spans="1:1">
+    <row r="227" ht="14.4" spans="1:1">
       <c r="A227" s="4" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="228" spans="1:1">
+    <row r="228" ht="14.4" spans="1:1">
       <c r="A228" s="4"/>
     </row>
-    <row r="229" spans="1:1">
+    <row r="229" ht="14.4" spans="1:1">
       <c r="A229" s="4"/>
     </row>
-    <row r="230" spans="1:1">
+    <row r="230" ht="14.4" spans="1:1">
       <c r="A230" s="4"/>
     </row>
-    <row r="231" spans="1:1">
+    <row r="231" ht="14.4" spans="1:1">
       <c r="A231" s="4" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="232" spans="1:1">
+    <row r="232" ht="14.4" spans="1:1">
       <c r="A232" s="4"/>
     </row>
-    <row r="233" spans="1:1">
+    <row r="233" ht="14.4" spans="1:1">
       <c r="A233" s="4"/>
     </row>
-    <row r="234" spans="1:1">
+    <row r="234" ht="14.4" spans="1:1">
       <c r="A234" s="4"/>
     </row>
-    <row r="235" spans="1:1">
+    <row r="235" ht="14.4" spans="1:1">
       <c r="A235" s="4"/>
     </row>
-    <row r="236" spans="1:1">
+    <row r="236" ht="14.4" spans="1:1">
       <c r="A236" s="4"/>
     </row>
-    <row r="237" spans="1:1">
+    <row r="237" ht="14.4" spans="1:1">
       <c r="A237" s="4"/>
     </row>
-    <row r="238" spans="1:1">
+    <row r="238" ht="14.4" spans="1:1">
       <c r="A238" s="4"/>
     </row>
-    <row r="239" spans="1:1">
+    <row r="239" ht="14.4" spans="1:1">
       <c r="A239" s="4"/>
     </row>
-    <row r="240" spans="1:1">
+    <row r="240" ht="14.4" spans="1:1">
       <c r="A240" s="4"/>
     </row>
-    <row r="241" spans="1:1">
+    <row r="241" ht="14.4" spans="1:1">
       <c r="A241" s="4"/>
     </row>
-    <row r="242" spans="1:1">
+    <row r="242" ht="14.4" spans="1:1">
       <c r="A242" s="4"/>
     </row>
-    <row r="243" spans="1:1">
+    <row r="243" ht="14.4" spans="1:1">
       <c r="A243" s="4"/>
     </row>
-    <row r="244" spans="1:1">
+    <row r="244" ht="14.4" spans="1:1">
       <c r="A244" s="4"/>
     </row>
-    <row r="245" spans="1:1">
+    <row r="245" ht="14.4" spans="1:1">
       <c r="A245" s="4"/>
     </row>
-    <row r="246" spans="1:1">
+    <row r="246" ht="14.4" spans="1:1">
       <c r="A246" s="4"/>
     </row>
-    <row r="247" spans="1:1">
+    <row r="247" ht="14.4" spans="1:1">
       <c r="A247" s="4"/>
     </row>
-    <row r="248" spans="1:1">
+    <row r="248" ht="14.4" spans="1:1">
       <c r="A248" s="4"/>
     </row>
-    <row r="249" spans="1:1">
+    <row r="249" ht="14.4" spans="1:1">
       <c r="A249" s="4"/>
     </row>
-    <row r="250" spans="1:1">
+    <row r="250" ht="14.4" spans="1:1">
       <c r="A250" s="4"/>
     </row>
-    <row r="251" spans="1:1">
+    <row r="251" ht="14.4" spans="1:1">
       <c r="A251" s="4" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="252" spans="1:1">
+    <row r="252" ht="14.4" spans="1:1">
       <c r="A252" s="4"/>
     </row>
-    <row r="253" spans="1:1">
+    <row r="253" ht="14.4" spans="1:1">
       <c r="A253" s="4"/>
     </row>
-    <row r="254" spans="1:1">
+    <row r="254" ht="14.4" spans="1:1">
       <c r="A254" s="4"/>
     </row>
-    <row r="255" spans="1:1">
+    <row r="255" ht="14.4" spans="1:1">
       <c r="A255" s="4"/>
     </row>
-    <row r="256" spans="1:1">
+    <row r="256" ht="14.4" spans="1:1">
       <c r="A256" s="4"/>
     </row>
-    <row r="257" spans="1:1">
+    <row r="257" ht="14.4" spans="1:1">
       <c r="A257" s="4"/>
     </row>
-    <row r="258" spans="1:1">
+    <row r="258" ht="14.4" spans="1:1">
       <c r="A258" s="4"/>
     </row>
-    <row r="259" spans="1:1">
+    <row r="259" ht="14.4" spans="1:1">
       <c r="A259" s="4" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="260" spans="1:1">
+    <row r="260" ht="14.4" spans="1:1">
       <c r="A260" s="4"/>
     </row>
-    <row r="261" spans="1:1">
+    <row r="261" ht="14.4" spans="1:1">
       <c r="A261" s="4"/>
     </row>
-    <row r="262" spans="1:1">
+    <row r="262" ht="14.4" spans="1:1">
       <c r="A262" s="4"/>
     </row>
-    <row r="263" spans="1:1">
+    <row r="263" ht="14.4" spans="1:1">
       <c r="A263" s="4"/>
     </row>
-    <row r="264" spans="1:1">
+    <row r="264" ht="14.4" spans="1:1">
       <c r="A264" s="4"/>
     </row>
-    <row r="265" spans="1:1">
+    <row r="265" ht="14.4" spans="1:1">
       <c r="A265" s="4"/>
     </row>
-    <row r="266" spans="1:1">
+    <row r="266" ht="14.4" spans="1:1">
       <c r="A266" s="4"/>
     </row>
-    <row r="267" spans="1:1">
+    <row r="267" ht="14.4" spans="1:1">
       <c r="A267" s="4"/>
     </row>
-    <row r="268" spans="1:1">
+    <row r="268" ht="14.4" spans="1:1">
       <c r="A268" s="4" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="269" spans="1:1">
+    <row r="269" ht="14.4" spans="1:1">
       <c r="A269" s="4"/>
     </row>
-    <row r="270" spans="1:1">
+    <row r="270" ht="14.4" spans="1:1">
       <c r="A270" s="4"/>
     </row>
-    <row r="271" spans="1:1">
+    <row r="271" ht="14.4" spans="1:1">
       <c r="A271" s="4"/>
     </row>
-    <row r="272" spans="1:1">
+    <row r="272" ht="14.4" spans="1:1">
       <c r="A272" s="4"/>
     </row>
-    <row r="273" spans="1:1">
+    <row r="273" ht="14.4" spans="1:1">
       <c r="A273" s="4"/>
     </row>
-    <row r="274" spans="1:1">
+    <row r="274" ht="14.4" spans="1:1">
       <c r="A274" s="4"/>
     </row>
-    <row r="275" spans="1:1">
+    <row r="275" ht="14.4" spans="1:1">
       <c r="A275" s="4"/>
     </row>
-    <row r="276" spans="1:1">
+    <row r="276" ht="14.4" spans="1:1">
       <c r="A276" s="4"/>
     </row>
-    <row r="277" spans="1:1">
+    <row r="277" ht="14.4" spans="1:1">
       <c r="A277" s="4"/>
     </row>
-    <row r="278" spans="1:1">
+    <row r="278" ht="14.4" spans="1:1">
       <c r="A278" s="4"/>
     </row>
-    <row r="279" spans="1:1">
+    <row r="279" ht="14.4" spans="1:1">
       <c r="A279" s="4"/>
     </row>
-    <row r="280" spans="1:1">
+    <row r="280" ht="14.4" spans="1:1">
       <c r="A280" s="4"/>
     </row>
-    <row r="281" spans="1:1">
+    <row r="281" ht="14.4" spans="1:1">
       <c r="A281" s="4"/>
     </row>
-    <row r="282" spans="1:1">
+    <row r="282" ht="14.4" spans="1:1">
       <c r="A282" s="4"/>
     </row>
-    <row r="283" spans="1:1">
+    <row r="283" ht="14.4" spans="1:1">
       <c r="A283" s="4"/>
     </row>
-    <row r="284" spans="1:1">
+    <row r="284" ht="14.4" spans="1:1">
       <c r="A284" s="4"/>
     </row>
-    <row r="285" spans="1:1">
+    <row r="285" ht="14.4" spans="1:1">
       <c r="A285" s="4"/>
     </row>
-    <row r="286" spans="1:1">
+    <row r="286" ht="14.4" spans="1:1">
       <c r="A286" s="4"/>
     </row>
-    <row r="287" spans="1:1">
+    <row r="287" ht="14.4" spans="1:1">
       <c r="A287" s="4"/>
     </row>
-    <row r="288" spans="1:1">
+    <row r="288" ht="14.4" spans="1:1">
       <c r="A288" s="4"/>
     </row>
-    <row r="289" spans="1:1">
+    <row r="289" ht="14.4" spans="1:1">
       <c r="A289" s="4"/>
     </row>
-    <row r="290" spans="1:1">
+    <row r="290" ht="14.4" spans="1:1">
       <c r="A290" s="4"/>
     </row>
-    <row r="291" spans="1:1">
+    <row r="291" ht="14.4" spans="1:1">
       <c r="A291" s="4"/>
     </row>
-    <row r="292" spans="1:1">
+    <row r="292" ht="14.4" spans="1:1">
       <c r="A292" s="4"/>
     </row>
-    <row r="293" spans="1:1">
+    <row r="293" ht="14.4" spans="1:1">
       <c r="A293" s="4"/>
     </row>
-    <row r="294" spans="1:1">
+    <row r="294" ht="14.4" spans="1:1">
       <c r="A294" s="4"/>
     </row>
-    <row r="295" spans="1:1">
+    <row r="295" ht="14.4" spans="1:1">
       <c r="A295" s="4"/>
     </row>
-    <row r="296" spans="1:1">
+    <row r="296" ht="14.4" spans="1:1">
       <c r="A296" s="4"/>
     </row>
-    <row r="297" spans="1:1">
+    <row r="297" ht="14.4" spans="1:1">
       <c r="A297" s="4"/>
     </row>
-    <row r="298" spans="1:1">
+    <row r="298" ht="14.4" spans="1:1">
       <c r="A298" s="4"/>
     </row>
-    <row r="299" spans="1:1">
+    <row r="299" ht="14.4" spans="1:1">
       <c r="A299" s="4"/>
     </row>
-    <row r="300" spans="1:1">
+    <row r="300" ht="14.4" spans="1:1">
       <c r="A300" s="4"/>
     </row>
-    <row r="301" spans="1:1">
+    <row r="301" ht="14.4" spans="1:1">
       <c r="A301" s="4"/>
     </row>
-    <row r="302" spans="1:1">
+    <row r="302" ht="14.4" spans="1:1">
       <c r="A302" s="4"/>
     </row>
-    <row r="303" spans="1:1">
+    <row r="303" ht="14.4" spans="1:1">
       <c r="A303" s="4"/>
     </row>
-    <row r="304" spans="1:1">
+    <row r="304" ht="14.4" spans="1:1">
       <c r="A304" s="4"/>
     </row>
-    <row r="305" spans="1:1">
+    <row r="305" ht="14.4" spans="1:1">
       <c r="A305" s="4"/>
     </row>
-    <row r="306" spans="1:1">
+    <row r="306" ht="14.4" spans="1:1">
       <c r="A306" s="4"/>
     </row>
-    <row r="307" spans="1:1">
+    <row r="307" ht="14.4" spans="1:1">
       <c r="A307" s="4"/>
     </row>
-    <row r="308" spans="1:1">
+    <row r="308" ht="14.4" spans="1:1">
       <c r="A308" s="4"/>
     </row>
-    <row r="309" spans="1:1">
+    <row r="309" ht="14.4" spans="1:1">
       <c r="A309" s="4"/>
     </row>
-    <row r="310" spans="1:1">
+    <row r="310" ht="14.4" spans="1:1">
       <c r="A310" s="4"/>
     </row>
-    <row r="311" spans="1:1">
+    <row r="311" ht="14.4" spans="1:1">
       <c r="A311" s="4"/>
     </row>
-    <row r="312" spans="1:1">
+    <row r="312" ht="14.4" spans="1:1">
       <c r="A312" s="4" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="313" spans="1:1">
+    <row r="313" ht="14.4" spans="1:1">
       <c r="A313" s="4"/>
     </row>
-    <row r="314" spans="1:1">
+    <row r="314" ht="14.4" spans="1:1">
       <c r="A314" s="4"/>
     </row>
-    <row r="315" spans="1:1">
+    <row r="315" ht="14.4" spans="1:1">
       <c r="A315" s="4"/>
     </row>
-    <row r="316" spans="1:1">
+    <row r="316" ht="14.4" spans="1:1">
       <c r="A316" s="4"/>
     </row>
-    <row r="317" spans="1:1">
+    <row r="317" ht="14.4" spans="1:1">
       <c r="A317" s="4"/>
     </row>
-    <row r="318" spans="1:1">
+    <row r="318" ht="14.4" spans="1:1">
       <c r="A318" s="4"/>
     </row>
-    <row r="319" spans="1:1">
+    <row r="319" ht="14.4" spans="1:1">
       <c r="A319" s="4"/>
     </row>
-    <row r="320" spans="1:1">
+    <row r="320" ht="14.4" spans="1:1">
       <c r="A320" s="4"/>
     </row>
-    <row r="321" spans="1:1">
+    <row r="321" ht="14.4" spans="1:1">
       <c r="A321" s="4"/>
     </row>
-    <row r="322" spans="1:1">
+    <row r="322" ht="14.4" spans="1:1">
       <c r="A322" s="4"/>
     </row>
-    <row r="323" spans="1:1">
+    <row r="323" ht="14.4" spans="1:1">
       <c r="A323" s="4"/>
     </row>
-    <row r="324" spans="1:1">
+    <row r="324" ht="14.4" spans="1:1">
       <c r="A324" s="4"/>
     </row>
-    <row r="325" spans="1:1">
+    <row r="325" ht="14.4" spans="1:1">
       <c r="A325" s="4"/>
     </row>
-    <row r="326" spans="1:1">
+    <row r="326" ht="14.4" spans="1:1">
       <c r="A326" s="4"/>
     </row>
-    <row r="327" spans="1:1">
+    <row r="327" ht="14.4" spans="1:1">
       <c r="A327" s="4"/>
     </row>
-    <row r="328" spans="1:1">
+    <row r="328" ht="14.4" spans="1:1">
       <c r="A328" s="4"/>
     </row>
-    <row r="329" spans="1:1">
+    <row r="329" ht="14.4" spans="1:1">
       <c r="A329" s="4"/>
     </row>
-    <row r="330" spans="1:1">
+    <row r="330" ht="14.4" spans="1:1">
       <c r="A330" s="4" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="331" spans="1:1">
+    <row r="331" ht="14.4" spans="1:1">
       <c r="A331" s="4"/>
     </row>
-    <row r="332" spans="1:1">
+    <row r="332" ht="14.4" spans="1:1">
       <c r="A332" s="4"/>
     </row>
-    <row r="333" spans="1:1">
+    <row r="333" ht="14.4" spans="1:1">
       <c r="A333" s="4"/>
     </row>
-    <row r="334" spans="1:1">
+    <row r="334" ht="14.4" spans="1:1">
       <c r="A334" s="4"/>
     </row>
-    <row r="335" spans="1:1">
+    <row r="335" ht="14.4" spans="1:1">
       <c r="A335" s="4"/>
     </row>
     <row r="336" spans="1:1">
@@ -2390,1779 +2439,1779 @@
         <v>13</v>
       </c>
     </row>
-    <row r="344" spans="1:1">
+    <row r="344" ht="14.4" spans="1:1">
       <c r="A344" s="4" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="345" spans="1:1">
+    <row r="345" ht="14.4" spans="1:1">
       <c r="A345" s="4"/>
     </row>
-    <row r="346" spans="1:1">
+    <row r="346" ht="14.4" spans="1:1">
       <c r="A346" s="4"/>
     </row>
-    <row r="347" spans="1:1">
+    <row r="347" ht="14.4" spans="1:1">
       <c r="A347" s="4"/>
     </row>
-    <row r="348" spans="1:1">
+    <row r="348" ht="14.4" spans="1:1">
       <c r="A348" s="4"/>
     </row>
-    <row r="349" spans="1:1">
+    <row r="349" ht="14.4" spans="1:1">
       <c r="A349" s="4"/>
     </row>
-    <row r="350" spans="1:1">
+    <row r="350" ht="14.4" spans="1:1">
       <c r="A350" s="4"/>
     </row>
-    <row r="351" spans="1:1">
+    <row r="351" ht="14.4" spans="1:1">
       <c r="A351" s="4" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="352" spans="1:1">
+    <row r="352" ht="14.4" spans="1:1">
       <c r="A352" s="4"/>
     </row>
-    <row r="353" spans="1:1">
+    <row r="353" ht="14.4" spans="1:1">
       <c r="A353" s="4"/>
     </row>
-    <row r="354" spans="1:1">
+    <row r="354" ht="14.4" spans="1:1">
       <c r="A354" s="4"/>
     </row>
-    <row r="355" spans="1:1">
+    <row r="355" ht="14.4" spans="1:1">
       <c r="A355" s="4"/>
     </row>
-    <row r="356" spans="1:1">
+    <row r="356" ht="14.4" spans="1:1">
       <c r="A356" s="4"/>
     </row>
-    <row r="357" spans="1:1">
+    <row r="357" ht="14.4" spans="1:1">
       <c r="A357" s="4"/>
     </row>
-    <row r="358" spans="1:1">
+    <row r="358" ht="14.4" spans="1:1">
       <c r="A358" s="4" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="359" spans="1:1">
+    <row r="359" ht="14.4" spans="1:1">
       <c r="A359" s="4"/>
     </row>
-    <row r="360" spans="1:1">
+    <row r="360" ht="14.4" spans="1:1">
       <c r="A360" s="4"/>
     </row>
-    <row r="361" spans="1:1">
+    <row r="361" ht="14.4" spans="1:1">
       <c r="A361" s="4"/>
     </row>
-    <row r="362" spans="1:1">
+    <row r="362" ht="14.4" spans="1:1">
       <c r="A362" s="4"/>
     </row>
-    <row r="363" spans="1:1">
+    <row r="363" ht="14.4" spans="1:1">
       <c r="A363" s="4"/>
     </row>
-    <row r="364" spans="1:1">
+    <row r="364" ht="14.4" spans="1:1">
       <c r="A364" s="4"/>
     </row>
-    <row r="365" spans="1:1">
+    <row r="365" ht="14.4" spans="1:1">
       <c r="A365" s="4" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="366" spans="1:1">
+    <row r="366" ht="14.4" spans="1:1">
       <c r="A366" s="4"/>
     </row>
-    <row r="367" spans="1:1">
+    <row r="367" ht="14.4" spans="1:1">
       <c r="A367" s="4"/>
     </row>
-    <row r="368" spans="1:1">
+    <row r="368" ht="14.4" spans="1:1">
       <c r="A368" s="4"/>
     </row>
-    <row r="369" spans="1:1">
+    <row r="369" ht="14.4" spans="1:1">
       <c r="A369" s="4"/>
     </row>
-    <row r="370" spans="1:1">
+    <row r="370" ht="14.4" spans="1:1">
       <c r="A370" s="4"/>
     </row>
-    <row r="371" spans="1:1">
+    <row r="371" ht="14.4" spans="1:1">
       <c r="A371" s="4"/>
     </row>
-    <row r="372" spans="1:1">
+    <row r="372" ht="14.4" spans="1:1">
       <c r="A372" s="4"/>
     </row>
-    <row r="373" spans="1:1">
+    <row r="373" ht="14.4" spans="1:1">
       <c r="A373" s="4"/>
     </row>
-    <row r="374" spans="1:1">
+    <row r="374" ht="14.4" spans="1:1">
       <c r="A374" s="4"/>
     </row>
-    <row r="375" spans="1:1">
+    <row r="375" ht="14.4" spans="1:1">
       <c r="A375" s="4"/>
     </row>
-    <row r="376" spans="1:1">
+    <row r="376" ht="14.4" spans="1:1">
       <c r="A376" s="4" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="377" spans="1:1">
+    <row r="377" ht="14.4" spans="1:1">
       <c r="A377" s="4"/>
     </row>
-    <row r="378" spans="1:1">
+    <row r="378" ht="14.4" spans="1:1">
       <c r="A378" s="4"/>
     </row>
-    <row r="379" spans="1:1">
+    <row r="379" ht="14.4" spans="1:1">
       <c r="A379" s="4"/>
     </row>
-    <row r="380" spans="1:1">
+    <row r="380" ht="14.4" spans="1:1">
       <c r="A380" s="4"/>
     </row>
-    <row r="381" spans="1:1">
+    <row r="381" ht="14.4" spans="1:1">
       <c r="A381" s="4"/>
     </row>
-    <row r="382" spans="1:1">
+    <row r="382" ht="14.4" spans="1:1">
       <c r="A382" s="4"/>
     </row>
-    <row r="383" spans="1:1">
+    <row r="383" ht="14.4" spans="1:1">
       <c r="A383" s="4"/>
     </row>
-    <row r="384" spans="1:1">
+    <row r="384" ht="14.4" spans="1:1">
       <c r="A384" s="4"/>
     </row>
-    <row r="385" spans="1:1">
+    <row r="385" ht="14.4" spans="1:1">
       <c r="A385" s="4"/>
     </row>
-    <row r="386" spans="1:1">
+    <row r="386" ht="14.4" spans="1:1">
       <c r="A386" s="4" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="387" spans="1:1">
+    <row r="387" ht="14.4" spans="1:1">
       <c r="A387" s="4"/>
     </row>
-    <row r="388" spans="1:1">
+    <row r="388" ht="14.4" spans="1:1">
       <c r="A388" s="4"/>
     </row>
-    <row r="389" spans="1:1">
+    <row r="389" ht="14.4" spans="1:1">
       <c r="A389" s="4" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="390" spans="1:1">
+    <row r="390" ht="14.4" spans="1:1">
       <c r="A390" s="4"/>
     </row>
-    <row r="391" spans="1:1">
+    <row r="391" ht="14.4" spans="1:1">
       <c r="A391" s="4"/>
     </row>
-    <row r="392" spans="1:1">
+    <row r="392" ht="14.4" spans="1:1">
       <c r="A392" s="4"/>
     </row>
-    <row r="393" spans="1:1">
+    <row r="393" ht="14.4" spans="1:1">
       <c r="A393" s="4"/>
     </row>
-    <row r="394" spans="1:1">
+    <row r="394" ht="14.4" spans="1:1">
       <c r="A394" s="4"/>
     </row>
-    <row r="395" spans="1:1">
+    <row r="395" ht="14.4" spans="1:1">
       <c r="A395" s="4"/>
     </row>
-    <row r="396" spans="1:1">
+    <row r="396" ht="14.4" spans="1:1">
       <c r="A396" s="4"/>
     </row>
-    <row r="397" spans="1:1">
+    <row r="397" ht="14.4" spans="1:1">
       <c r="A397" s="4"/>
     </row>
-    <row r="398" spans="1:1">
+    <row r="398" ht="14.4" spans="1:1">
       <c r="A398" s="4"/>
     </row>
-    <row r="399" spans="1:1">
+    <row r="399" ht="14.4" spans="1:1">
       <c r="A399" s="4" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="400" spans="1:1">
+    <row r="400" ht="14.4" spans="1:1">
       <c r="A400" s="4"/>
     </row>
-    <row r="401" spans="1:1">
+    <row r="401" ht="14.4" spans="1:1">
       <c r="A401" s="4"/>
     </row>
-    <row r="402" spans="1:1">
+    <row r="402" ht="14.4" spans="1:1">
       <c r="A402" s="4"/>
     </row>
-    <row r="403" spans="1:1">
+    <row r="403" ht="14.4" spans="1:1">
       <c r="A403" s="4" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="404" spans="1:1">
+    <row r="404" ht="14.4" spans="1:1">
       <c r="A404" s="4"/>
     </row>
-    <row r="405" spans="1:1">
+    <row r="405" ht="14.4" spans="1:1">
       <c r="A405" s="4"/>
     </row>
-    <row r="406" spans="1:1">
+    <row r="406" ht="14.4" spans="1:1">
       <c r="A406" s="4"/>
     </row>
-    <row r="407" spans="1:1">
+    <row r="407" ht="14.4" spans="1:1">
       <c r="A407" s="4"/>
     </row>
-    <row r="408" spans="1:1">
+    <row r="408" ht="14.4" spans="1:1">
       <c r="A408" s="4"/>
     </row>
-    <row r="409" spans="1:1">
+    <row r="409" ht="14.4" spans="1:1">
       <c r="A409" s="4"/>
     </row>
-    <row r="410" spans="1:1">
+    <row r="410" ht="14.4" spans="1:1">
       <c r="A410" s="4" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="411" spans="1:1">
+    <row r="411" ht="14.4" spans="1:1">
       <c r="A411" s="4"/>
     </row>
-    <row r="412" spans="1:1">
+    <row r="412" ht="14.4" spans="1:1">
       <c r="A412" s="4"/>
     </row>
-    <row r="413" spans="1:1">
+    <row r="413" ht="14.4" spans="1:1">
       <c r="A413" s="4"/>
     </row>
-    <row r="414" spans="1:1">
+    <row r="414" ht="14.4" spans="1:1">
       <c r="A414" s="4"/>
     </row>
-    <row r="415" spans="1:1">
+    <row r="415" ht="14.4" spans="1:1">
       <c r="A415" s="4"/>
     </row>
-    <row r="416" spans="1:1">
+    <row r="416" ht="14.4" spans="1:1">
       <c r="A416" s="4"/>
     </row>
-    <row r="417" spans="1:1">
+    <row r="417" ht="14.4" spans="1:1">
       <c r="A417" s="4"/>
     </row>
-    <row r="418" spans="1:1">
+    <row r="418" ht="14.4" spans="1:1">
       <c r="A418" s="4" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="419" spans="1:1">
+    <row r="419" ht="14.4" spans="1:1">
       <c r="A419" s="4"/>
     </row>
-    <row r="420" spans="1:1">
+    <row r="420" ht="14.4" spans="1:1">
       <c r="A420" s="4"/>
     </row>
-    <row r="421" spans="1:1">
+    <row r="421" ht="14.4" spans="1:1">
       <c r="A421" s="4"/>
     </row>
-    <row r="422" spans="1:1">
+    <row r="422" ht="14.4" spans="1:1">
       <c r="A422" s="4"/>
     </row>
-    <row r="423" spans="1:1">
+    <row r="423" ht="14.4" spans="1:1">
       <c r="A423" s="4"/>
     </row>
-    <row r="424" spans="1:1">
+    <row r="424" ht="14.4" spans="1:1">
       <c r="A424" s="4" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="425" spans="1:1">
+    <row r="425" ht="14.4" spans="1:1">
       <c r="A425" s="4"/>
     </row>
-    <row r="426" spans="1:1">
+    <row r="426" ht="14.4" spans="1:1">
       <c r="A426" s="4"/>
     </row>
-    <row r="427" spans="1:1">
+    <row r="427" ht="14.4" spans="1:1">
       <c r="A427" s="4"/>
     </row>
-    <row r="428" spans="1:1">
+    <row r="428" ht="14.4" spans="1:1">
       <c r="A428" s="4"/>
     </row>
-    <row r="429" spans="1:1">
+    <row r="429" ht="14.4" spans="1:1">
       <c r="A429" s="4" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="430" spans="1:1">
+    <row r="430" ht="14.4" spans="1:1">
       <c r="A430" s="4"/>
     </row>
-    <row r="431" spans="1:1">
+    <row r="431" ht="14.4" spans="1:1">
       <c r="A431" s="4"/>
     </row>
-    <row r="432" spans="1:1">
+    <row r="432" ht="14.4" spans="1:1">
       <c r="A432" s="4"/>
     </row>
-    <row r="433" spans="1:1">
+    <row r="433" ht="14.4" spans="1:1">
       <c r="A433" s="4"/>
     </row>
-    <row r="434" spans="1:1">
+    <row r="434" ht="14.4" spans="1:1">
       <c r="A434" s="4"/>
     </row>
-    <row r="435" spans="1:1">
+    <row r="435" ht="14.4" spans="1:1">
       <c r="A435" s="4"/>
     </row>
-    <row r="436" spans="1:1">
+    <row r="436" ht="14.4" spans="1:1">
       <c r="A436" s="4"/>
     </row>
-    <row r="437" spans="1:1">
+    <row r="437" ht="14.4" spans="1:1">
       <c r="A437" s="4"/>
     </row>
-    <row r="438" spans="1:1">
+    <row r="438" ht="14.4" spans="1:1">
       <c r="A438" s="4"/>
     </row>
-    <row r="439" spans="1:1">
+    <row r="439" ht="14.4" spans="1:1">
       <c r="A439" s="4"/>
     </row>
-    <row r="440" spans="1:1">
+    <row r="440" ht="14.4" spans="1:1">
       <c r="A440" s="4"/>
     </row>
-    <row r="441" spans="1:1">
+    <row r="441" ht="14.4" spans="1:1">
       <c r="A441" s="4"/>
     </row>
-    <row r="442" spans="1:1">
+    <row r="442" ht="14.4" spans="1:1">
       <c r="A442" s="4"/>
     </row>
-    <row r="443" spans="1:1">
+    <row r="443" ht="14.4" spans="1:1">
       <c r="A443" s="4"/>
     </row>
-    <row r="444" spans="1:1">
+    <row r="444" ht="14.4" spans="1:1">
       <c r="A444" s="4" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="445" spans="1:1">
+    <row r="445" ht="14.4" spans="1:1">
       <c r="A445" s="4"/>
     </row>
-    <row r="446" spans="1:1">
+    <row r="446" ht="14.4" spans="1:1">
       <c r="A446" s="4"/>
     </row>
-    <row r="447" spans="1:1">
+    <row r="447" ht="14.4" spans="1:1">
       <c r="A447" s="4"/>
     </row>
-    <row r="448" spans="1:1">
+    <row r="448" ht="14.4" spans="1:1">
       <c r="A448" s="4"/>
     </row>
-    <row r="449" spans="1:1">
+    <row r="449" ht="14.4" spans="1:1">
       <c r="A449" s="4"/>
     </row>
-    <row r="450" spans="1:1">
+    <row r="450" ht="14.4" spans="1:1">
       <c r="A450" s="4"/>
     </row>
-    <row r="451" spans="1:1">
+    <row r="451" ht="14.4" spans="1:1">
       <c r="A451" s="4"/>
     </row>
-    <row r="452" spans="1:1">
+    <row r="452" ht="14.4" spans="1:1">
       <c r="A452" s="4"/>
     </row>
-    <row r="453" spans="1:1">
+    <row r="453" ht="14.4" spans="1:1">
       <c r="A453" s="4"/>
     </row>
-    <row r="454" spans="1:1">
+    <row r="454" ht="14.4" spans="1:1">
       <c r="A454" s="4"/>
     </row>
-    <row r="455" spans="1:1">
+    <row r="455" ht="14.4" spans="1:1">
       <c r="A455" s="4"/>
     </row>
-    <row r="456" spans="1:1">
+    <row r="456" ht="14.4" spans="1:1">
       <c r="A456" s="4" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="457" spans="1:1">
+    <row r="457" ht="14.4" spans="1:1">
       <c r="A457" s="4"/>
     </row>
-    <row r="458" spans="1:1">
+    <row r="458" ht="14.4" spans="1:1">
       <c r="A458" s="4"/>
     </row>
-    <row r="459" spans="1:1">
+    <row r="459" ht="14.4" spans="1:1">
       <c r="A459" s="4"/>
     </row>
-    <row r="460" spans="1:1">
+    <row r="460" ht="14.4" spans="1:1">
       <c r="A460" s="4"/>
     </row>
-    <row r="461" spans="1:1">
+    <row r="461" ht="14.4" spans="1:1">
       <c r="A461" s="4"/>
     </row>
-    <row r="462" spans="1:1">
+    <row r="462" ht="14.4" spans="1:1">
       <c r="A462" s="4"/>
     </row>
-    <row r="463" spans="1:1">
+    <row r="463" ht="14.4" spans="1:1">
       <c r="A463" s="4"/>
     </row>
-    <row r="464" spans="1:1">
+    <row r="464" ht="14.4" spans="1:1">
       <c r="A464" s="4"/>
     </row>
-    <row r="465" spans="1:1">
+    <row r="465" ht="14.4" spans="1:1">
       <c r="A465" s="4" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="466" spans="1:1">
+    <row r="466" ht="14.4" spans="1:1">
       <c r="A466" s="4"/>
     </row>
-    <row r="467" spans="1:1">
+    <row r="467" ht="14.4" spans="1:1">
       <c r="A467" s="4"/>
     </row>
-    <row r="468" spans="1:1">
+    <row r="468" ht="14.4" spans="1:1">
       <c r="A468" s="4"/>
     </row>
-    <row r="469" spans="1:1">
+    <row r="469" ht="14.4" spans="1:1">
       <c r="A469" s="4"/>
     </row>
-    <row r="470" spans="1:1">
+    <row r="470" ht="14.4" spans="1:1">
       <c r="A470" s="4"/>
     </row>
-    <row r="471" spans="1:1">
+    <row r="471" ht="14.4" spans="1:1">
       <c r="A471" s="4"/>
     </row>
-    <row r="472" spans="1:1">
+    <row r="472" ht="14.4" spans="1:1">
       <c r="A472" s="4"/>
     </row>
-    <row r="473" spans="1:1">
+    <row r="473" ht="14.4" spans="1:1">
       <c r="A473" s="4"/>
     </row>
-    <row r="474" spans="1:1">
+    <row r="474" ht="14.4" spans="1:1">
       <c r="A474" s="4"/>
     </row>
-    <row r="475" spans="1:1">
+    <row r="475" ht="14.4" spans="1:1">
       <c r="A475" s="4"/>
     </row>
-    <row r="476" spans="1:1">
+    <row r="476" ht="14.4" spans="1:1">
       <c r="A476" s="4"/>
     </row>
-    <row r="477" spans="1:1">
+    <row r="477" ht="14.4" spans="1:1">
       <c r="A477" s="4" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="478" spans="1:1">
+    <row r="478" ht="14.4" spans="1:1">
       <c r="A478" s="4"/>
     </row>
-    <row r="479" spans="1:1">
+    <row r="479" ht="14.4" spans="1:1">
       <c r="A479" s="4"/>
     </row>
-    <row r="480" spans="1:1">
+    <row r="480" ht="14.4" spans="1:1">
       <c r="A480" s="4"/>
     </row>
-    <row r="481" spans="1:1">
+    <row r="481" ht="14.4" spans="1:1">
       <c r="A481" s="4"/>
     </row>
-    <row r="482" spans="1:1">
+    <row r="482" ht="14.4" spans="1:1">
       <c r="A482" s="4"/>
     </row>
-    <row r="483" spans="1:1">
+    <row r="483" ht="14.4" spans="1:1">
       <c r="A483" s="4"/>
     </row>
-    <row r="484" spans="1:1">
+    <row r="484" ht="14.4" spans="1:1">
       <c r="A484" s="4"/>
     </row>
-    <row r="485" spans="1:1">
+    <row r="485" ht="14.4" spans="1:1">
       <c r="A485" s="4"/>
     </row>
-    <row r="486" spans="1:1">
+    <row r="486" ht="14.4" spans="1:1">
       <c r="A486" s="4"/>
     </row>
-    <row r="487" spans="1:1">
+    <row r="487" ht="14.4" spans="1:1">
       <c r="A487" s="4"/>
     </row>
-    <row r="488" spans="1:1">
+    <row r="488" ht="14.4" spans="1:1">
       <c r="A488" s="4" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="489" spans="1:1">
+    <row r="489" ht="14.4" spans="1:1">
       <c r="A489" s="4"/>
     </row>
-    <row r="490" spans="1:1">
+    <row r="490" ht="14.4" spans="1:1">
       <c r="A490" s="4"/>
     </row>
-    <row r="491" spans="1:1">
+    <row r="491" ht="14.4" spans="1:1">
       <c r="A491" s="4"/>
     </row>
-    <row r="492" spans="1:1">
+    <row r="492" ht="14.4" spans="1:1">
       <c r="A492" s="4"/>
     </row>
-    <row r="493" spans="1:1">
+    <row r="493" ht="14.4" spans="1:1">
       <c r="A493" s="4"/>
     </row>
-    <row r="494" spans="1:1">
+    <row r="494" ht="14.4" spans="1:1">
       <c r="A494" s="4"/>
     </row>
-    <row r="495" spans="1:1">
+    <row r="495" ht="14.4" spans="1:1">
       <c r="A495" s="4"/>
     </row>
-    <row r="496" spans="1:1">
+    <row r="496" ht="14.4" spans="1:1">
       <c r="A496" s="4"/>
     </row>
-    <row r="497" spans="1:1">
+    <row r="497" ht="14.4" spans="1:1">
       <c r="A497" s="4"/>
     </row>
-    <row r="498" spans="1:1">
+    <row r="498" ht="14.4" spans="1:1">
       <c r="A498" s="4"/>
     </row>
-    <row r="499" spans="1:1">
+    <row r="499" ht="14.4" spans="1:1">
       <c r="A499" s="4"/>
     </row>
-    <row r="500" spans="1:1">
+    <row r="500" ht="14.4" spans="1:1">
       <c r="A500" s="4"/>
     </row>
-    <row r="501" spans="1:1">
+    <row r="501" ht="14.4" spans="1:1">
       <c r="A501" s="4" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="502" spans="1:1">
+    <row r="502" ht="14.4" spans="1:1">
       <c r="A502" s="4"/>
     </row>
-    <row r="503" spans="1:1">
+    <row r="503" ht="14.4" spans="1:1">
       <c r="A503" s="4"/>
     </row>
-    <row r="504" spans="1:1">
+    <row r="504" ht="14.4" spans="1:1">
       <c r="A504" s="4"/>
     </row>
-    <row r="505" spans="1:1">
+    <row r="505" ht="14.4" spans="1:1">
       <c r="A505" s="4"/>
     </row>
-    <row r="506" spans="1:1">
+    <row r="506" ht="14.4" spans="1:1">
       <c r="A506" s="4"/>
     </row>
-    <row r="507" spans="1:1">
+    <row r="507" ht="14.4" spans="1:1">
       <c r="A507" s="4"/>
     </row>
-    <row r="508" spans="1:1">
+    <row r="508" ht="14.4" spans="1:1">
       <c r="A508" s="4"/>
     </row>
-    <row r="509" spans="1:1">
+    <row r="509" ht="14.4" spans="1:1">
       <c r="A509" s="4"/>
     </row>
-    <row r="510" spans="1:1">
+    <row r="510" ht="14.4" spans="1:1">
       <c r="A510" s="4"/>
     </row>
-    <row r="511" spans="1:1">
+    <row r="511" ht="14.4" spans="1:1">
       <c r="A511" s="4"/>
     </row>
-    <row r="512" spans="1:1">
+    <row r="512" ht="14.4" spans="1:1">
       <c r="A512" s="4"/>
     </row>
-    <row r="513" spans="1:1">
+    <row r="513" ht="14.4" spans="1:1">
       <c r="A513" s="4"/>
     </row>
-    <row r="514" spans="1:1">
+    <row r="514" ht="14.4" spans="1:1">
       <c r="A514" s="4" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="515" spans="1:1">
+    <row r="515" ht="14.4" spans="1:1">
       <c r="A515" s="4"/>
     </row>
-    <row r="516" spans="1:1">
+    <row r="516" ht="14.4" spans="1:1">
       <c r="A516" s="4"/>
     </row>
-    <row r="517" spans="1:1">
+    <row r="517" ht="14.4" spans="1:1">
       <c r="A517" s="4"/>
     </row>
-    <row r="518" spans="1:1">
+    <row r="518" ht="14.4" spans="1:1">
       <c r="A518" s="4"/>
     </row>
-    <row r="519" spans="1:1">
+    <row r="519" ht="14.4" spans="1:1">
       <c r="A519" s="4"/>
     </row>
-    <row r="520" spans="1:1">
+    <row r="520" ht="14.4" spans="1:1">
       <c r="A520" s="4"/>
     </row>
-    <row r="521" spans="1:1">
+    <row r="521" ht="14.4" spans="1:1">
       <c r="A521" s="4"/>
     </row>
-    <row r="522" spans="1:1">
+    <row r="522" ht="14.4" spans="1:1">
       <c r="A522" s="4"/>
     </row>
-    <row r="523" spans="1:1">
+    <row r="523" ht="14.4" spans="1:1">
       <c r="A523" s="4"/>
     </row>
-    <row r="524" spans="1:1">
+    <row r="524" ht="14.4" spans="1:1">
       <c r="A524" s="4"/>
     </row>
-    <row r="525" spans="1:1">
+    <row r="525" ht="14.4" spans="1:1">
       <c r="A525" s="4"/>
     </row>
-    <row r="526" spans="1:1">
+    <row r="526" ht="14.4" spans="1:1">
       <c r="A526" s="4"/>
     </row>
-    <row r="527" spans="1:1">
+    <row r="527" ht="14.4" spans="1:1">
       <c r="A527" s="4" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="528" spans="1:1">
+    <row r="528" ht="14.4" spans="1:1">
       <c r="A528" s="4"/>
     </row>
-    <row r="529" spans="1:1">
+    <row r="529" ht="14.4" spans="1:1">
       <c r="A529" s="4"/>
     </row>
-    <row r="530" spans="1:1">
+    <row r="530" ht="14.4" spans="1:1">
       <c r="A530" s="4"/>
     </row>
-    <row r="531" spans="1:1">
+    <row r="531" ht="14.4" spans="1:1">
       <c r="A531" s="4"/>
     </row>
-    <row r="532" spans="1:1">
+    <row r="532" ht="14.4" spans="1:1">
       <c r="A532" s="4"/>
     </row>
-    <row r="533" spans="1:1">
+    <row r="533" ht="14.4" spans="1:1">
       <c r="A533" s="4"/>
     </row>
-    <row r="534" spans="1:1">
+    <row r="534" ht="14.4" spans="1:1">
       <c r="A534" s="4"/>
     </row>
-    <row r="535" spans="1:1">
+    <row r="535" ht="14.4" spans="1:1">
       <c r="A535" s="4"/>
     </row>
-    <row r="536" spans="1:1">
+    <row r="536" ht="14.4" spans="1:1">
       <c r="A536" s="4"/>
     </row>
-    <row r="537" spans="1:1">
+    <row r="537" ht="14.4" spans="1:1">
       <c r="A537" s="4"/>
     </row>
-    <row r="538" spans="1:1">
+    <row r="538" ht="14.4" spans="1:1">
       <c r="A538" s="4" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="539" spans="1:1">
+    <row r="539" ht="14.4" spans="1:1">
       <c r="A539" s="4"/>
     </row>
-    <row r="540" spans="1:1">
+    <row r="540" ht="14.4" spans="1:1">
       <c r="A540" s="4"/>
     </row>
-    <row r="541" spans="1:1">
+    <row r="541" ht="14.4" spans="1:1">
       <c r="A541" s="4"/>
     </row>
-    <row r="542" spans="1:1">
+    <row r="542" ht="14.4" spans="1:1">
       <c r="A542" s="4"/>
     </row>
-    <row r="543" spans="1:1">
+    <row r="543" ht="14.4" spans="1:1">
       <c r="A543" s="4" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="544" spans="1:1">
+    <row r="544" ht="14.4" spans="1:1">
       <c r="A544" s="4"/>
     </row>
-    <row r="545" spans="1:1">
+    <row r="545" ht="14.4" spans="1:1">
       <c r="A545" s="4"/>
     </row>
-    <row r="546" spans="1:1">
+    <row r="546" ht="14.4" spans="1:1">
       <c r="A546" s="4"/>
     </row>
-    <row r="547" spans="1:1">
+    <row r="547" ht="14.4" spans="1:1">
       <c r="A547" s="4" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="548" spans="1:1">
+    <row r="548" ht="14.4" spans="1:1">
       <c r="A548" s="4"/>
     </row>
-    <row r="549" spans="1:1">
+    <row r="549" ht="14.4" spans="1:1">
       <c r="A549" s="4"/>
     </row>
-    <row r="550" spans="1:1">
+    <row r="550" ht="14.4" spans="1:1">
       <c r="A550" s="4"/>
     </row>
-    <row r="551" spans="1:1">
+    <row r="551" ht="14.4" spans="1:1">
       <c r="A551" s="4"/>
     </row>
-    <row r="552" spans="1:1">
+    <row r="552" ht="14.4" spans="1:1">
       <c r="A552" s="4" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="553" spans="1:1">
+    <row r="553" ht="14.4" spans="1:1">
       <c r="A553" s="4"/>
     </row>
-    <row r="554" spans="1:1">
+    <row r="554" ht="14.4" spans="1:1">
       <c r="A554" s="4"/>
     </row>
-    <row r="555" spans="1:1">
+    <row r="555" ht="14.4" spans="1:1">
       <c r="A555" s="4"/>
     </row>
-    <row r="556" spans="1:1">
+    <row r="556" ht="14.4" spans="1:1">
       <c r="A556" s="4"/>
     </row>
-    <row r="557" spans="1:1">
+    <row r="557" ht="14.4" spans="1:1">
       <c r="A557" s="4"/>
     </row>
-    <row r="558" spans="1:1">
+    <row r="558" ht="14.4" spans="1:1">
       <c r="A558" s="4" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="559" spans="1:1">
+    <row r="559" ht="14.4" spans="1:1">
       <c r="A559" s="4"/>
     </row>
-    <row r="560" spans="1:1">
+    <row r="560" ht="14.4" spans="1:1">
       <c r="A560" s="4"/>
     </row>
-    <row r="561" spans="1:1">
+    <row r="561" ht="14.4" spans="1:1">
       <c r="A561" s="4"/>
     </row>
-    <row r="562" spans="1:1">
+    <row r="562" ht="14.4" spans="1:1">
       <c r="A562" s="4"/>
     </row>
-    <row r="563" spans="1:1">
+    <row r="563" ht="14.4" spans="1:1">
       <c r="A563" s="4"/>
     </row>
-    <row r="564" spans="1:1">
+    <row r="564" ht="14.4" spans="1:1">
       <c r="A564" s="4"/>
     </row>
-    <row r="565" spans="1:1">
+    <row r="565" ht="14.4" spans="1:1">
       <c r="A565" s="4"/>
     </row>
-    <row r="566" spans="1:1">
+    <row r="566" ht="14.4" spans="1:1">
       <c r="A566" s="4"/>
     </row>
-    <row r="567" spans="1:1">
+    <row r="567" ht="14.4" spans="1:1">
       <c r="A567" s="4"/>
     </row>
-    <row r="568" spans="1:1">
+    <row r="568" ht="14.4" spans="1:1">
       <c r="A568" s="4"/>
     </row>
-    <row r="569" spans="1:1">
+    <row r="569" ht="14.4" spans="1:1">
       <c r="A569" s="4"/>
     </row>
-    <row r="570" spans="1:1">
+    <row r="570" ht="14.4" spans="1:1">
       <c r="A570" s="4"/>
     </row>
-    <row r="571" spans="1:1">
+    <row r="571" ht="14.4" spans="1:1">
       <c r="A571" s="4"/>
     </row>
-    <row r="572" spans="1:1">
+    <row r="572" ht="14.4" spans="1:1">
       <c r="A572" s="4"/>
     </row>
-    <row r="573" spans="1:1">
+    <row r="573" ht="14.4" spans="1:1">
       <c r="A573" s="4"/>
     </row>
-    <row r="574" spans="1:1">
+    <row r="574" ht="14.4" spans="1:1">
       <c r="A574" s="4"/>
     </row>
-    <row r="575" spans="1:1">
+    <row r="575" ht="14.4" spans="1:1">
       <c r="A575" s="4"/>
     </row>
-    <row r="576" spans="1:1">
+    <row r="576" ht="14.4" spans="1:1">
       <c r="A576" s="4"/>
     </row>
-    <row r="577" spans="1:1">
+    <row r="577" ht="14.4" spans="1:1">
       <c r="A577" s="4"/>
     </row>
-    <row r="578" spans="1:1">
+    <row r="578" ht="14.4" spans="1:1">
       <c r="A578" s="4"/>
     </row>
-    <row r="579" spans="1:1">
+    <row r="579" ht="14.4" spans="1:1">
       <c r="A579" s="4"/>
     </row>
-    <row r="580" spans="1:1">
+    <row r="580" ht="14.4" spans="1:1">
       <c r="A580" s="4"/>
     </row>
-    <row r="581" spans="1:1">
+    <row r="581" ht="14.4" spans="1:1">
       <c r="A581" s="4"/>
     </row>
-    <row r="582" spans="1:1">
+    <row r="582" ht="14.4" spans="1:1">
       <c r="A582" s="4" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="583" spans="1:1">
+    <row r="583" ht="14.4" spans="1:1">
       <c r="A583" s="4"/>
     </row>
-    <row r="584" spans="1:1">
+    <row r="584" ht="14.4" spans="1:1">
       <c r="A584" s="4"/>
     </row>
-    <row r="585" spans="1:1">
+    <row r="585" ht="14.4" spans="1:1">
       <c r="A585" s="4"/>
     </row>
-    <row r="586" spans="1:1">
+    <row r="586" ht="14.4" spans="1:1">
       <c r="A586" s="4"/>
     </row>
-    <row r="587" spans="1:1">
+    <row r="587" ht="14.4" spans="1:1">
       <c r="A587" s="4"/>
     </row>
-    <row r="588" spans="1:1">
+    <row r="588" ht="14.4" spans="1:1">
       <c r="A588" s="4"/>
     </row>
-    <row r="589" spans="1:1">
+    <row r="589" ht="14.4" spans="1:1">
       <c r="A589" s="4"/>
     </row>
-    <row r="590" spans="1:1">
+    <row r="590" ht="14.4" spans="1:1">
       <c r="A590" s="4"/>
     </row>
-    <row r="591" spans="1:1">
+    <row r="591" ht="14.4" spans="1:1">
       <c r="A591" s="4"/>
     </row>
-    <row r="592" spans="1:1">
+    <row r="592" ht="14.4" spans="1:1">
       <c r="A592" s="4"/>
     </row>
-    <row r="593" spans="1:1">
+    <row r="593" ht="14.4" spans="1:1">
       <c r="A593" s="4"/>
     </row>
-    <row r="594" spans="1:1">
+    <row r="594" ht="14.4" spans="1:1">
       <c r="A594" s="5" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="595" spans="1:1">
+    <row r="595" ht="14.4" spans="1:1">
       <c r="A595" s="6"/>
     </row>
-    <row r="596" spans="1:1">
+    <row r="596" ht="14.4" spans="1:1">
       <c r="A596" s="6"/>
     </row>
-    <row r="597" spans="1:1">
+    <row r="597" ht="14.4" spans="1:1">
       <c r="A597" s="6"/>
     </row>
-    <row r="598" spans="1:1">
+    <row r="598" ht="14.4" spans="1:1">
       <c r="A598" s="6"/>
     </row>
-    <row r="599" spans="1:1">
+    <row r="599" ht="14.4" spans="1:1">
       <c r="A599" s="6"/>
     </row>
-    <row r="600" spans="1:1">
+    <row r="600" ht="14.4" spans="1:1">
       <c r="A600" s="6"/>
     </row>
-    <row r="601" spans="1:1">
+    <row r="601" ht="14.4" spans="1:1">
       <c r="A601" s="6"/>
     </row>
-    <row r="602" spans="1:1">
+    <row r="602" ht="14.4" spans="1:1">
       <c r="A602" s="6"/>
     </row>
-    <row r="603" spans="1:1">
+    <row r="603" ht="14.4" spans="1:1">
       <c r="A603" s="6"/>
     </row>
-    <row r="604" spans="1:1">
+    <row r="604" ht="14.4" spans="1:1">
       <c r="A604" s="6"/>
     </row>
-    <row r="605" spans="1:1">
+    <row r="605" ht="14.4" spans="1:1">
       <c r="A605" s="6"/>
     </row>
-    <row r="606" spans="1:1">
+    <row r="606" ht="14.4" spans="1:1">
       <c r="A606" s="6"/>
     </row>
-    <row r="607" spans="1:1">
+    <row r="607" ht="14.4" spans="1:1">
       <c r="A607" s="6"/>
     </row>
-    <row r="608" spans="1:1">
+    <row r="608" ht="14.4" spans="1:1">
       <c r="A608" s="6"/>
     </row>
-    <row r="609" spans="1:1">
+    <row r="609" ht="14.4" spans="1:1">
       <c r="A609" s="6"/>
     </row>
-    <row r="610" spans="1:1">
+    <row r="610" ht="14.4" spans="1:1">
       <c r="A610" s="6"/>
     </row>
-    <row r="611" spans="1:1">
+    <row r="611" ht="14.4" spans="1:1">
       <c r="A611" s="6"/>
     </row>
-    <row r="612" spans="1:1">
+    <row r="612" ht="14.4" spans="1:1">
       <c r="A612" s="6"/>
     </row>
-    <row r="613" spans="1:1">
+    <row r="613" ht="14.4" spans="1:1">
       <c r="A613" s="6"/>
     </row>
-    <row r="614" spans="1:1">
+    <row r="614" ht="14.4" spans="1:1">
       <c r="A614" s="6"/>
     </row>
-    <row r="615" spans="1:1">
+    <row r="615" ht="14.4" spans="1:1">
       <c r="A615" s="6"/>
     </row>
-    <row r="616" spans="1:1">
+    <row r="616" ht="14.4" spans="1:1">
       <c r="A616" s="6"/>
     </row>
-    <row r="617" spans="1:1">
+    <row r="617" ht="14.4" spans="1:1">
       <c r="A617" s="6"/>
     </row>
-    <row r="618" spans="1:1">
+    <row r="618" ht="14.4" spans="1:1">
       <c r="A618" s="6"/>
     </row>
-    <row r="619" spans="1:1">
+    <row r="619" ht="14.4" spans="1:1">
       <c r="A619" s="6"/>
     </row>
-    <row r="620" spans="1:1">
+    <row r="620" ht="14.4" spans="1:1">
       <c r="A620" s="6"/>
     </row>
-    <row r="621" spans="1:1">
+    <row r="621" ht="14.4" spans="1:1">
       <c r="A621" s="6"/>
     </row>
-    <row r="622" spans="1:1">
+    <row r="622" ht="14.4" spans="1:1">
       <c r="A622" s="6"/>
     </row>
-    <row r="623" spans="1:1">
+    <row r="623" ht="14.4" spans="1:1">
       <c r="A623" s="6"/>
     </row>
-    <row r="624" spans="1:1">
+    <row r="624" ht="14.4" spans="1:1">
       <c r="A624" s="6"/>
     </row>
-    <row r="625" spans="1:1">
+    <row r="625" ht="14.4" spans="1:1">
       <c r="A625" s="6"/>
     </row>
-    <row r="626" spans="1:1">
+    <row r="626" ht="14.4" spans="1:1">
       <c r="A626" s="6"/>
     </row>
-    <row r="627" spans="1:1">
+    <row r="627" ht="14.4" spans="1:1">
       <c r="A627" s="6"/>
     </row>
-    <row r="628" spans="1:1">
+    <row r="628" ht="14.4" spans="1:1">
       <c r="A628" s="7"/>
     </row>
-    <row r="629" spans="1:1">
+    <row r="629" ht="14.4" spans="1:1">
       <c r="A629" s="4" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="630" spans="1:1">
+    <row r="630" ht="14.4" spans="1:1">
       <c r="A630" s="4"/>
     </row>
-    <row r="631" spans="1:1">
+    <row r="631" ht="14.4" spans="1:1">
       <c r="A631" s="4"/>
     </row>
-    <row r="632" spans="1:1">
+    <row r="632" ht="14.4" spans="1:1">
       <c r="A632" s="4"/>
     </row>
-    <row r="633" spans="1:1">
+    <row r="633" ht="14.4" spans="1:1">
       <c r="A633" s="4"/>
     </row>
-    <row r="634" spans="1:1">
+    <row r="634" ht="14.4" spans="1:1">
       <c r="A634" s="4"/>
     </row>
-    <row r="635" spans="1:1">
+    <row r="635" ht="14.4" spans="1:1">
       <c r="A635" s="4"/>
     </row>
-    <row r="636" spans="1:1">
+    <row r="636" ht="14.4" spans="1:1">
       <c r="A636" s="4" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="637" spans="1:1">
+    <row r="637" ht="14.4" spans="1:1">
       <c r="A637" s="4"/>
     </row>
-    <row r="638" spans="1:1">
+    <row r="638" ht="14.4" spans="1:1">
       <c r="A638" s="4"/>
     </row>
-    <row r="639" spans="1:1">
+    <row r="639" ht="14.4" spans="1:1">
       <c r="A639" s="4"/>
     </row>
-    <row r="640" spans="1:1">
+    <row r="640" ht="14.4" spans="1:1">
       <c r="A640" s="4"/>
     </row>
-    <row r="641" spans="1:1">
+    <row r="641" ht="14.4" spans="1:1">
       <c r="A641" s="4"/>
     </row>
-    <row r="642" spans="1:1">
+    <row r="642" ht="14.4" spans="1:1">
       <c r="A642" s="4"/>
     </row>
-    <row r="643" spans="1:1">
+    <row r="643" ht="14.4" spans="1:1">
       <c r="A643" s="4" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="644" spans="1:1">
+    <row r="644" ht="14.4" spans="1:1">
       <c r="A644" s="4"/>
     </row>
-    <row r="645" spans="1:1">
+    <row r="645" ht="14.4" spans="1:1">
       <c r="A645" s="4"/>
     </row>
-    <row r="646" spans="1:1">
+    <row r="646" ht="14.4" spans="1:1">
       <c r="A646" s="4"/>
     </row>
-    <row r="647" spans="1:1">
+    <row r="647" ht="14.4" spans="1:1">
       <c r="A647" s="4"/>
     </row>
-    <row r="648" spans="1:1">
+    <row r="648" ht="14.4" spans="1:1">
       <c r="A648" s="4"/>
     </row>
-    <row r="649" spans="1:1">
+    <row r="649" ht="14.4" spans="1:1">
       <c r="A649" s="4"/>
     </row>
-    <row r="650" spans="1:1">
+    <row r="650" ht="14.4" spans="1:1">
       <c r="A650" s="4" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="651" spans="1:1">
+    <row r="651" ht="14.4" spans="1:1">
       <c r="A651" s="4"/>
     </row>
-    <row r="652" spans="1:1">
+    <row r="652" ht="14.4" spans="1:1">
       <c r="A652" s="4"/>
     </row>
-    <row r="653" spans="1:1">
+    <row r="653" ht="14.4" spans="1:1">
       <c r="A653" s="4"/>
     </row>
-    <row r="654" spans="1:1">
+    <row r="654" ht="14.4" spans="1:1">
       <c r="A654" s="4"/>
     </row>
-    <row r="655" spans="1:1">
+    <row r="655" ht="14.4" spans="1:1">
       <c r="A655" s="4"/>
     </row>
-    <row r="656" spans="1:1">
+    <row r="656" ht="14.4" spans="1:1">
       <c r="A656" s="4"/>
     </row>
-    <row r="657" spans="1:1">
+    <row r="657" ht="14.4" spans="1:1">
       <c r="A657" s="4"/>
     </row>
-    <row r="658" spans="1:1">
+    <row r="658" ht="14.4" spans="1:1">
       <c r="A658" s="4"/>
     </row>
-    <row r="659" spans="1:1">
+    <row r="659" ht="14.4" spans="1:1">
       <c r="A659" s="4"/>
     </row>
-    <row r="660" spans="1:1">
+    <row r="660" ht="14.4" spans="1:1">
       <c r="A660" s="4"/>
     </row>
-    <row r="661" spans="1:1">
+    <row r="661" ht="14.4" spans="1:1">
       <c r="A661" s="4"/>
     </row>
-    <row r="662" spans="1:1">
+    <row r="662" ht="14.4" spans="1:1">
       <c r="A662" s="4"/>
     </row>
-    <row r="663" spans="1:1">
+    <row r="663" ht="14.4" spans="1:1">
       <c r="A663" s="4"/>
     </row>
-    <row r="664" spans="1:1">
+    <row r="664" ht="14.4" spans="1:1">
       <c r="A664" s="4"/>
     </row>
-    <row r="665" spans="1:1">
+    <row r="665" ht="14.4" spans="1:1">
       <c r="A665" s="4"/>
     </row>
-    <row r="666" spans="1:1">
+    <row r="666" ht="14.4" spans="1:1">
       <c r="A666" s="4" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="667" spans="1:1">
+    <row r="667" ht="14.4" spans="1:1">
       <c r="A667" s="4"/>
     </row>
-    <row r="668" spans="1:1">
+    <row r="668" ht="14.4" spans="1:1">
       <c r="A668" s="4"/>
     </row>
-    <row r="669" spans="1:1">
+    <row r="669" ht="14.4" spans="1:1">
       <c r="A669" s="4"/>
     </row>
-    <row r="670" spans="1:1">
+    <row r="670" ht="14.4" spans="1:1">
       <c r="A670" s="4"/>
     </row>
-    <row r="671" spans="1:1">
+    <row r="671" ht="14.4" spans="1:1">
       <c r="A671" s="4"/>
     </row>
-    <row r="672" spans="1:1">
+    <row r="672" ht="14.4" spans="1:1">
       <c r="A672" s="4"/>
     </row>
-    <row r="673" spans="1:1">
+    <row r="673" ht="14.4" spans="1:1">
       <c r="A673" s="4"/>
     </row>
-    <row r="674" spans="1:1">
+    <row r="674" ht="14.4" spans="1:1">
       <c r="A674" s="4"/>
     </row>
-    <row r="675" spans="1:1">
+    <row r="675" ht="14.4" spans="1:1">
       <c r="A675" s="4" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="676" spans="1:1">
+    <row r="676" ht="14.4" spans="1:1">
       <c r="A676" s="4"/>
     </row>
-    <row r="677" spans="1:1">
+    <row r="677" ht="14.4" spans="1:1">
       <c r="A677" s="4"/>
     </row>
-    <row r="678" spans="1:1">
+    <row r="678" ht="14.4" spans="1:1">
       <c r="A678" s="4"/>
     </row>
-    <row r="679" spans="1:1">
+    <row r="679" ht="14.4" spans="1:1">
       <c r="A679" s="4"/>
     </row>
-    <row r="680" spans="1:1">
+    <row r="680" ht="14.4" spans="1:1">
       <c r="A680" s="4"/>
     </row>
-    <row r="681" spans="1:1">
+    <row r="681" ht="14.4" spans="1:1">
       <c r="A681" s="4"/>
     </row>
-    <row r="682" spans="1:1">
+    <row r="682" ht="14.4" spans="1:1">
       <c r="A682" s="4"/>
     </row>
-    <row r="683" spans="1:1">
+    <row r="683" ht="14.4" spans="1:1">
       <c r="A683" s="4"/>
     </row>
-    <row r="684" spans="1:1">
+    <row r="684" ht="14.4" spans="1:1">
       <c r="A684" s="4" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="685" spans="1:1">
+    <row r="685" ht="14.4" spans="1:1">
       <c r="A685" s="4"/>
     </row>
-    <row r="686" spans="1:1">
+    <row r="686" ht="14.4" spans="1:1">
       <c r="A686" s="4"/>
     </row>
-    <row r="687" spans="1:1">
+    <row r="687" ht="14.4" spans="1:1">
       <c r="A687" s="4"/>
     </row>
-    <row r="688" spans="1:1">
+    <row r="688" ht="14.4" spans="1:1">
       <c r="A688" s="4"/>
     </row>
-    <row r="689" spans="1:1">
+    <row r="689" ht="14.4" spans="1:1">
       <c r="A689" s="4"/>
     </row>
-    <row r="690" spans="1:1">
+    <row r="690" ht="14.4" spans="1:1">
       <c r="A690" s="4"/>
     </row>
-    <row r="691" spans="1:1">
+    <row r="691" ht="14.4" spans="1:1">
       <c r="A691" s="4"/>
     </row>
-    <row r="692" spans="1:1">
+    <row r="692" ht="14.4" spans="1:1">
       <c r="A692" s="4"/>
     </row>
-    <row r="693" spans="1:1">
+    <row r="693" ht="14.4" spans="1:1">
       <c r="A693" s="4"/>
     </row>
-    <row r="694" spans="1:1">
+    <row r="694" ht="14.4" spans="1:1">
       <c r="A694" s="4"/>
     </row>
-    <row r="695" spans="1:1">
+    <row r="695" ht="14.4" spans="1:1">
       <c r="A695" s="4"/>
     </row>
-    <row r="696" spans="1:1">
+    <row r="696" ht="14.4" spans="1:1">
       <c r="A696" s="4"/>
     </row>
-    <row r="697" spans="1:1">
+    <row r="697" ht="14.4" spans="1:1">
       <c r="A697" s="4"/>
     </row>
-    <row r="698" spans="1:1">
+    <row r="698" ht="14.4" spans="1:1">
       <c r="A698" s="4" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="699" spans="1:1">
+    <row r="699" ht="14.4" spans="1:1">
       <c r="A699" s="4"/>
     </row>
-    <row r="700" spans="1:1">
+    <row r="700" ht="14.4" spans="1:1">
       <c r="A700" s="4"/>
     </row>
-    <row r="701" spans="1:1">
+    <row r="701" ht="14.4" spans="1:1">
       <c r="A701" s="4"/>
     </row>
-    <row r="702" spans="1:1">
+    <row r="702" ht="14.4" spans="1:1">
       <c r="A702" s="4"/>
     </row>
-    <row r="703" spans="1:1">
+    <row r="703" ht="14.4" spans="1:1">
       <c r="A703" s="4"/>
     </row>
-    <row r="704" spans="1:1">
+    <row r="704" ht="14.4" spans="1:1">
       <c r="A704" s="4"/>
     </row>
-    <row r="705" spans="1:1">
+    <row r="705" ht="14.4" spans="1:1">
       <c r="A705" s="4"/>
     </row>
-    <row r="706" spans="1:1">
+    <row r="706" ht="14.4" spans="1:1">
       <c r="A706" s="4"/>
     </row>
-    <row r="707" spans="1:1">
+    <row r="707" ht="14.4" spans="1:1">
       <c r="A707" s="4"/>
     </row>
-    <row r="708" spans="1:1">
+    <row r="708" ht="14.4" spans="1:1">
       <c r="A708" s="4"/>
     </row>
-    <row r="709" spans="1:1">
+    <row r="709" ht="14.4" spans="1:1">
       <c r="A709" s="4"/>
     </row>
-    <row r="710" spans="1:1">
+    <row r="710" ht="14.4" spans="1:1">
       <c r="A710" s="4" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="711" spans="1:1">
+    <row r="711" ht="14.4" spans="1:1">
       <c r="A711" s="4"/>
     </row>
-    <row r="712" spans="1:1">
+    <row r="712" ht="14.4" spans="1:1">
       <c r="A712" s="4"/>
     </row>
-    <row r="713" spans="1:1">
+    <row r="713" ht="14.4" spans="1:1">
       <c r="A713" s="4"/>
     </row>
-    <row r="714" spans="1:1">
+    <row r="714" ht="14.4" spans="1:1">
       <c r="A714" s="4"/>
     </row>
-    <row r="715" spans="1:1">
+    <row r="715" ht="14.4" spans="1:1">
       <c r="A715" s="4"/>
     </row>
-    <row r="716" spans="1:1">
+    <row r="716" ht="14.4" spans="1:1">
       <c r="A716" s="4"/>
     </row>
-    <row r="717" spans="1:1">
+    <row r="717" ht="14.4" spans="1:1">
       <c r="A717" s="4"/>
     </row>
-    <row r="718" spans="1:1">
+    <row r="718" ht="14.4" spans="1:1">
       <c r="A718" s="4" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="719" spans="1:1">
+    <row r="719" ht="14.4" spans="1:1">
       <c r="A719" s="4"/>
     </row>
-    <row r="720" spans="1:1">
+    <row r="720" ht="14.4" spans="1:1">
       <c r="A720" s="4"/>
     </row>
-    <row r="721" spans="1:1">
+    <row r="721" ht="14.4" spans="1:1">
       <c r="A721" s="4"/>
     </row>
-    <row r="722" spans="1:1">
+    <row r="722" ht="14.4" spans="1:1">
       <c r="A722" s="4"/>
     </row>
-    <row r="723" spans="1:1">
+    <row r="723" ht="14.4" spans="1:1">
       <c r="A723" s="4"/>
     </row>
-    <row r="724" spans="1:1">
+    <row r="724" ht="14.4" spans="1:1">
       <c r="A724" s="4"/>
     </row>
-    <row r="725" spans="1:1">
+    <row r="725" ht="14.4" spans="1:1">
       <c r="A725" s="4"/>
     </row>
-    <row r="726" spans="1:1">
+    <row r="726" ht="14.4" spans="1:1">
       <c r="A726" s="4"/>
     </row>
-    <row r="727" spans="1:1">
+    <row r="727" ht="14.4" spans="1:1">
       <c r="A727" s="4" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="728" spans="1:1">
+    <row r="728" ht="14.4" spans="1:1">
       <c r="A728" s="4"/>
     </row>
-    <row r="729" spans="1:1">
+    <row r="729" ht="14.4" spans="1:1">
       <c r="A729" s="4"/>
     </row>
-    <row r="730" spans="1:1">
+    <row r="730" ht="14.4" spans="1:1">
       <c r="A730" s="4"/>
     </row>
-    <row r="731" spans="1:1">
+    <row r="731" ht="14.4" spans="1:1">
       <c r="A731" s="4"/>
     </row>
-    <row r="732" spans="1:1">
+    <row r="732" ht="14.4" spans="1:1">
       <c r="A732" s="4"/>
     </row>
-    <row r="733" spans="1:1">
+    <row r="733" ht="14.4" spans="1:1">
       <c r="A733" s="4"/>
     </row>
-    <row r="734" spans="1:1">
+    <row r="734" ht="14.4" spans="1:1">
       <c r="A734" s="4"/>
     </row>
-    <row r="735" spans="1:1">
+    <row r="735" ht="14.4" spans="1:1">
       <c r="A735" s="4"/>
     </row>
-    <row r="736" spans="1:1">
+    <row r="736" ht="14.4" spans="1:1">
       <c r="A736" s="4"/>
     </row>
-    <row r="737" spans="1:1">
+    <row r="737" ht="14.4" spans="1:1">
       <c r="A737" s="4"/>
     </row>
-    <row r="738" spans="1:1">
+    <row r="738" ht="14.4" spans="1:1">
       <c r="A738" s="4"/>
     </row>
-    <row r="739" spans="1:1">
+    <row r="739" ht="14.4" spans="1:1">
       <c r="A739" s="4" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="740" spans="1:1">
+    <row r="740" ht="14.4" spans="1:1">
       <c r="A740" s="4"/>
     </row>
-    <row r="741" spans="1:1">
+    <row r="741" ht="14.4" spans="1:1">
       <c r="A741" s="4"/>
     </row>
-    <row r="742" spans="1:1">
+    <row r="742" ht="14.4" spans="1:1">
       <c r="A742" s="4"/>
     </row>
-    <row r="743" spans="1:1">
+    <row r="743" ht="14.4" spans="1:1">
       <c r="A743" s="4"/>
     </row>
-    <row r="744" spans="1:1">
+    <row r="744" ht="14.4" spans="1:1">
       <c r="A744" s="4"/>
     </row>
-    <row r="745" spans="1:1">
+    <row r="745" ht="14.4" spans="1:1">
       <c r="A745" s="4" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="746" spans="1:1">
+    <row r="746" ht="14.4" spans="1:1">
       <c r="A746" s="4"/>
     </row>
-    <row r="747" spans="1:1">
+    <row r="747" ht="14.4" spans="1:1">
       <c r="A747" s="4"/>
     </row>
-    <row r="748" spans="1:1">
+    <row r="748" ht="14.4" spans="1:1">
       <c r="A748" s="4"/>
     </row>
-    <row r="749" spans="1:1">
+    <row r="749" ht="14.4" spans="1:1">
       <c r="A749" s="4"/>
     </row>
-    <row r="750" spans="1:1">
+    <row r="750" ht="14.4" spans="1:1">
       <c r="A750" s="4"/>
     </row>
-    <row r="751" spans="1:1">
+    <row r="751" ht="14.4" spans="1:1">
       <c r="A751" s="4"/>
     </row>
-    <row r="752" spans="1:1">
+    <row r="752" ht="14.4" spans="1:1">
       <c r="A752" s="4"/>
     </row>
-    <row r="753" spans="1:1">
+    <row r="753" ht="14.4" spans="1:1">
       <c r="A753" s="4"/>
     </row>
-    <row r="754" spans="1:1">
+    <row r="754" ht="14.4" spans="1:1">
       <c r="A754" s="4"/>
     </row>
-    <row r="755" spans="1:1">
+    <row r="755" ht="14.4" spans="1:1">
       <c r="A755" s="4"/>
     </row>
-    <row r="756" spans="1:1">
+    <row r="756" ht="14.4" spans="1:1">
       <c r="A756" s="4"/>
     </row>
-    <row r="757" spans="1:1">
+    <row r="757" ht="14.4" spans="1:1">
       <c r="A757" s="4" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="758" spans="1:1">
+    <row r="758" ht="14.4" spans="1:1">
       <c r="A758" s="4"/>
     </row>
-    <row r="759" spans="1:1">
+    <row r="759" ht="14.4" spans="1:1">
       <c r="A759" s="4"/>
     </row>
-    <row r="760" spans="1:1">
+    <row r="760" ht="14.4" spans="1:1">
       <c r="A760" s="4"/>
     </row>
-    <row r="761" spans="1:1">
+    <row r="761" ht="14.4" spans="1:1">
       <c r="A761" s="4"/>
     </row>
-    <row r="762" spans="1:1">
+    <row r="762" ht="14.4" spans="1:1">
       <c r="A762" s="4" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="763" spans="1:1">
+    <row r="763" ht="14.4" spans="1:1">
       <c r="A763" s="4"/>
     </row>
-    <row r="764" spans="1:1">
+    <row r="764" ht="14.4" spans="1:1">
       <c r="A764" s="4"/>
     </row>
-    <row r="765" spans="1:1">
+    <row r="765" ht="14.4" spans="1:1">
       <c r="A765" s="4"/>
     </row>
-    <row r="766" spans="1:1">
+    <row r="766" ht="14.4" spans="1:1">
       <c r="A766" s="4"/>
     </row>
-    <row r="767" spans="1:1">
+    <row r="767" ht="14.4" spans="1:1">
       <c r="A767" s="4" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="768" spans="1:1">
+    <row r="768" ht="14.4" spans="1:1">
       <c r="A768" s="4"/>
     </row>
-    <row r="769" spans="1:1">
+    <row r="769" ht="14.4" spans="1:1">
       <c r="A769" s="4"/>
     </row>
-    <row r="770" spans="1:1">
+    <row r="770" ht="14.4" spans="1:1">
       <c r="A770" s="4"/>
     </row>
-    <row r="771" spans="1:1">
+    <row r="771" ht="14.4" spans="1:1">
       <c r="A771" s="4" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="772" spans="1:1">
+    <row r="772" ht="14.4" spans="1:1">
       <c r="A772" s="4"/>
     </row>
-    <row r="773" spans="1:1">
+    <row r="773" ht="14.4" spans="1:1">
       <c r="A773" s="4"/>
     </row>
-    <row r="774" spans="1:1">
+    <row r="774" ht="14.4" spans="1:1">
       <c r="A774" s="4"/>
     </row>
-    <row r="775" spans="1:1">
+    <row r="775" ht="14.4" spans="1:1">
       <c r="A775" s="4"/>
     </row>
-    <row r="776" spans="1:1">
+    <row r="776" ht="14.4" spans="1:1">
       <c r="A776" s="4"/>
     </row>
-    <row r="777" spans="1:1">
+    <row r="777" ht="14.4" spans="1:1">
       <c r="A777" s="4"/>
     </row>
-    <row r="778" spans="1:1">
+    <row r="778" ht="14.4" spans="1:1">
       <c r="A778" s="4"/>
     </row>
-    <row r="779" spans="1:1">
+    <row r="779" ht="14.4" spans="1:1">
       <c r="A779" s="4"/>
     </row>
-    <row r="780" spans="1:1">
+    <row r="780" ht="14.4" spans="1:1">
       <c r="A780" s="4" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="781" spans="1:1">
+    <row r="781" ht="14.4" spans="1:1">
       <c r="A781" s="4"/>
     </row>
-    <row r="782" spans="1:1">
+    <row r="782" ht="14.4" spans="1:1">
       <c r="A782" s="4"/>
     </row>
-    <row r="783" spans="1:1">
+    <row r="783" ht="14.4" spans="1:1">
       <c r="A783" s="4"/>
     </row>
-    <row r="784" spans="1:1">
+    <row r="784" ht="14.4" spans="1:1">
       <c r="A784" s="4"/>
     </row>
-    <row r="785" spans="1:1">
+    <row r="785" ht="14.4" spans="1:1">
       <c r="A785" s="4"/>
     </row>
-    <row r="786" spans="1:1">
+    <row r="786" ht="14.4" spans="1:1">
       <c r="A786" s="4"/>
     </row>
-    <row r="787" spans="1:1">
+    <row r="787" ht="14.4" spans="1:1">
       <c r="A787" s="4"/>
     </row>
-    <row r="788" spans="1:1">
+    <row r="788" ht="14.4" spans="1:1">
       <c r="A788" s="4"/>
     </row>
-    <row r="789" spans="1:1">
+    <row r="789" ht="14.4" spans="1:1">
       <c r="A789" s="4"/>
     </row>
-    <row r="790" spans="1:1">
+    <row r="790" ht="14.4" spans="1:1">
       <c r="A790" s="4"/>
     </row>
-    <row r="791" spans="1:1">
+    <row r="791" ht="14.4" spans="1:1">
       <c r="A791" s="4"/>
     </row>
-    <row r="792" spans="1:1">
+    <row r="792" ht="14.4" spans="1:1">
       <c r="A792" s="4"/>
     </row>
-    <row r="793" spans="1:1">
+    <row r="793" ht="14.4" spans="1:1">
       <c r="A793" s="4" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="794" spans="1:1">
+    <row r="794" ht="14.4" spans="1:1">
       <c r="A794" s="4"/>
     </row>
-    <row r="795" spans="1:1">
+    <row r="795" ht="14.4" spans="1:1">
       <c r="A795" s="4"/>
     </row>
-    <row r="796" spans="1:1">
+    <row r="796" ht="14.4" spans="1:1">
       <c r="A796" s="4"/>
     </row>
-    <row r="797" spans="1:1">
+    <row r="797" ht="14.4" spans="1:1">
       <c r="A797" s="4"/>
     </row>
-    <row r="798" spans="1:1">
+    <row r="798" ht="14.4" spans="1:1">
       <c r="A798" s="4"/>
     </row>
-    <row r="799" spans="1:1">
+    <row r="799" ht="14.4" spans="1:1">
       <c r="A799" s="4"/>
     </row>
-    <row r="800" spans="1:1">
+    <row r="800" ht="14.4" spans="1:1">
       <c r="A800" s="4"/>
     </row>
-    <row r="801" spans="1:1">
+    <row r="801" ht="14.4" spans="1:1">
       <c r="A801" s="4"/>
     </row>
-    <row r="802" spans="1:1">
+    <row r="802" ht="14.4" spans="1:1">
       <c r="A802" s="4"/>
     </row>
-    <row r="803" spans="1:1">
+    <row r="803" ht="14.4" spans="1:1">
       <c r="A803" s="4"/>
     </row>
-    <row r="804" spans="1:1">
+    <row r="804" ht="14.4" spans="1:1">
       <c r="A804" s="4"/>
     </row>
-    <row r="805" spans="1:1">
+    <row r="805" ht="14.4" spans="1:1">
       <c r="A805" s="4"/>
     </row>
-    <row r="806" spans="1:1">
+    <row r="806" ht="14.4" spans="1:1">
       <c r="A806" s="4"/>
     </row>
-    <row r="807" spans="1:1">
+    <row r="807" ht="14.4" spans="1:1">
       <c r="A807" s="4" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="808" spans="1:1">
+    <row r="808" ht="14.4" spans="1:1">
       <c r="A808" s="4"/>
     </row>
-    <row r="809" spans="1:1">
+    <row r="809" ht="14.4" spans="1:1">
       <c r="A809" s="4"/>
     </row>
-    <row r="810" spans="1:1">
+    <row r="810" ht="14.4" spans="1:1">
       <c r="A810" s="4"/>
     </row>
-    <row r="811" spans="1:1">
+    <row r="811" ht="14.4" spans="1:1">
       <c r="A811" s="4"/>
     </row>
-    <row r="812" spans="1:1">
+    <row r="812" ht="14.4" spans="1:1">
       <c r="A812" s="4"/>
     </row>
-    <row r="813" spans="1:1">
+    <row r="813" ht="14.4" spans="1:1">
       <c r="A813" s="4"/>
     </row>
-    <row r="814" spans="1:1">
+    <row r="814" ht="14.4" spans="1:1">
       <c r="A814" s="4"/>
     </row>
-    <row r="815" spans="1:1">
+    <row r="815" ht="14.4" spans="1:1">
       <c r="A815" s="4"/>
     </row>
-    <row r="816" spans="1:1">
+    <row r="816" ht="14.4" spans="1:1">
       <c r="A816" s="4" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="817" spans="1:1">
+    <row r="817" ht="14.4" spans="1:1">
       <c r="A817" s="4"/>
     </row>
-    <row r="818" spans="1:1">
+    <row r="818" ht="14.4" spans="1:1">
       <c r="A818" s="4"/>
     </row>
-    <row r="819" spans="1:1">
+    <row r="819" ht="14.4" spans="1:1">
       <c r="A819" s="4"/>
     </row>
-    <row r="820" spans="1:1">
+    <row r="820" ht="14.4" spans="1:1">
       <c r="A820" s="4"/>
     </row>
-    <row r="821" spans="1:1">
+    <row r="821" ht="14.4" spans="1:1">
       <c r="A821" s="4"/>
     </row>
-    <row r="822" spans="1:1">
+    <row r="822" ht="14.4" spans="1:1">
       <c r="A822" s="4" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="823" spans="1:1">
+    <row r="823" ht="14.4" spans="1:1">
       <c r="A823" s="4"/>
     </row>
-    <row r="824" spans="1:1">
+    <row r="824" ht="14.4" spans="1:1">
       <c r="A824" s="4"/>
     </row>
-    <row r="825" spans="1:1">
+    <row r="825" ht="14.4" spans="1:1">
       <c r="A825" s="4" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="826" spans="1:1">
+    <row r="826" ht="14.4" spans="1:1">
       <c r="A826" s="4"/>
     </row>
-    <row r="827" spans="1:1">
+    <row r="827" ht="14.4" spans="1:1">
       <c r="A827" s="4"/>
     </row>
-    <row r="828" spans="1:1">
+    <row r="828" ht="14.4" spans="1:1">
       <c r="A828" s="4" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="829" spans="1:1">
+    <row r="829" ht="14.4" spans="1:1">
       <c r="A829" s="4"/>
     </row>
-    <row r="830" spans="1:1">
+    <row r="830" ht="14.4" spans="1:1">
       <c r="A830" s="4"/>
     </row>
-    <row r="831" spans="1:1">
+    <row r="831" ht="14.4" spans="1:1">
       <c r="A831" s="4"/>
     </row>
-    <row r="832" spans="1:1">
+    <row r="832" ht="14.4" spans="1:1">
       <c r="A832" s="4"/>
     </row>
-    <row r="833" spans="1:1">
+    <row r="833" ht="14.4" spans="1:1">
       <c r="A833" s="4"/>
     </row>
-    <row r="834" spans="1:1">
+    <row r="834" ht="14.4" spans="1:1">
       <c r="A834" s="4"/>
     </row>
-    <row r="835" spans="1:1">
+    <row r="835" ht="14.4" spans="1:1">
       <c r="A835" s="4"/>
     </row>
-    <row r="836" spans="1:1">
+    <row r="836" ht="14.4" spans="1:1">
       <c r="A836" s="4"/>
     </row>
-    <row r="837" spans="1:1">
+    <row r="837" ht="14.4" spans="1:1">
       <c r="A837" s="4" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="838" spans="1:1">
+    <row r="838" ht="14.4" spans="1:1">
       <c r="A838" s="4"/>
     </row>
-    <row r="839" spans="1:1">
+    <row r="839" ht="14.4" spans="1:1">
       <c r="A839" s="4"/>
     </row>
-    <row r="840" spans="1:1">
+    <row r="840" ht="14.4" spans="1:1">
       <c r="A840" s="4" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="841" spans="1:1">
+    <row r="841" ht="14.4" spans="1:1">
       <c r="A841" s="4"/>
     </row>
-    <row r="842" spans="1:1">
+    <row r="842" ht="14.4" spans="1:1">
       <c r="A842" s="4"/>
     </row>
-    <row r="843" spans="1:1">
+    <row r="843" ht="14.4" spans="1:1">
       <c r="A843" s="4"/>
     </row>
-    <row r="844" spans="1:1">
+    <row r="844" ht="14.4" spans="1:1">
       <c r="A844" s="4" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="845" spans="1:1">
+    <row r="845" ht="14.4" spans="1:1">
       <c r="A845" s="4"/>
     </row>
-    <row r="846" spans="1:1">
+    <row r="846" ht="14.4" spans="1:1">
       <c r="A846" s="4"/>
     </row>
-    <row r="847" spans="1:1">
+    <row r="847" ht="14.4" spans="1:1">
       <c r="A847" s="4"/>
     </row>
-    <row r="848" spans="1:1">
+    <row r="848" ht="14.4" spans="1:1">
       <c r="A848" s="4" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="849" spans="1:1">
+    <row r="849" ht="14.4" spans="1:1">
       <c r="A849" s="4"/>
     </row>
-    <row r="850" spans="1:1">
+    <row r="850" ht="14.4" spans="1:1">
       <c r="A850" s="4"/>
     </row>
-    <row r="851" spans="1:1">
+    <row r="851" ht="14.4" spans="1:1">
       <c r="A851" s="4"/>
     </row>
-    <row r="852" spans="1:1">
+    <row r="852" ht="14.4" spans="1:1">
       <c r="A852" s="4"/>
     </row>
-    <row r="853" spans="1:1">
+    <row r="853" ht="14.4" spans="1:1">
       <c r="A853" s="4"/>
     </row>
-    <row r="854" spans="1:1">
+    <row r="854" ht="14.4" spans="1:1">
       <c r="A854" s="4"/>
     </row>
-    <row r="855" spans="1:1">
+    <row r="855" ht="14.4" spans="1:1">
       <c r="A855" s="4" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="856" spans="1:1">
+    <row r="856" ht="14.4" spans="1:1">
       <c r="A856" s="4"/>
     </row>
-    <row r="857" spans="1:1">
+    <row r="857" ht="14.4" spans="1:1">
       <c r="A857" s="4"/>
     </row>
-    <row r="858" spans="1:1">
+    <row r="858" ht="14.4" spans="1:1">
       <c r="A858" s="4"/>
     </row>
-    <row r="859" spans="1:1">
+    <row r="859" ht="14.4" spans="1:1">
       <c r="A859" s="4"/>
     </row>
-    <row r="860" spans="1:1">
+    <row r="860" ht="14.4" spans="1:1">
       <c r="A860" s="4"/>
     </row>
-    <row r="861" spans="1:1">
+    <row r="861" ht="14.4" spans="1:1">
       <c r="A861" s="4"/>
     </row>
-    <row r="862" spans="1:1">
+    <row r="862" ht="14.4" spans="1:1">
       <c r="A862" s="4"/>
     </row>
-    <row r="863" spans="1:1">
+    <row r="863" ht="14.4" spans="1:1">
       <c r="A863" s="4" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="864" spans="1:1">
+    <row r="864" ht="14.4" spans="1:1">
       <c r="A864" s="4"/>
     </row>
-    <row r="865" spans="1:1">
+    <row r="865" ht="14.4" spans="1:1">
       <c r="A865" s="4"/>
     </row>
-    <row r="866" spans="1:1">
+    <row r="866" ht="14.4" spans="1:1">
       <c r="A866" s="4"/>
     </row>
-    <row r="867" spans="1:1">
+    <row r="867" ht="14.4" spans="1:1">
       <c r="A867" s="4"/>
     </row>
-    <row r="868" spans="1:1">
+    <row r="868" ht="14.4" spans="1:1">
       <c r="A868" s="4"/>
     </row>
-    <row r="869" spans="1:1">
+    <row r="869" ht="14.4" spans="1:1">
       <c r="A869" s="4"/>
     </row>
-    <row r="870" spans="1:1">
+    <row r="870" ht="14.4" spans="1:1">
       <c r="A870" s="4"/>
     </row>
-    <row r="871" spans="1:1">
+    <row r="871" ht="14.4" spans="1:1">
       <c r="A871" s="4" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="872" spans="1:1">
+    <row r="872" ht="14.4" spans="1:1">
       <c r="A872" s="4"/>
     </row>
-    <row r="873" spans="1:1">
+    <row r="873" ht="14.4" spans="1:1">
       <c r="A873" s="4"/>
     </row>
-    <row r="874" spans="1:1">
+    <row r="874" ht="14.4" spans="1:1">
       <c r="A874" s="4"/>
     </row>
-    <row r="875" spans="1:1">
+    <row r="875" ht="14.4" spans="1:1">
       <c r="A875" s="4"/>
     </row>
-    <row r="876" spans="1:1">
+    <row r="876" ht="14.4" spans="1:1">
       <c r="A876" s="4"/>
     </row>
-    <row r="877" spans="1:1">
+    <row r="877" ht="14.4" spans="1:1">
       <c r="A877" s="4"/>
     </row>
-    <row r="878" spans="1:1">
+    <row r="878" ht="14.4" spans="1:1">
       <c r="A878" s="4"/>
     </row>
-    <row r="879" spans="1:1">
+    <row r="879" ht="14.4" spans="1:1">
       <c r="A879" s="4" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="880" spans="1:1">
+    <row r="880" ht="14.4" spans="1:1">
       <c r="A880" s="4"/>
     </row>
-    <row r="881" spans="1:1">
+    <row r="881" ht="14.4" spans="1:1">
       <c r="A881" s="4"/>
     </row>
-    <row r="882" spans="1:1">
+    <row r="882" ht="14.4" spans="1:1">
       <c r="A882" s="4"/>
     </row>
-    <row r="883" spans="1:1">
+    <row r="883" ht="14.4" spans="1:1">
       <c r="A883" s="4"/>
     </row>
-    <row r="884" spans="1:1">
+    <row r="884" ht="14.4" spans="1:1">
       <c r="A884" s="4"/>
     </row>
-    <row r="885" spans="1:1">
+    <row r="885" ht="14.4" spans="1:1">
       <c r="A885" s="4" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="886" spans="1:1">
+    <row r="886" ht="14.4" spans="1:1">
       <c r="A886" s="4"/>
     </row>
-    <row r="887" spans="1:1">
+    <row r="887" ht="14.4" spans="1:1">
       <c r="A887" s="4"/>
     </row>
-    <row r="888" spans="1:1">
+    <row r="888" ht="14.4" spans="1:1">
       <c r="A888" s="4"/>
     </row>
-    <row r="889" spans="1:1">
+    <row r="889" ht="14.4" spans="1:1">
       <c r="A889" s="4"/>
     </row>
-    <row r="890" spans="1:1">
+    <row r="890" ht="14.4" spans="1:1">
       <c r="A890" s="4"/>
     </row>
-    <row r="891" spans="1:1">
+    <row r="891" ht="14.4" spans="1:1">
       <c r="A891" s="4"/>
     </row>
-    <row r="892" spans="1:1">
+    <row r="892" ht="14.4" spans="1:1">
       <c r="A892" s="4"/>
     </row>
-    <row r="893" spans="1:1">
+    <row r="893" ht="14.4" spans="1:1">
       <c r="A893" s="4"/>
     </row>
-    <row r="894" spans="1:1">
+    <row r="894" ht="14.4" spans="1:1">
       <c r="A894" s="4"/>
     </row>
     <row r="895" spans="1:1">
@@ -4170,115 +4219,115 @@
         <v>25</v>
       </c>
     </row>
-    <row r="896" spans="1:1">
+    <row r="896" ht="14.4" spans="1:1">
       <c r="A896" s="4" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="897" spans="1:1">
+    <row r="897" ht="14.4" spans="1:1">
       <c r="A897" s="4"/>
     </row>
-    <row r="898" spans="1:1">
+    <row r="898" ht="14.4" spans="1:1">
       <c r="A898" s="4"/>
     </row>
-    <row r="899" spans="1:1">
+    <row r="899" ht="14.4" spans="1:1">
       <c r="A899" s="4"/>
     </row>
-    <row r="900" spans="1:1">
+    <row r="900" ht="14.4" spans="1:1">
       <c r="A900" s="4"/>
     </row>
-    <row r="901" spans="1:1">
+    <row r="901" ht="14.4" spans="1:1">
       <c r="A901" s="4"/>
     </row>
-    <row r="902" spans="1:1">
+    <row r="902" ht="14.4" spans="1:1">
       <c r="A902" s="4"/>
     </row>
-    <row r="903" spans="1:1">
+    <row r="903" ht="14.4" spans="1:1">
       <c r="A903" s="4"/>
     </row>
-    <row r="904" spans="1:1">
+    <row r="904" ht="14.4" spans="1:1">
       <c r="A904" s="4"/>
     </row>
-    <row r="905" spans="1:1">
+    <row r="905" ht="14.4" spans="1:1">
       <c r="A905" s="4" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="906" spans="1:1">
+    <row r="906" ht="14.4" spans="1:1">
       <c r="A906" s="4"/>
     </row>
-    <row r="907" spans="1:1">
+    <row r="907" ht="14.4" spans="1:1">
       <c r="A907" s="4"/>
     </row>
-    <row r="908" spans="1:1">
+    <row r="908" ht="14.4" spans="1:1">
       <c r="A908" s="4"/>
     </row>
-    <row r="909" spans="1:1">
+    <row r="909" ht="14.4" spans="1:1">
       <c r="A909" s="4"/>
     </row>
-    <row r="910" spans="1:1">
+    <row r="910" ht="14.4" spans="1:1">
       <c r="A910" s="4"/>
     </row>
-    <row r="911" spans="1:1">
+    <row r="911" ht="14.4" spans="1:1">
       <c r="A911" s="4"/>
     </row>
-    <row r="912" spans="1:1">
+    <row r="912" ht="14.4" spans="1:1">
       <c r="A912" s="4"/>
     </row>
-    <row r="913" spans="1:1">
+    <row r="913" ht="14.4" spans="1:1">
       <c r="A913" s="4"/>
     </row>
-    <row r="914" spans="1:1">
+    <row r="914" ht="14.4" spans="1:1">
       <c r="A914" s="4"/>
     </row>
-    <row r="915" spans="1:1">
+    <row r="915" ht="14.4" spans="1:1">
       <c r="A915" s="4"/>
     </row>
-    <row r="916" spans="1:1">
+    <row r="916" ht="14.4" spans="1:1">
       <c r="A916" s="4"/>
     </row>
-    <row r="917" spans="1:1">
+    <row r="917" ht="14.4" spans="1:1">
       <c r="A917" s="4"/>
     </row>
-    <row r="918" spans="1:1">
+    <row r="918" ht="14.4" spans="1:1">
       <c r="A918" s="4"/>
     </row>
-    <row r="919" spans="1:1">
+    <row r="919" ht="14.4" spans="1:1">
       <c r="A919" s="4"/>
     </row>
-    <row r="920" spans="1:1">
+    <row r="920" ht="14.4" spans="1:1">
       <c r="A920" s="4"/>
     </row>
-    <row r="921" spans="1:1">
+    <row r="921" ht="14.4" spans="1:1">
       <c r="A921" s="4"/>
     </row>
-    <row r="922" spans="1:1">
+    <row r="922" ht="14.4" spans="1:1">
       <c r="A922" s="4"/>
     </row>
-    <row r="923" spans="1:1">
+    <row r="923" ht="14.4" spans="1:1">
       <c r="A923" s="4"/>
     </row>
-    <row r="924" spans="1:1">
+    <row r="924" ht="14.4" spans="1:1">
       <c r="A924" s="4"/>
     </row>
-    <row r="925" spans="1:1">
+    <row r="925" ht="14.4" spans="1:1">
       <c r="A925" s="4" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="926" spans="1:1">
+    <row r="926" ht="14.4" spans="1:1">
       <c r="A926" s="4"/>
     </row>
-    <row r="927" spans="1:1">
+    <row r="927" ht="14.4" spans="1:1">
       <c r="A927" s="4"/>
     </row>
-    <row r="928" spans="1:1">
+    <row r="928" ht="14.4" spans="1:1">
       <c r="A928" s="4"/>
     </row>
-    <row r="929" spans="1:1">
+    <row r="929" ht="14.4" spans="1:1">
       <c r="A929" s="4"/>
     </row>
-    <row r="930" spans="1:1">
+    <row r="930" ht="14.4" spans="1:1">
       <c r="A930" s="4"/>
     </row>
     <row r="931" spans="1:1">
@@ -4286,152 +4335,152 @@
         <v>8</v>
       </c>
     </row>
-    <row r="932" spans="1:1">
+    <row r="932" ht="14.4" spans="1:1">
       <c r="A932" s="4" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="933" spans="1:1">
+    <row r="933" ht="14.4" spans="1:1">
       <c r="A933" s="4"/>
     </row>
-    <row r="934" spans="1:1">
+    <row r="934" ht="14.4" spans="1:1">
       <c r="A934" s="4" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="935" spans="1:1">
+    <row r="935" ht="14.4" spans="1:1">
       <c r="A935" s="4"/>
     </row>
-    <row r="936" spans="1:1">
+    <row r="936" ht="14.4" spans="1:1">
       <c r="A936" s="4"/>
     </row>
-    <row r="937" spans="1:1">
+    <row r="937" ht="14.4" spans="1:1">
       <c r="A937" s="4"/>
     </row>
-    <row r="938" spans="1:1">
+    <row r="938" ht="14.4" spans="1:1">
       <c r="A938" s="4"/>
     </row>
-    <row r="939" spans="1:1">
+    <row r="939" ht="14.4" spans="1:1">
       <c r="A939" s="4"/>
     </row>
-    <row r="940" spans="1:1">
+    <row r="940" ht="14.4" spans="1:1">
       <c r="A940" s="4"/>
     </row>
-    <row r="941" spans="1:1">
+    <row r="941" ht="14.4" spans="1:1">
       <c r="A941" s="4"/>
     </row>
-    <row r="942" spans="1:1">
+    <row r="942" ht="14.4" spans="1:1">
       <c r="A942" s="4"/>
     </row>
-    <row r="943" spans="1:1">
+    <row r="943" ht="14.4" spans="1:1">
       <c r="A943" s="4"/>
     </row>
-    <row r="944" spans="1:1">
+    <row r="944" ht="14.4" spans="1:1">
       <c r="A944" s="4"/>
     </row>
-    <row r="945" spans="1:1">
+    <row r="945" ht="14.4" spans="1:1">
       <c r="A945" s="4"/>
     </row>
-    <row r="946" spans="1:1">
+    <row r="946" ht="14.4" spans="1:1">
       <c r="A946" s="4"/>
     </row>
-    <row r="947" spans="1:1">
+    <row r="947" ht="14.4" spans="1:1">
       <c r="A947" s="4"/>
     </row>
-    <row r="948" spans="1:1">
+    <row r="948" ht="14.4" spans="1:1">
       <c r="A948" s="4"/>
     </row>
-    <row r="949" spans="1:1">
+    <row r="949" ht="14.4" spans="1:1">
       <c r="A949" s="4"/>
     </row>
-    <row r="950" spans="1:1">
+    <row r="950" ht="14.4" spans="1:1">
       <c r="A950" s="4"/>
     </row>
-    <row r="951" spans="1:1">
+    <row r="951" ht="14.4" spans="1:1">
       <c r="A951" s="4"/>
     </row>
-    <row r="952" spans="1:1">
+    <row r="952" ht="14.4" spans="1:1">
       <c r="A952" s="4"/>
     </row>
-    <row r="953" spans="1:1">
+    <row r="953" ht="14.4" spans="1:1">
       <c r="A953" s="4"/>
     </row>
-    <row r="954" spans="1:1">
+    <row r="954" ht="14.4" spans="1:1">
       <c r="A954" s="4"/>
     </row>
-    <row r="955" spans="1:1">
+    <row r="955" ht="14.4" spans="1:1">
       <c r="A955" s="4"/>
     </row>
-    <row r="956" spans="1:1">
+    <row r="956" ht="14.4" spans="1:1">
       <c r="A956" s="4"/>
     </row>
-    <row r="957" spans="1:1">
+    <row r="957" ht="14.4" spans="1:1">
       <c r="A957" s="4"/>
     </row>
-    <row r="958" spans="1:1">
+    <row r="958" ht="14.4" spans="1:1">
       <c r="A958" s="4"/>
     </row>
-    <row r="959" spans="1:1">
+    <row r="959" ht="14.4" spans="1:1">
       <c r="A959" s="4" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="960" spans="1:1">
+    <row r="960" ht="14.4" spans="1:1">
       <c r="A960" s="4"/>
     </row>
-    <row r="961" spans="1:1">
+    <row r="961" ht="14.4" spans="1:1">
       <c r="A961" s="4"/>
     </row>
-    <row r="962" spans="1:1">
+    <row r="962" ht="14.4" spans="1:1">
       <c r="A962" s="4"/>
     </row>
-    <row r="963" spans="1:1">
+    <row r="963" ht="14.4" spans="1:1">
       <c r="A963" s="4"/>
     </row>
-    <row r="964" spans="1:1">
+    <row r="964" ht="14.4" spans="1:1">
       <c r="A964" s="4"/>
     </row>
-    <row r="965" spans="1:1">
+    <row r="965" ht="14.4" spans="1:1">
       <c r="A965" s="4"/>
     </row>
-    <row r="966" spans="1:1">
+    <row r="966" ht="14.4" spans="1:1">
       <c r="A966" s="4"/>
     </row>
-    <row r="967" spans="1:1">
+    <row r="967" ht="14.4" spans="1:1">
       <c r="A967" s="4"/>
     </row>
-    <row r="968" spans="1:1">
+    <row r="968" ht="14.4" spans="1:1">
       <c r="A968" s="4"/>
     </row>
-    <row r="969" spans="1:1">
+    <row r="969" ht="14.4" spans="1:1">
       <c r="A969" s="4"/>
     </row>
-    <row r="970" spans="1:1">
+    <row r="970" ht="14.4" spans="1:1">
       <c r="A970" s="4"/>
     </row>
-    <row r="971" spans="1:1">
+    <row r="971" ht="14.4" spans="1:1">
       <c r="A971" s="4"/>
     </row>
-    <row r="972" spans="1:1">
+    <row r="972" ht="14.4" spans="1:1">
       <c r="A972" s="4" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="973" spans="1:1">
+    <row r="973" ht="14.4" spans="1:1">
       <c r="A973" s="4"/>
     </row>
-    <row r="974" spans="1:1">
+    <row r="974" ht="14.4" spans="1:1">
       <c r="A974" s="4"/>
     </row>
-    <row r="975" spans="1:1">
+    <row r="975" ht="14.4" spans="1:1">
       <c r="A975" s="8" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="976" spans="1:1">
+    <row r="976" ht="14.4" spans="1:1">
       <c r="A976" s="9"/>
     </row>
-    <row r="977" spans="1:1">
+    <row r="977" ht="14.4" spans="1:1">
       <c r="A977" s="9"/>
     </row>
     <row r="978" ht="141.75" customHeight="1" spans="1:1">
@@ -4524,23 +4573,23 @@
         <v>18</v>
       </c>
     </row>
-    <row r="996" spans="1:1">
+    <row r="996" ht="14.4" spans="1:1">
       <c r="A996" s="11" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="997" spans="1:1">
+    <row r="997" ht="14.4" spans="1:1">
       <c r="A997" s="11"/>
     </row>
-    <row r="998" spans="1:1">
+    <row r="998" ht="14.4" spans="1:1">
       <c r="A998" s="11"/>
     </row>
-    <row r="999" spans="1:1">
+    <row r="999" ht="14.4" spans="1:1">
       <c r="A999" s="11" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="1000" spans="1:1">
+    <row r="1000" ht="14.4" spans="1:1">
       <c r="A1000" s="11"/>
     </row>
     <row r="1001" ht="20.25" customHeight="1" spans="1:1">
@@ -4548,7 +4597,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="1002" spans="1:1">
+    <row r="1002" ht="14.4" spans="1:1">
       <c r="A1002" s="12"/>
     </row>
     <row r="1003" spans="1:1">
@@ -4561,12 +4610,12 @@
         <v>16</v>
       </c>
     </row>
-    <row r="1005" spans="1:1">
+    <row r="1005" ht="14.4" spans="1:1">
       <c r="A1005" s="11" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="1006" spans="1:1">
+    <row r="1006" ht="14.4" spans="1:1">
       <c r="A1006" s="11"/>
     </row>
     <row r="1007" spans="1:1">
@@ -4589,12 +4638,12 @@
         <v>6</v>
       </c>
     </row>
-    <row r="1011" spans="1:1">
+    <row r="1011" ht="14.4" spans="1:1">
       <c r="A1011" s="11" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="1012" spans="1:1">
+    <row r="1012" ht="14.4" spans="1:1">
       <c r="A1012" s="11"/>
     </row>
     <row r="1013" spans="1:1">
@@ -4602,23 +4651,23 @@
         <v>30</v>
       </c>
     </row>
-    <row r="1014" spans="1:1">
+    <row r="1014" ht="14.4" spans="1:1">
       <c r="A1014" s="11" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="1015" spans="1:1">
+    <row r="1015" ht="14.4" spans="1:1">
       <c r="A1015" s="11"/>
     </row>
-    <row r="1016" spans="1:1">
+    <row r="1016" ht="14.4" spans="1:1">
       <c r="A1016" s="11" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="1017" spans="1:1">
+    <row r="1017" ht="14.4" spans="1:1">
       <c r="A1017" s="11"/>
     </row>
-    <row r="1018" spans="1:1">
+    <row r="1018" ht="14.4" spans="1:1">
       <c r="A1018" s="11"/>
     </row>
     <row r="1019" spans="1:1">
@@ -4646,15 +4695,15 @@
         <v>6</v>
       </c>
     </row>
-    <row r="1024" spans="1:1">
+    <row r="1024" ht="14.4" spans="1:1">
       <c r="A1024" s="11" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="1025" spans="1:1">
+    <row r="1025" ht="14.4" spans="1:1">
       <c r="A1025" s="11"/>
     </row>
-    <row r="1026" spans="1:1">
+    <row r="1026" ht="14.4" spans="1:1">
       <c r="A1026" s="11"/>
     </row>
     <row r="1027" spans="1:1">
@@ -4662,15 +4711,15 @@
         <v>17</v>
       </c>
     </row>
-    <row r="1028" spans="1:1">
+    <row r="1028" ht="14.4" spans="1:1">
       <c r="A1028" s="11" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="1029" spans="1:1">
+    <row r="1029" ht="14.4" spans="1:1">
       <c r="A1029" s="11"/>
     </row>
-    <row r="1030" spans="1:1">
+    <row r="1030" ht="14.4" spans="1:1">
       <c r="A1030" s="11"/>
     </row>
     <row r="1031" spans="1:1">
@@ -4678,43 +4727,43 @@
         <v>33</v>
       </c>
     </row>
-    <row r="1032" spans="1:1">
+    <row r="1032" ht="14.4" spans="1:1">
       <c r="A1032" s="11" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="1033" spans="1:1">
+    <row r="1033" ht="14.4" spans="1:1">
       <c r="A1033" s="11"/>
     </row>
-    <row r="1034" spans="1:1">
+    <row r="1034" ht="14.4" spans="1:1">
       <c r="A1034" s="11"/>
     </row>
-    <row r="1035" spans="1:1">
+    <row r="1035" ht="14.4" spans="1:1">
       <c r="A1035" s="11"/>
     </row>
-    <row r="1036" spans="1:1">
+    <row r="1036" ht="14.4" spans="1:1">
       <c r="A1036" s="11" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="1037" spans="1:1">
+    <row r="1037" ht="14.4" spans="1:1">
       <c r="A1037" s="11"/>
     </row>
-    <row r="1038" spans="1:1">
+    <row r="1038" ht="14.4" spans="1:1">
       <c r="A1038" s="11"/>
     </row>
-    <row r="1039" spans="1:1">
+    <row r="1039" ht="14.4" spans="1:1">
       <c r="A1039" s="11"/>
     </row>
-    <row r="1040" spans="1:1">
+    <row r="1040" ht="14.4" spans="1:1">
       <c r="A1040" s="11" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="1041" spans="1:1">
+    <row r="1041" ht="14.4" spans="1:1">
       <c r="A1041" s="11"/>
     </row>
-    <row r="1042" spans="1:1">
+    <row r="1042" ht="14.4" spans="1:1">
       <c r="A1042" s="11"/>
     </row>
     <row r="1043" spans="1:1">
@@ -4737,15 +4786,15 @@
         <v>34</v>
       </c>
     </row>
-    <row r="1047" spans="1:1">
+    <row r="1047" ht="14.4" spans="1:1">
       <c r="A1047" s="11" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="1048" spans="1:1">
+    <row r="1048" ht="14.4" spans="1:1">
       <c r="A1048" s="11"/>
     </row>
-    <row r="1049" spans="1:1">
+    <row r="1049" ht="14.4" spans="1:1">
       <c r="A1049" s="11"/>
     </row>
     <row r="1050" spans="1:1">
@@ -4783,18 +4832,18 @@
         <v>28</v>
       </c>
     </row>
-    <row r="1057" spans="1:1">
+    <row r="1057" ht="14.4" spans="1:1">
       <c r="A1057" s="11" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="1058" spans="1:1">
+    <row r="1058" ht="14.4" spans="1:1">
       <c r="A1058" s="11"/>
     </row>
-    <row r="1059" spans="1:1">
+    <row r="1059" ht="14.4" spans="1:1">
       <c r="A1059" s="11"/>
     </row>
-    <row r="1060" spans="1:1">
+    <row r="1060" ht="14.4" spans="1:1">
       <c r="A1060" s="11"/>
     </row>
     <row r="1061" spans="1:1">
@@ -4847,32 +4896,32 @@
         <v>30</v>
       </c>
     </row>
-    <row r="1071" spans="1:1">
+    <row r="1071" ht="14.4" spans="1:1">
       <c r="A1071" s="11" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="1072" spans="1:1">
+    <row r="1072" ht="14.4" spans="1:1">
       <c r="A1072" s="11"/>
     </row>
-    <row r="1073" spans="1:1">
+    <row r="1073" ht="14.4" spans="1:1">
       <c r="A1073" s="11"/>
     </row>
-    <row r="1074" spans="1:1">
+    <row r="1074" ht="14.4" spans="1:1">
       <c r="A1074" s="11"/>
     </row>
-    <row r="1075" spans="1:1">
+    <row r="1075" ht="14.4" spans="1:1">
       <c r="A1075" s="11" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="1076" spans="1:1">
+    <row r="1076" ht="14.4" spans="1:1">
       <c r="A1076" s="11"/>
     </row>
-    <row r="1077" spans="1:1">
+    <row r="1077" ht="14.4" spans="1:1">
       <c r="A1077" s="11"/>
     </row>
-    <row r="1078" spans="1:1">
+    <row r="1078" ht="14.4" spans="1:1">
       <c r="A1078" s="11"/>
     </row>
     <row r="1079" spans="1:1">
@@ -4885,12 +4934,12 @@
         <v>30</v>
       </c>
     </row>
-    <row r="1081" spans="1:1">
+    <row r="1081" ht="14.4" spans="1:1">
       <c r="A1081" s="11" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="1082" spans="1:1">
+    <row r="1082" ht="14.4" spans="1:1">
       <c r="A1082" s="11"/>
     </row>
     <row r="1083" spans="1:1">
@@ -4913,163 +4962,163 @@
         <v>28</v>
       </c>
     </row>
-    <row r="1087" spans="1:1">
+    <row r="1087" ht="14.4" spans="1:1">
       <c r="A1087" s="11" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="1088" spans="1:1">
+    <row r="1088" ht="14.4" spans="1:1">
       <c r="A1088" s="11"/>
     </row>
-    <row r="1089" spans="1:1">
+    <row r="1089" ht="14.4" spans="1:1">
       <c r="A1089" s="11"/>
     </row>
-    <row r="1090" spans="1:1">
+    <row r="1090" ht="14.4" spans="1:1">
       <c r="A1090" s="11"/>
     </row>
-    <row r="1091" spans="1:1">
+    <row r="1091" ht="14.4" spans="1:1">
       <c r="A1091" s="11"/>
     </row>
-    <row r="1092" spans="1:1">
+    <row r="1092" ht="14.4" spans="1:1">
       <c r="A1092" s="11"/>
     </row>
-    <row r="1093" spans="1:1">
+    <row r="1093" ht="14.4" spans="1:1">
       <c r="A1093" s="11" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="1094" spans="1:1">
+    <row r="1094" ht="14.4" spans="1:1">
       <c r="A1094" s="11"/>
     </row>
-    <row r="1095" spans="1:1">
+    <row r="1095" ht="14.4" spans="1:1">
       <c r="A1095" s="11"/>
     </row>
-    <row r="1096" spans="1:1">
+    <row r="1096" ht="14.4" spans="1:1">
       <c r="A1096" s="11"/>
     </row>
-    <row r="1097" spans="1:1">
+    <row r="1097" ht="14.4" spans="1:1">
       <c r="A1097" s="11"/>
     </row>
-    <row r="1098" spans="1:1">
+    <row r="1098" ht="14.4" spans="1:1">
       <c r="A1098" s="11"/>
     </row>
-    <row r="1099" spans="1:1">
+    <row r="1099" ht="14.4" spans="1:1">
       <c r="A1099" s="11"/>
     </row>
-    <row r="1100" spans="1:1">
+    <row r="1100" ht="14.4" spans="1:1">
       <c r="A1100" s="11"/>
     </row>
-    <row r="1101" spans="1:1">
+    <row r="1101" ht="14.4" spans="1:1">
       <c r="A1101" s="11"/>
     </row>
-    <row r="1102" spans="1:1">
+    <row r="1102" ht="14.4" spans="1:1">
       <c r="A1102" s="11"/>
     </row>
-    <row r="1103" spans="1:1">
+    <row r="1103" ht="14.4" spans="1:1">
       <c r="A1103" s="11"/>
     </row>
-    <row r="1104" spans="1:1">
+    <row r="1104" ht="14.4" spans="1:1">
       <c r="A1104" s="11"/>
     </row>
-    <row r="1105" spans="1:1">
+    <row r="1105" ht="14.4" spans="1:1">
       <c r="A1105" s="11"/>
     </row>
-    <row r="1106" spans="1:1">
+    <row r="1106" ht="14.4" spans="1:1">
       <c r="A1106" s="11" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="1107" spans="1:1">
+    <row r="1107" ht="14.4" spans="1:1">
       <c r="A1107" s="11"/>
     </row>
-    <row r="1108" spans="1:1">
+    <row r="1108" ht="14.4" spans="1:1">
       <c r="A1108" s="11"/>
     </row>
-    <row r="1109" spans="1:1">
+    <row r="1109" ht="14.4" spans="1:1">
       <c r="A1109" s="11"/>
     </row>
-    <row r="1110" spans="1:1">
+    <row r="1110" ht="14.4" spans="1:1">
       <c r="A1110" s="11"/>
     </row>
-    <row r="1111" spans="1:1">
+    <row r="1111" ht="14.4" spans="1:1">
       <c r="A1111" s="11"/>
     </row>
-    <row r="1112" spans="1:1">
+    <row r="1112" ht="14.4" spans="1:1">
       <c r="A1112" s="11"/>
     </row>
-    <row r="1113" spans="1:1">
+    <row r="1113" ht="14.4" spans="1:1">
       <c r="A1113" s="11"/>
     </row>
-    <row r="1114" spans="1:1">
+    <row r="1114" ht="14.4" spans="1:1">
       <c r="A1114" s="11" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="1115" spans="1:1">
+    <row r="1115" ht="14.4" spans="1:1">
       <c r="A1115" s="11"/>
     </row>
-    <row r="1116" spans="1:1">
+    <row r="1116" ht="14.4" spans="1:1">
       <c r="A1116" s="11"/>
     </row>
-    <row r="1117" spans="1:1">
+    <row r="1117" ht="14.4" spans="1:1">
       <c r="A1117" s="11" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="1118" spans="1:1">
+    <row r="1118" ht="14.4" spans="1:1">
       <c r="A1118" s="11"/>
     </row>
-    <row r="1119" spans="1:1">
+    <row r="1119" ht="14.4" spans="1:1">
       <c r="A1119" s="11"/>
     </row>
-    <row r="1120" spans="1:1">
+    <row r="1120" ht="14.4" spans="1:1">
       <c r="A1120" s="11"/>
     </row>
-    <row r="1121" spans="1:1">
+    <row r="1121" ht="14.4" spans="1:1">
       <c r="A1121" s="11"/>
     </row>
-    <row r="1122" spans="1:1">
+    <row r="1122" ht="14.4" spans="1:1">
       <c r="A1122" s="11" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="1123" spans="1:1">
+    <row r="1123" ht="14.4" spans="1:1">
       <c r="A1123" s="11"/>
     </row>
-    <row r="1124" spans="1:1">
+    <row r="1124" ht="14.4" spans="1:1">
       <c r="A1124" s="11"/>
     </row>
-    <row r="1125" spans="1:1">
+    <row r="1125" ht="14.4" spans="1:1">
       <c r="A1125" s="11"/>
     </row>
-    <row r="1126" spans="1:1">
+    <row r="1126" ht="14.4" spans="1:1">
       <c r="A1126" s="11"/>
     </row>
-    <row r="1127" spans="1:1">
+    <row r="1127" ht="14.4" spans="1:1">
       <c r="A1127" s="11"/>
     </row>
-    <row r="1128" spans="1:1">
+    <row r="1128" ht="14.4" spans="1:1">
       <c r="A1128" s="11"/>
     </row>
-    <row r="1129" spans="1:1">
+    <row r="1129" ht="14.4" spans="1:1">
       <c r="A1129" s="11"/>
     </row>
-    <row r="1130" spans="1:1">
+    <row r="1130" ht="14.4" spans="1:1">
       <c r="A1130" s="11"/>
     </row>
-    <row r="1131" spans="1:1">
+    <row r="1131" ht="14.4" spans="1:1">
       <c r="A1131" s="11"/>
     </row>
-    <row r="1132" spans="1:1">
+    <row r="1132" ht="14.4" spans="1:1">
       <c r="A1132" s="11"/>
     </row>
-    <row r="1133" spans="1:1">
+    <row r="1133" ht="14.4" spans="1:1">
       <c r="A1133" s="11"/>
     </row>
-    <row r="1134" spans="1:1">
+    <row r="1134" ht="14.4" spans="1:1">
       <c r="A1134" s="11"/>
     </row>
-    <row r="1135" spans="1:1">
+    <row r="1135" ht="14.4" spans="1:1">
       <c r="A1135" s="11"/>
     </row>
     <row r="1136" spans="1:1">
@@ -5092,24 +5141,24 @@
         <v>30</v>
       </c>
     </row>
-    <row r="1140" spans="1:1">
+    <row r="1140" ht="14.4" spans="1:1">
       <c r="A1140" s="11" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="1141" spans="1:1">
+    <row r="1141" ht="14.4" spans="1:1">
       <c r="A1141" s="11"/>
     </row>
-    <row r="1142" spans="1:1">
+    <row r="1142" ht="14.4" spans="1:1">
       <c r="A1142" s="11"/>
     </row>
-    <row r="1143" spans="1:1">
+    <row r="1143" ht="14.4" spans="1:1">
       <c r="A1143" s="11"/>
     </row>
-    <row r="1144" spans="1:1">
+    <row r="1144" ht="14.4" spans="1:1">
       <c r="A1144" s="11"/>
     </row>
-    <row r="1145" spans="1:1">
+    <row r="1145" ht="14.4" spans="1:1">
       <c r="A1145" s="11"/>
     </row>
     <row r="1146" ht="13.5" customHeight="1" spans="1:1">
@@ -5161,464 +5210,464 @@
     <row r="1158" ht="13.5" customHeight="1" spans="1:1">
       <c r="A1158" s="11"/>
     </row>
-    <row r="1159" spans="1:1">
+    <row r="1159" ht="14.4" spans="1:1">
       <c r="A1159" s="11" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="1160" spans="1:1">
+    <row r="1160" ht="14.4" spans="1:1">
       <c r="A1160" s="11"/>
     </row>
-    <row r="1161" spans="1:1">
+    <row r="1161" ht="14.4" spans="1:1">
       <c r="A1161" s="11"/>
     </row>
-    <row r="1162" spans="1:1">
+    <row r="1162" ht="14.4" spans="1:1">
       <c r="A1162" s="11"/>
     </row>
-    <row r="1163" spans="1:1">
+    <row r="1163" ht="14.4" spans="1:1">
       <c r="A1163" s="11"/>
     </row>
-    <row r="1164" spans="1:1">
+    <row r="1164" ht="14.4" spans="1:1">
       <c r="A1164" s="11"/>
     </row>
-    <row r="1165" spans="1:1">
+    <row r="1165" ht="14.4" spans="1:1">
       <c r="A1165" s="11"/>
     </row>
-    <row r="1166" spans="1:1">
+    <row r="1166" ht="14.4" spans="1:1">
       <c r="A1166" s="11"/>
     </row>
-    <row r="1167" spans="1:1">
+    <row r="1167" ht="14.4" spans="1:1">
       <c r="A1167" s="11"/>
     </row>
-    <row r="1168" spans="1:1">
+    <row r="1168" ht="14.4" spans="1:1">
       <c r="A1168" s="11"/>
     </row>
-    <row r="1169" spans="1:1">
+    <row r="1169" ht="14.4" spans="1:1">
       <c r="A1169" s="11"/>
     </row>
-    <row r="1170" spans="1:1">
+    <row r="1170" ht="14.4" spans="1:1">
       <c r="A1170" s="11"/>
     </row>
-    <row r="1171" spans="1:1">
+    <row r="1171" ht="14.4" spans="1:1">
       <c r="A1171" s="11"/>
     </row>
-    <row r="1172" spans="1:1">
+    <row r="1172" ht="14.4" spans="1:1">
       <c r="A1172" s="11"/>
     </row>
-    <row r="1173" spans="1:1">
+    <row r="1173" ht="14.4" spans="1:1">
       <c r="A1173" s="11"/>
     </row>
-    <row r="1174" spans="1:1">
+    <row r="1174" ht="14.4" spans="1:1">
       <c r="A1174" s="11"/>
     </row>
-    <row r="1175" spans="1:1">
+    <row r="1175" ht="14.4" spans="1:1">
       <c r="A1175" s="11"/>
     </row>
-    <row r="1176" spans="1:1">
+    <row r="1176" ht="14.4" spans="1:1">
       <c r="A1176" s="11"/>
     </row>
-    <row r="1177" spans="1:1">
+    <row r="1177" ht="14.4" spans="1:1">
       <c r="A1177" s="11"/>
     </row>
-    <row r="1178" spans="1:1">
+    <row r="1178" ht="14.4" spans="1:1">
       <c r="A1178" s="11"/>
     </row>
-    <row r="1179" spans="1:1">
+    <row r="1179" ht="14.4" spans="1:1">
       <c r="A1179" s="11"/>
     </row>
-    <row r="1180" spans="1:1">
+    <row r="1180" ht="14.4" spans="1:1">
       <c r="A1180" s="11"/>
     </row>
-    <row r="1181" spans="1:1">
+    <row r="1181" ht="14.4" spans="1:1">
       <c r="A1181" s="11"/>
     </row>
-    <row r="1182" spans="1:1">
+    <row r="1182" ht="14.4" spans="1:1">
       <c r="A1182" s="11" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="1183" spans="1:1">
+    <row r="1183" ht="14.4" spans="1:1">
       <c r="A1183" s="11"/>
     </row>
-    <row r="1184" spans="1:1">
+    <row r="1184" ht="14.4" spans="1:1">
       <c r="A1184" s="11"/>
     </row>
-    <row r="1185" spans="1:1">
+    <row r="1185" ht="14.4" spans="1:1">
       <c r="A1185" s="11"/>
     </row>
-    <row r="1186" spans="1:1">
+    <row r="1186" ht="14.4" spans="1:1">
       <c r="A1186" s="11"/>
     </row>
-    <row r="1187" spans="1:1">
+    <row r="1187" ht="14.4" spans="1:1">
       <c r="A1187" s="11"/>
     </row>
-    <row r="1188" spans="1:1">
+    <row r="1188" ht="14.4" spans="1:1">
       <c r="A1188" s="11"/>
     </row>
-    <row r="1189" spans="1:1">
+    <row r="1189" ht="14.4" spans="1:1">
       <c r="A1189" s="11"/>
     </row>
-    <row r="1190" spans="1:1">
+    <row r="1190" ht="14.4" spans="1:1">
       <c r="A1190" s="11"/>
     </row>
-    <row r="1191" spans="1:1">
+    <row r="1191" ht="14.4" spans="1:1">
       <c r="A1191" s="11"/>
     </row>
-    <row r="1192" spans="1:1">
+    <row r="1192" ht="14.4" spans="1:1">
       <c r="A1192" s="11"/>
     </row>
-    <row r="1193" spans="1:1">
+    <row r="1193" ht="14.4" spans="1:1">
       <c r="A1193" s="11"/>
     </row>
-    <row r="1194" spans="1:1">
+    <row r="1194" ht="14.4" spans="1:1">
       <c r="A1194" s="11"/>
     </row>
-    <row r="1195" spans="1:1">
+    <row r="1195" ht="14.4" spans="1:1">
       <c r="A1195" s="11"/>
     </row>
-    <row r="1196" spans="1:1">
+    <row r="1196" ht="14.4" spans="1:1">
       <c r="A1196" s="11"/>
     </row>
-    <row r="1197" spans="1:1">
+    <row r="1197" ht="14.4" spans="1:1">
       <c r="A1197" s="11"/>
     </row>
-    <row r="1198" spans="1:1">
+    <row r="1198" ht="14.4" spans="1:1">
       <c r="A1198" s="11"/>
     </row>
-    <row r="1199" spans="1:1">
+    <row r="1199" ht="14.4" spans="1:1">
       <c r="A1199" s="11" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="1200" spans="1:1">
+    <row r="1200" ht="14.4" spans="1:1">
       <c r="A1200" s="11"/>
     </row>
-    <row r="1201" spans="1:1">
+    <row r="1201" ht="14.4" spans="1:1">
       <c r="A1201" s="11"/>
     </row>
-    <row r="1202" spans="1:1">
+    <row r="1202" ht="14.4" spans="1:1">
       <c r="A1202" s="11"/>
     </row>
-    <row r="1203" spans="1:1">
+    <row r="1203" ht="14.4" spans="1:1">
       <c r="A1203" s="11"/>
     </row>
-    <row r="1204" spans="1:1">
+    <row r="1204" ht="14.4" spans="1:1">
       <c r="A1204" s="11"/>
     </row>
-    <row r="1205" spans="1:1">
+    <row r="1205" ht="14.4" spans="1:1">
       <c r="A1205" s="11"/>
     </row>
-    <row r="1206" spans="1:1">
+    <row r="1206" ht="14.4" spans="1:1">
       <c r="A1206" s="11"/>
     </row>
-    <row r="1207" spans="1:1">
+    <row r="1207" ht="14.4" spans="1:1">
       <c r="A1207" s="11"/>
     </row>
-    <row r="1208" spans="1:1">
+    <row r="1208" ht="14.4" spans="1:1">
       <c r="A1208" s="11"/>
     </row>
-    <row r="1209" spans="1:1">
+    <row r="1209" ht="14.4" spans="1:1">
       <c r="A1209" s="11"/>
     </row>
-    <row r="1210" spans="1:1">
+    <row r="1210" ht="14.4" spans="1:1">
       <c r="A1210" s="11"/>
     </row>
-    <row r="1211" spans="1:1">
+    <row r="1211" ht="14.4" spans="1:1">
       <c r="A1211" s="11"/>
     </row>
-    <row r="1212" spans="1:1">
+    <row r="1212" ht="14.4" spans="1:1">
       <c r="A1212" s="11"/>
     </row>
-    <row r="1213" spans="1:1">
+    <row r="1213" ht="14.4" spans="1:1">
       <c r="A1213" s="11" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="1214" spans="1:1">
+    <row r="1214" ht="14.4" spans="1:1">
       <c r="A1214" s="11"/>
     </row>
-    <row r="1215" spans="1:1">
+    <row r="1215" ht="14.4" spans="1:1">
       <c r="A1215" s="11"/>
     </row>
-    <row r="1216" spans="1:1">
+    <row r="1216" ht="14.4" spans="1:1">
       <c r="A1216" s="11"/>
     </row>
-    <row r="1217" spans="1:1">
+    <row r="1217" ht="14.4" spans="1:1">
       <c r="A1217" s="11"/>
     </row>
-    <row r="1218" spans="1:1">
+    <row r="1218" ht="14.4" spans="1:1">
       <c r="A1218" s="11"/>
     </row>
-    <row r="1219" spans="1:1">
+    <row r="1219" ht="14.4" spans="1:1">
       <c r="A1219" s="11"/>
     </row>
-    <row r="1220" spans="1:1">
+    <row r="1220" ht="14.4" spans="1:1">
       <c r="A1220" s="11" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="1221" spans="1:1">
+    <row r="1221" ht="14.4" spans="1:1">
       <c r="A1221" s="11"/>
     </row>
-    <row r="1222" spans="1:1">
+    <row r="1222" ht="14.4" spans="1:1">
       <c r="A1222" s="11"/>
     </row>
-    <row r="1223" spans="1:1">
+    <row r="1223" ht="14.4" spans="1:1">
       <c r="A1223" s="11"/>
     </row>
-    <row r="1224" spans="1:1">
+    <row r="1224" ht="14.4" spans="1:1">
       <c r="A1224" s="11" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="1225" spans="1:1">
+    <row r="1225" ht="14.4" spans="1:1">
       <c r="A1225" s="11"/>
     </row>
-    <row r="1226" spans="1:1">
+    <row r="1226" ht="14.4" spans="1:1">
       <c r="A1226" s="11"/>
     </row>
-    <row r="1227" spans="1:1">
+    <row r="1227" ht="14.4" spans="1:1">
       <c r="A1227" s="11"/>
     </row>
-    <row r="1228" spans="1:1">
+    <row r="1228" ht="14.4" spans="1:1">
       <c r="A1228" s="11"/>
     </row>
-    <row r="1229" spans="1:1">
+    <row r="1229" ht="14.4" spans="1:1">
       <c r="A1229" s="11" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="1230" spans="1:1">
+    <row r="1230" ht="14.4" spans="1:1">
       <c r="A1230" s="11"/>
     </row>
-    <row r="1231" spans="1:1">
+    <row r="1231" ht="14.4" spans="1:1">
       <c r="A1231" s="11"/>
     </row>
-    <row r="1232" spans="1:1">
+    <row r="1232" ht="14.4" spans="1:1">
       <c r="A1232" s="11"/>
     </row>
-    <row r="1233" spans="1:1">
+    <row r="1233" ht="14.4" spans="1:1">
       <c r="A1233" s="11"/>
     </row>
-    <row r="1234" spans="1:1">
+    <row r="1234" ht="14.4" spans="1:1">
       <c r="A1234" s="11" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="1235" spans="1:1">
+    <row r="1235" ht="14.4" spans="1:1">
       <c r="A1235" s="11"/>
     </row>
-    <row r="1236" spans="1:1">
+    <row r="1236" ht="14.4" spans="1:1">
       <c r="A1236" s="11"/>
     </row>
-    <row r="1237" spans="1:1">
+    <row r="1237" ht="14.4" spans="1:1">
       <c r="A1237" s="11"/>
     </row>
-    <row r="1238" spans="1:1">
+    <row r="1238" ht="14.4" spans="1:1">
       <c r="A1238" s="11"/>
     </row>
-    <row r="1239" spans="1:1">
+    <row r="1239" ht="14.4" spans="1:1">
       <c r="A1239" s="11" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="1240" spans="1:1">
+    <row r="1240" ht="14.4" spans="1:1">
       <c r="A1240" s="11"/>
     </row>
-    <row r="1241" spans="1:1">
+    <row r="1241" ht="14.4" spans="1:1">
       <c r="A1241" s="11"/>
     </row>
-    <row r="1242" spans="1:1">
+    <row r="1242" ht="14.4" spans="1:1">
       <c r="A1242" s="11"/>
     </row>
-    <row r="1243" spans="1:1">
+    <row r="1243" ht="14.4" spans="1:1">
       <c r="A1243" s="11"/>
     </row>
-    <row r="1244" spans="1:1">
+    <row r="1244" ht="14.4" spans="1:1">
       <c r="A1244" s="11"/>
     </row>
-    <row r="1245" spans="1:1">
+    <row r="1245" ht="14.4" spans="1:1">
       <c r="A1245" s="11"/>
     </row>
-    <row r="1246" spans="1:1">
+    <row r="1246" ht="14.4" spans="1:1">
       <c r="A1246" s="11"/>
     </row>
-    <row r="1247" spans="1:1">
+    <row r="1247" ht="14.4" spans="1:1">
       <c r="A1247" s="11"/>
     </row>
-    <row r="1248" spans="1:1">
+    <row r="1248" ht="14.4" spans="1:1">
       <c r="A1248" s="11"/>
     </row>
-    <row r="1249" spans="1:1">
+    <row r="1249" ht="14.4" spans="1:1">
       <c r="A1249" s="11"/>
     </row>
-    <row r="1250" spans="1:1">
+    <row r="1250" ht="14.4" spans="1:1">
       <c r="A1250" s="11" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="1251" spans="1:1">
+    <row r="1251" ht="14.4" spans="1:1">
       <c r="A1251" s="11"/>
     </row>
-    <row r="1252" spans="1:1">
+    <row r="1252" ht="14.4" spans="1:1">
       <c r="A1252" s="11"/>
     </row>
-    <row r="1253" spans="1:1">
+    <row r="1253" ht="14.4" spans="1:1">
       <c r="A1253" s="11"/>
     </row>
-    <row r="1254" spans="1:1">
+    <row r="1254" ht="14.4" spans="1:1">
       <c r="A1254" s="11"/>
     </row>
-    <row r="1255" spans="1:1">
+    <row r="1255" ht="14.4" spans="1:1">
       <c r="A1255" s="11"/>
     </row>
-    <row r="1256" spans="1:1">
+    <row r="1256" ht="14.4" spans="1:1">
       <c r="A1256" s="11"/>
     </row>
-    <row r="1257" spans="1:1">
+    <row r="1257" ht="14.4" spans="1:1">
       <c r="A1257" s="11"/>
     </row>
-    <row r="1258" spans="1:1">
+    <row r="1258" ht="14.4" spans="1:1">
       <c r="A1258" s="11"/>
     </row>
-    <row r="1259" spans="1:1">
+    <row r="1259" ht="14.4" spans="1:1">
       <c r="A1259" s="11"/>
     </row>
-    <row r="1260" spans="1:1">
+    <row r="1260" ht="14.4" spans="1:1">
       <c r="A1260" s="11"/>
     </row>
-    <row r="1261" spans="1:1">
+    <row r="1261" ht="14.4" spans="1:1">
       <c r="A1261" s="11"/>
     </row>
-    <row r="1262" spans="1:1">
+    <row r="1262" ht="14.4" spans="1:1">
       <c r="A1262" s="11"/>
     </row>
-    <row r="1263" spans="1:1">
+    <row r="1263" ht="14.4" spans="1:1">
       <c r="A1263" s="11"/>
     </row>
-    <row r="1264" spans="1:1">
+    <row r="1264" ht="14.4" spans="1:1">
       <c r="A1264" s="11"/>
     </row>
-    <row r="1265" spans="1:1">
+    <row r="1265" ht="14.4" spans="1:1">
       <c r="A1265" s="11"/>
     </row>
-    <row r="1266" spans="1:1">
+    <row r="1266" ht="14.4" spans="1:1">
       <c r="A1266" s="11"/>
     </row>
-    <row r="1267" spans="1:1">
+    <row r="1267" ht="14.4" spans="1:1">
       <c r="A1267" s="11"/>
     </row>
-    <row r="1268" spans="1:1">
+    <row r="1268" ht="14.4" spans="1:1">
       <c r="A1268" s="11"/>
     </row>
-    <row r="1269" spans="1:1">
+    <row r="1269" ht="14.4" spans="1:1">
       <c r="A1269" s="11"/>
     </row>
-    <row r="1270" spans="1:1">
+    <row r="1270" ht="14.4" spans="1:1">
       <c r="A1270" s="11"/>
     </row>
-    <row r="1271" spans="1:1">
+    <row r="1271" ht="14.4" spans="1:1">
       <c r="A1271" s="11"/>
     </row>
-    <row r="1272" spans="1:1">
+    <row r="1272" ht="14.4" spans="1:1">
       <c r="A1272" s="11"/>
     </row>
-    <row r="1273" spans="1:1">
+    <row r="1273" ht="14.4" spans="1:1">
       <c r="A1273" s="11"/>
     </row>
-    <row r="1274" spans="1:1">
+    <row r="1274" ht="14.4" spans="1:1">
       <c r="A1274" s="11"/>
     </row>
-    <row r="1275" spans="1:1">
+    <row r="1275" ht="14.4" spans="1:1">
       <c r="A1275" s="11"/>
     </row>
-    <row r="1276" spans="1:1">
+    <row r="1276" ht="14.4" spans="1:1">
       <c r="A1276" s="11"/>
     </row>
-    <row r="1277" spans="1:1">
+    <row r="1277" ht="14.4" spans="1:1">
       <c r="A1277" s="11"/>
     </row>
-    <row r="1278" spans="1:1">
+    <row r="1278" ht="14.4" spans="1:1">
       <c r="A1278" s="11"/>
     </row>
-    <row r="1279" spans="1:1">
+    <row r="1279" ht="14.4" spans="1:1">
       <c r="A1279" s="11"/>
     </row>
-    <row r="1280" spans="1:1">
+    <row r="1280" ht="14.4" spans="1:1">
       <c r="A1280" s="11"/>
     </row>
-    <row r="1281" spans="1:1">
+    <row r="1281" ht="14.4" spans="1:1">
       <c r="A1281" s="11"/>
     </row>
-    <row r="1282" spans="1:1">
+    <row r="1282" ht="14.4" spans="1:1">
       <c r="A1282" s="11"/>
     </row>
-    <row r="1283" spans="1:1">
+    <row r="1283" ht="14.4" spans="1:1">
       <c r="A1283" s="11" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="1284" spans="1:1">
+    <row r="1284" ht="14.4" spans="1:1">
       <c r="A1284" s="11"/>
     </row>
-    <row r="1285" spans="1:1">
+    <row r="1285" ht="14.4" spans="1:1">
       <c r="A1285" s="11"/>
     </row>
-    <row r="1286" spans="1:1">
+    <row r="1286" ht="14.4" spans="1:1">
       <c r="A1286" s="11"/>
     </row>
-    <row r="1287" spans="1:1">
+    <row r="1287" ht="14.4" spans="1:1">
       <c r="A1287" s="11"/>
     </row>
-    <row r="1288" spans="1:1">
+    <row r="1288" ht="14.4" spans="1:1">
       <c r="A1288" s="11"/>
     </row>
-    <row r="1289" spans="1:1">
+    <row r="1289" ht="14.4" spans="1:1">
       <c r="A1289" s="11"/>
     </row>
-    <row r="1290" spans="1:1">
+    <row r="1290" ht="14.4" spans="1:1">
       <c r="A1290" s="11"/>
     </row>
-    <row r="1291" spans="1:1">
+    <row r="1291" ht="14.4" spans="1:1">
       <c r="A1291" s="11"/>
     </row>
-    <row r="1292" spans="1:1">
+    <row r="1292" ht="14.4" spans="1:1">
       <c r="A1292" s="11"/>
     </row>
-    <row r="1293" spans="1:1">
+    <row r="1293" ht="14.4" spans="1:1">
       <c r="A1293" s="11"/>
     </row>
-    <row r="1294" spans="1:1">
+    <row r="1294" ht="14.4" spans="1:1">
       <c r="A1294" s="11"/>
     </row>
-    <row r="1295" spans="1:1">
+    <row r="1295" ht="14.4" spans="1:1">
       <c r="A1295" s="11"/>
     </row>
-    <row r="1296" spans="1:1">
+    <row r="1296" ht="14.4" spans="1:1">
       <c r="A1296" s="11"/>
     </row>
-    <row r="1297" spans="1:1">
+    <row r="1297" ht="14.4" spans="1:1">
       <c r="A1297" s="11"/>
     </row>
-    <row r="1298" spans="1:1">
+    <row r="1298" ht="14.4" spans="1:1">
       <c r="A1298" s="11"/>
     </row>
-    <row r="1299" spans="1:1">
+    <row r="1299" ht="14.4" spans="1:1">
       <c r="A1299" s="11"/>
     </row>
-    <row r="1300" spans="1:1">
+    <row r="1300" ht="14.4" spans="1:1">
       <c r="A1300" s="11"/>
     </row>
-    <row r="1301" spans="1:1">
+    <row r="1301" ht="14.4" spans="1:1">
       <c r="A1301" s="11"/>
     </row>
-    <row r="1302" spans="1:1">
+    <row r="1302" ht="14.4" spans="1:1">
       <c r="A1302" s="11"/>
     </row>
-    <row r="1303" spans="1:1">
+    <row r="1303" ht="14.4" spans="1:1">
       <c r="A1303" s="11"/>
     </row>
-    <row r="1304" spans="1:1">
+    <row r="1304" ht="14.4" spans="1:1">
       <c r="A1304" s="11"/>
     </row>
     <row r="1305" spans="1:1">
@@ -5690,229 +5739,229 @@
     <row r="1325" ht="13.5" customHeight="1" spans="1:1">
       <c r="A1325" s="11"/>
     </row>
-    <row r="1326" spans="1:1">
+    <row r="1326" ht="14.4" spans="1:1">
       <c r="A1326" s="11" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="1327" spans="1:1">
+    <row r="1327" ht="14.4" spans="1:1">
       <c r="A1327" s="11"/>
     </row>
-    <row r="1328" spans="1:1">
+    <row r="1328" ht="14.4" spans="1:1">
       <c r="A1328" s="11"/>
     </row>
-    <row r="1329" spans="1:1">
+    <row r="1329" ht="14.4" spans="1:1">
       <c r="A1329" s="11"/>
     </row>
-    <row r="1330" spans="1:1">
+    <row r="1330" ht="14.4" spans="1:1">
       <c r="A1330" s="11"/>
     </row>
-    <row r="1331" spans="1:1">
+    <row r="1331" ht="14.4" spans="1:1">
       <c r="A1331" s="11" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="1332" spans="1:1">
+    <row r="1332" ht="14.4" spans="1:1">
       <c r="A1332" s="11"/>
     </row>
-    <row r="1333" spans="1:1">
+    <row r="1333" ht="14.4" spans="1:1">
       <c r="A1333" s="11"/>
     </row>
-    <row r="1334" spans="1:1">
+    <row r="1334" ht="14.4" spans="1:1">
       <c r="A1334" s="11"/>
     </row>
-    <row r="1335" spans="1:1">
+    <row r="1335" ht="14.4" spans="1:1">
       <c r="A1335" s="11" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="1336" spans="1:1">
+    <row r="1336" ht="14.4" spans="1:1">
       <c r="A1336" s="11"/>
     </row>
-    <row r="1337" spans="1:1">
+    <row r="1337" ht="14.4" spans="1:1">
       <c r="A1337" s="11"/>
     </row>
-    <row r="1338" spans="1:1">
+    <row r="1338" ht="14.4" spans="1:1">
       <c r="A1338" s="11"/>
     </row>
-    <row r="1339" spans="1:1">
+    <row r="1339" ht="14.4" spans="1:1">
       <c r="A1339" s="11"/>
     </row>
-    <row r="1340" spans="1:1">
+    <row r="1340" ht="14.4" spans="1:1">
       <c r="A1340" s="11" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="1341" spans="1:1">
+    <row r="1341" ht="14.4" spans="1:1">
       <c r="A1341" s="11"/>
     </row>
-    <row r="1342" spans="1:1">
+    <row r="1342" ht="14.4" spans="1:1">
       <c r="A1342" s="11"/>
     </row>
-    <row r="1343" spans="1:1">
+    <row r="1343" ht="14.4" spans="1:1">
       <c r="A1343" s="11"/>
     </row>
-    <row r="1344" spans="1:1">
+    <row r="1344" ht="14.4" spans="1:1">
       <c r="A1344" s="11"/>
     </row>
-    <row r="1345" spans="1:1">
+    <row r="1345" ht="14.4" spans="1:1">
       <c r="A1345" s="11"/>
     </row>
-    <row r="1346" spans="1:1">
+    <row r="1346" ht="14.4" spans="1:1">
       <c r="A1346" s="11"/>
     </row>
-    <row r="1347" spans="1:1">
+    <row r="1347" ht="14.4" spans="1:1">
       <c r="A1347" s="11"/>
     </row>
-    <row r="1348" spans="1:1">
+    <row r="1348" ht="14.4" spans="1:1">
       <c r="A1348" s="11"/>
     </row>
-    <row r="1349" spans="1:1">
+    <row r="1349" ht="14.4" spans="1:1">
       <c r="A1349" s="11"/>
     </row>
-    <row r="1350" spans="1:1">
+    <row r="1350" ht="14.4" spans="1:1">
       <c r="A1350" s="11"/>
     </row>
-    <row r="1351" spans="1:1">
+    <row r="1351" ht="14.4" spans="1:1">
       <c r="A1351" s="11"/>
     </row>
-    <row r="1352" spans="1:1">
+    <row r="1352" ht="14.4" spans="1:1">
       <c r="A1352" s="11"/>
     </row>
-    <row r="1353" spans="1:1">
+    <row r="1353" ht="14.4" spans="1:1">
       <c r="A1353" s="11"/>
     </row>
-    <row r="1354" spans="1:1">
+    <row r="1354" ht="14.4" spans="1:1">
       <c r="A1354" s="11"/>
     </row>
-    <row r="1355" spans="1:1">
+    <row r="1355" ht="14.4" spans="1:1">
       <c r="A1355" s="11"/>
     </row>
-    <row r="1356" spans="1:1">
+    <row r="1356" ht="14.4" spans="1:1">
       <c r="A1356" s="11"/>
     </row>
-    <row r="1357" spans="1:1">
+    <row r="1357" ht="14.4" spans="1:1">
       <c r="A1357" s="11"/>
     </row>
-    <row r="1358" spans="1:1">
+    <row r="1358" ht="14.4" spans="1:1">
       <c r="A1358" s="11"/>
     </row>
-    <row r="1359" spans="1:1">
+    <row r="1359" ht="14.4" spans="1:1">
       <c r="A1359" s="11"/>
     </row>
-    <row r="1360" spans="1:1">
+    <row r="1360" ht="14.4" spans="1:1">
       <c r="A1360" s="11"/>
     </row>
-    <row r="1361" spans="1:1">
+    <row r="1361" ht="14.4" spans="1:1">
       <c r="A1361" s="11"/>
     </row>
-    <row r="1362" spans="1:1">
+    <row r="1362" ht="14.4" spans="1:1">
       <c r="A1362" s="11"/>
     </row>
-    <row r="1363" spans="1:1">
+    <row r="1363" ht="14.4" spans="1:1">
       <c r="A1363" s="11"/>
     </row>
-    <row r="1364" spans="1:1">
+    <row r="1364" ht="14.4" spans="1:1">
       <c r="A1364" s="11"/>
     </row>
-    <row r="1365" spans="1:1">
+    <row r="1365" ht="14.4" spans="1:1">
       <c r="A1365" s="11"/>
     </row>
-    <row r="1366" spans="1:1">
+    <row r="1366" ht="14.4" spans="1:1">
       <c r="A1366" s="11"/>
     </row>
-    <row r="1367" spans="1:1">
+    <row r="1367" ht="14.4" spans="1:1">
       <c r="A1367" s="11"/>
     </row>
-    <row r="1368" spans="1:1">
+    <row r="1368" ht="14.4" spans="1:1">
       <c r="A1368" s="11"/>
     </row>
-    <row r="1369" spans="1:1">
+    <row r="1369" ht="14.4" spans="1:1">
       <c r="A1369" s="11"/>
     </row>
-    <row r="1370" spans="1:1">
+    <row r="1370" ht="14.4" spans="1:1">
       <c r="A1370" s="11"/>
     </row>
-    <row r="1371" spans="1:1">
+    <row r="1371" ht="14.4" spans="1:1">
       <c r="A1371" s="11" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="1372" spans="1:1">
+    <row r="1372" ht="14.4" spans="1:1">
       <c r="A1372" s="11"/>
     </row>
-    <row r="1373" spans="1:1">
+    <row r="1373" ht="14.4" spans="1:1">
       <c r="A1373" s="11"/>
     </row>
-    <row r="1374" spans="1:1">
+    <row r="1374" ht="14.4" spans="1:1">
       <c r="A1374" s="11"/>
     </row>
-    <row r="1375" spans="1:1">
+    <row r="1375" ht="14.4" spans="1:1">
       <c r="A1375" s="11"/>
     </row>
-    <row r="1376" spans="1:1">
+    <row r="1376" ht="14.4" spans="1:1">
       <c r="A1376" s="11"/>
     </row>
-    <row r="1377" spans="1:1">
+    <row r="1377" ht="14.4" spans="1:1">
       <c r="A1377" s="11"/>
     </row>
-    <row r="1378" spans="1:1">
+    <row r="1378" ht="14.4" spans="1:1">
       <c r="A1378" s="11"/>
     </row>
-    <row r="1379" spans="1:1">
+    <row r="1379" ht="14.4" spans="1:1">
       <c r="A1379" s="11"/>
     </row>
-    <row r="1380" spans="1:1">
+    <row r="1380" ht="14.4" spans="1:1">
       <c r="A1380" s="11"/>
     </row>
-    <row r="1381" spans="1:1">
+    <row r="1381" ht="14.4" spans="1:1">
       <c r="A1381" s="11"/>
     </row>
-    <row r="1382" spans="1:1">
+    <row r="1382" ht="14.4" spans="1:1">
       <c r="A1382" s="11"/>
     </row>
-    <row r="1383" spans="1:1">
+    <row r="1383" ht="14.4" spans="1:1">
       <c r="A1383" s="11"/>
     </row>
-    <row r="1384" spans="1:1">
+    <row r="1384" ht="14.4" spans="1:1">
       <c r="A1384" s="11"/>
     </row>
-    <row r="1385" spans="1:1">
+    <row r="1385" ht="14.4" spans="1:1">
       <c r="A1385" s="11"/>
     </row>
-    <row r="1386" spans="1:1">
+    <row r="1386" ht="14.4" spans="1:1">
       <c r="A1386" s="11"/>
     </row>
-    <row r="1387" spans="1:1">
+    <row r="1387" ht="14.4" spans="1:1">
       <c r="A1387" s="11" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="1388" spans="1:1">
+    <row r="1388" ht="14.4" spans="1:1">
       <c r="A1388" s="11"/>
     </row>
-    <row r="1389" spans="1:1">
+    <row r="1389" ht="14.4" spans="1:1">
       <c r="A1389" s="11"/>
     </row>
-    <row r="1390" spans="1:1">
+    <row r="1390" ht="14.4" spans="1:1">
       <c r="A1390" s="11"/>
     </row>
-    <row r="1391" spans="1:1">
+    <row r="1391" ht="14.4" spans="1:1">
       <c r="A1391" s="11"/>
     </row>
-    <row r="1392" spans="1:1">
+    <row r="1392" ht="14.4" spans="1:1">
       <c r="A1392" s="11"/>
     </row>
-    <row r="1393" spans="1:1">
+    <row r="1393" ht="14.4" spans="1:1">
       <c r="A1393" s="11"/>
     </row>
-    <row r="1394" spans="1:1">
+    <row r="1394" ht="14.4" spans="1:1">
       <c r="A1394" s="11"/>
     </row>
-    <row r="1395" spans="1:1">
+    <row r="1395" ht="14.4" spans="1:1">
       <c r="A1395" s="11"/>
     </row>
-    <row r="1396" spans="1:1">
+    <row r="1396" ht="14.4" spans="1:1">
       <c r="A1396" s="11"/>
     </row>
     <row r="1397" ht="15.75" customHeight="1" spans="1:1">
@@ -5958,120 +6007,120 @@
     <row r="1409" ht="13.5" customHeight="1" spans="1:1">
       <c r="A1409" s="11"/>
     </row>
-    <row r="1410" spans="1:1">
+    <row r="1410" ht="14.4" spans="1:1">
       <c r="A1410" s="11" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="1411" spans="1:1">
+    <row r="1411" ht="14.4" spans="1:1">
       <c r="A1411" s="11"/>
     </row>
-    <row r="1412" spans="1:1">
+    <row r="1412" ht="14.4" spans="1:1">
       <c r="A1412" s="11" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="1413" spans="1:1">
+    <row r="1413" ht="14.4" spans="1:1">
       <c r="A1413" s="11"/>
     </row>
-    <row r="1414" spans="1:1">
+    <row r="1414" ht="14.4" spans="1:1">
       <c r="A1414" s="11"/>
     </row>
-    <row r="1415" spans="1:1">
+    <row r="1415" ht="14.4" spans="1:1">
       <c r="A1415" s="11"/>
     </row>
-    <row r="1416" spans="1:1">
+    <row r="1416" ht="14.4" spans="1:1">
       <c r="A1416" s="11"/>
     </row>
-    <row r="1417" spans="1:1">
+    <row r="1417" ht="14.4" spans="1:1">
       <c r="A1417" s="11"/>
     </row>
-    <row r="1418" spans="1:1">
+    <row r="1418" ht="14.4" spans="1:1">
       <c r="A1418" s="11"/>
     </row>
-    <row r="1419" spans="1:1">
+    <row r="1419" ht="14.4" spans="1:1">
       <c r="A1419" s="11"/>
     </row>
-    <row r="1420" spans="1:1">
+    <row r="1420" ht="14.4" spans="1:1">
       <c r="A1420" s="11"/>
     </row>
-    <row r="1421" spans="1:1">
+    <row r="1421" ht="14.4" spans="1:1">
       <c r="A1421" s="11"/>
     </row>
-    <row r="1422" spans="1:1">
+    <row r="1422" ht="14.4" spans="1:1">
       <c r="A1422" s="11"/>
     </row>
-    <row r="1423" spans="1:1">
+    <row r="1423" ht="14.4" spans="1:1">
       <c r="A1423" s="11"/>
     </row>
-    <row r="1424" spans="1:1">
+    <row r="1424" ht="14.4" spans="1:1">
       <c r="A1424" s="11"/>
     </row>
-    <row r="1425" spans="1:1">
+    <row r="1425" ht="14.4" spans="1:1">
       <c r="A1425" s="11"/>
     </row>
-    <row r="1426" spans="1:1">
+    <row r="1426" ht="14.4" spans="1:1">
       <c r="A1426" s="11"/>
     </row>
-    <row r="1427" spans="1:1">
+    <row r="1427" ht="14.4" spans="1:1">
       <c r="A1427" s="11"/>
     </row>
-    <row r="1428" spans="1:1">
+    <row r="1428" ht="14.4" spans="1:1">
       <c r="A1428" s="11"/>
     </row>
-    <row r="1429" spans="1:1">
+    <row r="1429" ht="14.4" spans="1:1">
       <c r="A1429" s="11"/>
     </row>
-    <row r="1430" spans="1:1">
+    <row r="1430" ht="14.4" spans="1:1">
       <c r="A1430" s="11"/>
     </row>
-    <row r="1431" spans="1:1">
+    <row r="1431" ht="14.4" spans="1:1">
       <c r="A1431" s="11"/>
     </row>
-    <row r="1432" spans="1:1">
+    <row r="1432" ht="14.4" spans="1:1">
       <c r="A1432" s="11"/>
     </row>
-    <row r="1433" spans="1:1">
+    <row r="1433" ht="14.4" spans="1:1">
       <c r="A1433" s="11"/>
     </row>
-    <row r="1434" spans="1:1">
+    <row r="1434" ht="14.4" spans="1:1">
       <c r="A1434" s="11"/>
     </row>
-    <row r="1435" spans="1:1">
+    <row r="1435" ht="14.4" spans="1:1">
       <c r="A1435" s="11"/>
     </row>
-    <row r="1436" spans="1:1">
+    <row r="1436" ht="14.4" spans="1:1">
       <c r="A1436" s="11" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="1437" spans="1:1">
+    <row r="1437" ht="14.4" spans="1:1">
       <c r="A1437" s="11"/>
     </row>
-    <row r="1438" spans="1:1">
+    <row r="1438" ht="14.4" spans="1:1">
       <c r="A1438" s="11"/>
     </row>
-    <row r="1439" spans="1:1">
+    <row r="1439" ht="14.4" spans="1:1">
       <c r="A1439" s="11"/>
     </row>
-    <row r="1440" spans="1:1">
+    <row r="1440" ht="14.4" spans="1:1">
       <c r="A1440" s="11"/>
     </row>
-    <row r="1441" spans="1:1">
+    <row r="1441" ht="14.4" spans="1:1">
       <c r="A1441" s="11" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="1442" spans="1:1">
+    <row r="1442" ht="14.4" spans="1:1">
       <c r="A1442" s="11"/>
     </row>
-    <row r="1443" spans="1:1">
+    <row r="1443" ht="14.4" spans="1:1">
       <c r="A1443" s="11"/>
     </row>
-    <row r="1444" spans="1:1">
+    <row r="1444" ht="14.4" spans="1:1">
       <c r="A1444" s="11"/>
     </row>
-    <row r="1445" spans="1:1">
+    <row r="1445" ht="14.4" spans="1:1">
       <c r="A1445" s="11"/>
     </row>
     <row r="1446" ht="15.75" customHeight="1" spans="1:1">
@@ -6079,88 +6128,88 @@
         <v>33</v>
       </c>
     </row>
-    <row r="1447" spans="1:1">
+    <row r="1447" ht="14.4" spans="1:1">
       <c r="A1447" s="11"/>
     </row>
-    <row r="1448" spans="1:1">
+    <row r="1448" ht="14.4" spans="1:1">
       <c r="A1448" s="11"/>
     </row>
     <row r="1449" ht="31.5" customHeight="1" spans="1:1">
       <c r="A1449" s="11"/>
     </row>
-    <row r="1450" spans="1:1">
+    <row r="1450" ht="14.4" spans="1:1">
       <c r="A1450" s="11"/>
     </row>
-    <row r="1451" spans="1:1">
+    <row r="1451" ht="14.4" spans="1:1">
       <c r="A1451" s="11" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="1452" spans="1:1">
+    <row r="1452" ht="14.4" spans="1:1">
       <c r="A1452" s="11"/>
     </row>
-    <row r="1453" spans="1:1">
+    <row r="1453" ht="14.4" spans="1:1">
       <c r="A1453" s="11" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="1454" spans="1:1">
+    <row r="1454" ht="14.4" spans="1:1">
       <c r="A1454" s="11"/>
     </row>
-    <row r="1455" spans="1:1">
+    <row r="1455" ht="14.4" spans="1:1">
       <c r="A1455" s="11"/>
     </row>
-    <row r="1456" spans="1:1">
+    <row r="1456" ht="14.4" spans="1:1">
       <c r="A1456" s="11"/>
     </row>
-    <row r="1457" spans="1:1">
+    <row r="1457" ht="14.4" spans="1:1">
       <c r="A1457" s="11"/>
     </row>
-    <row r="1458" spans="1:1">
+    <row r="1458" ht="14.4" spans="1:1">
       <c r="A1458" s="11"/>
     </row>
-    <row r="1459" spans="1:1">
+    <row r="1459" ht="14.4" spans="1:1">
       <c r="A1459" s="11"/>
     </row>
-    <row r="1460" spans="1:1">
+    <row r="1460" ht="14.4" spans="1:1">
       <c r="A1460" s="11"/>
     </row>
-    <row r="1461" spans="1:1">
+    <row r="1461" ht="14.4" spans="1:1">
       <c r="A1461" s="11"/>
     </row>
-    <row r="1462" spans="1:1">
+    <row r="1462" ht="14.4" spans="1:1">
       <c r="A1462" s="11"/>
     </row>
-    <row r="1463" spans="1:1">
+    <row r="1463" ht="14.4" spans="1:1">
       <c r="A1463" s="11"/>
     </row>
-    <row r="1464" spans="1:1">
+    <row r="1464" ht="14.4" spans="1:1">
       <c r="A1464" s="11"/>
     </row>
-    <row r="1465" spans="1:1">
+    <row r="1465" ht="14.4" spans="1:1">
       <c r="A1465" s="11"/>
     </row>
-    <row r="1466" spans="1:1">
+    <row r="1466" ht="14.4" spans="1:1">
       <c r="A1466" s="11"/>
     </row>
-    <row r="1467" spans="1:1">
+    <row r="1467" ht="14.4" spans="1:1">
       <c r="A1467" s="11"/>
     </row>
-    <row r="1468" spans="1:1">
+    <row r="1468" ht="14.4" spans="1:1">
       <c r="A1468" s="11"/>
     </row>
-    <row r="1469" spans="1:1">
+    <row r="1469" ht="14.4" spans="1:1">
       <c r="A1469" s="11"/>
     </row>
-    <row r="1470" spans="1:1">
+    <row r="1470" ht="14.4" spans="1:1">
       <c r="A1470" s="11"/>
     </row>
-    <row r="1471" spans="1:1">
+    <row r="1471" ht="14.4" spans="1:1">
       <c r="A1471" s="11" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="1472" spans="1:1">
+    <row r="1472" ht="14.4" spans="1:1">
       <c r="A1472" s="11"/>
     </row>
     <row r="1473" spans="1:1">
@@ -6168,81 +6217,81 @@
         <v>30</v>
       </c>
     </row>
-    <row r="1474" spans="1:1">
+    <row r="1474" ht="14.4" spans="1:1">
       <c r="A1474" s="11" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="1475" spans="1:1">
+    <row r="1475" ht="14.4" spans="1:1">
       <c r="A1475" s="11"/>
     </row>
-    <row r="1476" spans="1:1">
+    <row r="1476" ht="14.4" spans="1:1">
       <c r="A1476" s="11"/>
     </row>
-    <row r="1477" spans="1:1">
+    <row r="1477" ht="14.4" spans="1:1">
       <c r="A1477" s="11"/>
     </row>
-    <row r="1478" spans="1:1">
+    <row r="1478" ht="14.4" spans="1:1">
       <c r="A1478" s="11"/>
     </row>
-    <row r="1479" spans="1:1">
+    <row r="1479" ht="14.4" spans="1:1">
       <c r="A1479" s="11"/>
     </row>
-    <row r="1480" spans="1:1">
+    <row r="1480" ht="14.4" spans="1:1">
       <c r="A1480" s="11"/>
     </row>
-    <row r="1481" spans="1:1">
+    <row r="1481" ht="14.4" spans="1:1">
       <c r="A1481" s="11"/>
     </row>
-    <row r="1482" spans="1:1">
+    <row r="1482" ht="14.4" spans="1:1">
       <c r="A1482" s="11"/>
     </row>
-    <row r="1483" spans="1:1">
+    <row r="1483" ht="14.4" spans="1:1">
       <c r="A1483" s="11"/>
     </row>
-    <row r="1484" spans="1:1">
+    <row r="1484" ht="14.4" spans="1:1">
       <c r="A1484" s="11"/>
     </row>
-    <row r="1485" spans="1:1">
+    <row r="1485" ht="14.4" spans="1:1">
       <c r="A1485" s="11"/>
     </row>
-    <row r="1486" spans="1:1">
+    <row r="1486" ht="14.4" spans="1:1">
       <c r="A1486" s="11"/>
     </row>
-    <row r="1487" spans="1:1">
+    <row r="1487" ht="14.4" spans="1:1">
       <c r="A1487" s="11"/>
     </row>
-    <row r="1488" spans="1:1">
+    <row r="1488" ht="14.4" spans="1:1">
       <c r="A1488" s="11"/>
     </row>
-    <row r="1489" spans="1:1">
+    <row r="1489" ht="14.4" spans="1:1">
       <c r="A1489" s="11"/>
     </row>
-    <row r="1490" spans="1:1">
+    <row r="1490" ht="14.4" spans="1:1">
       <c r="A1490" s="11"/>
     </row>
-    <row r="1491" spans="1:1">
+    <row r="1491" ht="14.4" spans="1:1">
       <c r="A1491" s="11"/>
     </row>
-    <row r="1492" spans="1:1">
+    <row r="1492" ht="14.4" spans="1:1">
       <c r="A1492" s="11"/>
     </row>
-    <row r="1493" spans="1:1">
+    <row r="1493" ht="14.4" spans="1:1">
       <c r="A1493" s="11"/>
     </row>
-    <row r="1494" spans="1:1">
+    <row r="1494" ht="14.4" spans="1:1">
       <c r="A1494" s="11"/>
     </row>
-    <row r="1495" spans="1:1">
+    <row r="1495" ht="14.4" spans="1:1">
       <c r="A1495" s="11"/>
     </row>
-    <row r="1496" spans="1:1">
+    <row r="1496" ht="14.4" spans="1:1">
       <c r="A1496" s="11"/>
     </row>
-    <row r="1497" spans="1:1">
+    <row r="1497" ht="14.4" spans="1:1">
       <c r="A1497" s="11"/>
     </row>
-    <row r="1498" spans="1:1">
+    <row r="1498" ht="14.4" spans="1:1">
       <c r="A1498" s="11"/>
     </row>
     <row r="1499" ht="15.75" customHeight="1" spans="1:1">
@@ -6265,56 +6314,56 @@
     <row r="1504" ht="13.5" customHeight="1" spans="1:1">
       <c r="A1504" s="11"/>
     </row>
-    <row r="1505" spans="1:1">
+    <row r="1505" ht="14.4" spans="1:1">
       <c r="A1505" s="11" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="1506" spans="1:1">
+    <row r="1506" ht="14.4" spans="1:1">
       <c r="A1506" s="11"/>
     </row>
-    <row r="1507" spans="1:1">
+    <row r="1507" ht="14.4" spans="1:1">
       <c r="A1507" s="11"/>
     </row>
-    <row r="1508" spans="1:1">
+    <row r="1508" ht="14.4" spans="1:1">
       <c r="A1508" s="11"/>
     </row>
-    <row r="1509" spans="1:1">
+    <row r="1509" ht="14.4" spans="1:1">
       <c r="A1509" s="11"/>
     </row>
-    <row r="1510" spans="1:1">
+    <row r="1510" ht="14.4" spans="1:1">
       <c r="A1510" s="11"/>
     </row>
-    <row r="1511" spans="1:1">
+    <row r="1511" ht="14.4" spans="1:1">
       <c r="A1511" s="11"/>
     </row>
-    <row r="1512" spans="1:1">
+    <row r="1512" ht="14.4" spans="1:1">
       <c r="A1512" s="11" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="1513" spans="1:1">
+    <row r="1513" ht="14.4" spans="1:1">
       <c r="A1513" s="11"/>
     </row>
-    <row r="1514" spans="1:1">
+    <row r="1514" ht="14.4" spans="1:1">
       <c r="A1514" s="11"/>
     </row>
-    <row r="1515" spans="1:1">
+    <row r="1515" ht="14.4" spans="1:1">
       <c r="A1515" s="11"/>
     </row>
-    <row r="1516" spans="1:1">
+    <row r="1516" ht="14.4" spans="1:1">
       <c r="A1516" s="11"/>
     </row>
-    <row r="1517" spans="1:1">
+    <row r="1517" ht="14.4" spans="1:1">
       <c r="A1517" s="11"/>
     </row>
-    <row r="1518" spans="1:1">
+    <row r="1518" ht="14.4" spans="1:1">
       <c r="A1518" s="11"/>
     </row>
-    <row r="1519" spans="1:1">
+    <row r="1519" ht="14.4" spans="1:1">
       <c r="A1519" s="11"/>
     </row>
-    <row r="1520" spans="1:1">
+    <row r="1520" ht="14.4" spans="1:1">
       <c r="A1520" s="11"/>
     </row>
     <row r="1521" spans="1:1">
@@ -6327,7 +6376,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="1523" spans="1:1">
+    <row r="1523" ht="14.4" spans="1:1">
       <c r="A1523" s="11"/>
     </row>
     <row r="1524" ht="31.5" customHeight="1" spans="1:1">
@@ -6339,200 +6388,200 @@
     <row r="1526" spans="1:1">
       <c r="A1526" s="11"/>
     </row>
-    <row r="1527" spans="1:1">
+    <row r="1527" ht="14.4" spans="1:1">
       <c r="A1527" s="11" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="1528" spans="1:1">
+    <row r="1528" ht="14.4" spans="1:1">
       <c r="A1528" s="11"/>
     </row>
-    <row r="1529" spans="1:1">
+    <row r="1529" ht="14.4" spans="1:1">
       <c r="A1529" s="11"/>
     </row>
-    <row r="1530" spans="1:1">
+    <row r="1530" ht="14.4" spans="1:1">
       <c r="A1530" s="11"/>
     </row>
-    <row r="1531" spans="1:1">
+    <row r="1531" ht="14.4" spans="1:1">
       <c r="A1531" s="11"/>
     </row>
-    <row r="1532" spans="1:1">
+    <row r="1532" ht="14.4" spans="1:1">
       <c r="A1532" s="11"/>
     </row>
-    <row r="1533" spans="1:1">
+    <row r="1533" ht="14.4" spans="1:1">
       <c r="A1533" s="11" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="1534" spans="1:1">
+    <row r="1534" ht="14.4" spans="1:1">
       <c r="A1534" s="11"/>
     </row>
-    <row r="1535" spans="1:1">
+    <row r="1535" ht="14.4" spans="1:1">
       <c r="A1535" s="11"/>
     </row>
-    <row r="1536" spans="1:1">
+    <row r="1536" ht="14.4" spans="1:1">
       <c r="A1536" s="11"/>
     </row>
-    <row r="1537" spans="1:1">
+    <row r="1537" ht="14.4" spans="1:1">
       <c r="A1537" s="11"/>
     </row>
-    <row r="1538" spans="1:1">
+    <row r="1538" ht="14.4" spans="1:1">
       <c r="A1538" s="11"/>
     </row>
-    <row r="1539" spans="1:1">
+    <row r="1539" ht="14.4" spans="1:1">
       <c r="A1539" s="11"/>
     </row>
-    <row r="1540" spans="1:1">
+    <row r="1540" ht="14.4" spans="1:1">
       <c r="A1540" s="11"/>
     </row>
-    <row r="1541" spans="1:1">
+    <row r="1541" ht="14.4" spans="1:1">
       <c r="A1541" s="11"/>
     </row>
-    <row r="1542" spans="1:1">
+    <row r="1542" ht="14.4" spans="1:1">
       <c r="A1542" s="11"/>
     </row>
-    <row r="1543" spans="1:1">
+    <row r="1543" ht="14.4" spans="1:1">
       <c r="A1543" s="11"/>
     </row>
-    <row r="1544" spans="1:1">
+    <row r="1544" ht="14.4" spans="1:1">
       <c r="A1544" s="11"/>
     </row>
-    <row r="1545" spans="1:1">
+    <row r="1545" ht="14.4" spans="1:1">
       <c r="A1545" s="11"/>
     </row>
-    <row r="1546" spans="1:1">
+    <row r="1546" ht="14.4" spans="1:1">
       <c r="A1546" s="11"/>
     </row>
-    <row r="1547" spans="1:1">
+    <row r="1547" ht="14.4" spans="1:1">
       <c r="A1547" s="11"/>
     </row>
-    <row r="1548" spans="1:1">
+    <row r="1548" ht="14.4" spans="1:1">
       <c r="A1548" s="11"/>
     </row>
-    <row r="1549" spans="1:1">
+    <row r="1549" ht="14.4" spans="1:1">
       <c r="A1549" s="11"/>
     </row>
-    <row r="1550" spans="1:1">
+    <row r="1550" ht="14.4" spans="1:1">
       <c r="A1550" s="11"/>
     </row>
-    <row r="1551" spans="1:1">
+    <row r="1551" ht="14.4" spans="1:1">
       <c r="A1551" s="11"/>
     </row>
-    <row r="1552" spans="1:1">
+    <row r="1552" ht="14.4" spans="1:1">
       <c r="A1552" s="11"/>
     </row>
-    <row r="1553" spans="1:1">
+    <row r="1553" ht="14.4" spans="1:1">
       <c r="A1553" s="11"/>
     </row>
-    <row r="1554" spans="1:1">
+    <row r="1554" ht="14.4" spans="1:1">
       <c r="A1554" s="11"/>
     </row>
-    <row r="1555" spans="1:1">
+    <row r="1555" ht="14.4" spans="1:1">
       <c r="A1555" s="11"/>
     </row>
-    <row r="1556" spans="1:1">
+    <row r="1556" ht="14.4" spans="1:1">
       <c r="A1556" s="11"/>
     </row>
-    <row r="1557" spans="1:1">
+    <row r="1557" ht="14.4" spans="1:1">
       <c r="A1557" s="11"/>
     </row>
-    <row r="1558" spans="1:1">
+    <row r="1558" ht="14.4" spans="1:1">
       <c r="A1558" s="11"/>
     </row>
-    <row r="1559" spans="1:1">
+    <row r="1559" ht="14.4" spans="1:1">
       <c r="A1559" s="11"/>
     </row>
-    <row r="1560" spans="1:1">
+    <row r="1560" ht="14.4" spans="1:1">
       <c r="A1560" s="11"/>
     </row>
-    <row r="1561" spans="1:1">
+    <row r="1561" ht="14.4" spans="1:1">
       <c r="A1561" s="11"/>
     </row>
-    <row r="1562" spans="1:1">
+    <row r="1562" ht="14.4" spans="1:1">
       <c r="A1562" s="11"/>
     </row>
-    <row r="1563" spans="1:1">
+    <row r="1563" ht="14.4" spans="1:1">
       <c r="A1563" s="11"/>
     </row>
-    <row r="1564" spans="1:1">
+    <row r="1564" ht="14.4" spans="1:1">
       <c r="A1564" s="11"/>
     </row>
-    <row r="1565" spans="1:1">
+    <row r="1565" ht="14.4" spans="1:1">
       <c r="A1565" s="11"/>
     </row>
-    <row r="1566" spans="1:1">
+    <row r="1566" ht="14.4" spans="1:1">
       <c r="A1566" s="11"/>
     </row>
-    <row r="1567" spans="1:1">
+    <row r="1567" ht="14.4" spans="1:1">
       <c r="A1567" s="11"/>
     </row>
-    <row r="1568" spans="1:1">
+    <row r="1568" ht="14.4" spans="1:1">
       <c r="A1568" s="11"/>
     </row>
-    <row r="1569" spans="1:1">
+    <row r="1569" ht="14.4" spans="1:1">
       <c r="A1569" s="11"/>
     </row>
-    <row r="1570" spans="1:1">
+    <row r="1570" ht="14.4" spans="1:1">
       <c r="A1570" s="11"/>
     </row>
-    <row r="1571" spans="1:1">
+    <row r="1571" ht="14.4" spans="1:1">
       <c r="A1571" s="11"/>
     </row>
-    <row r="1572" spans="1:1">
+    <row r="1572" ht="14.4" spans="1:1">
       <c r="A1572" s="11"/>
     </row>
-    <row r="1573" spans="1:1">
+    <row r="1573" ht="14.4" spans="1:1">
       <c r="A1573" s="11"/>
     </row>
-    <row r="1574" spans="1:1">
+    <row r="1574" ht="14.4" spans="1:1">
       <c r="A1574" s="11"/>
     </row>
-    <row r="1575" spans="1:1">
+    <row r="1575" ht="14.4" spans="1:1">
       <c r="A1575" s="11"/>
     </row>
-    <row r="1576" spans="1:1">
+    <row r="1576" ht="14.4" spans="1:1">
       <c r="A1576" s="11"/>
     </row>
-    <row r="1577" spans="1:1">
+    <row r="1577" ht="14.4" spans="1:1">
       <c r="A1577" s="11"/>
     </row>
-    <row r="1578" spans="1:1">
+    <row r="1578" ht="14.4" spans="1:1">
       <c r="A1578" s="11"/>
     </row>
-    <row r="1579" spans="1:1">
+    <row r="1579" ht="14.4" spans="1:1">
       <c r="A1579" s="11"/>
     </row>
-    <row r="1580" spans="1:1">
+    <row r="1580" ht="14.4" spans="1:1">
       <c r="A1580" s="11"/>
     </row>
-    <row r="1581" spans="1:1">
+    <row r="1581" ht="14.4" spans="1:1">
       <c r="A1581" s="11"/>
     </row>
-    <row r="1582" spans="1:1">
+    <row r="1582" ht="14.4" spans="1:1">
       <c r="A1582" s="11"/>
     </row>
-    <row r="1583" spans="1:1">
+    <row r="1583" ht="14.4" spans="1:1">
       <c r="A1583" s="11"/>
     </row>
-    <row r="1584" spans="1:1">
+    <row r="1584" ht="14.4" spans="1:1">
       <c r="A1584" s="11"/>
     </row>
-    <row r="1585" spans="1:1">
+    <row r="1585" ht="14.4" spans="1:1">
       <c r="A1585" s="11"/>
     </row>
-    <row r="1586" spans="1:1">
+    <row r="1586" ht="14.4" spans="1:1">
       <c r="A1586" s="11"/>
     </row>
-    <row r="1587" spans="1:1">
+    <row r="1587" ht="14.4" spans="1:1">
       <c r="A1587" s="11"/>
     </row>
-    <row r="1588" spans="1:1">
+    <row r="1588" ht="14.4" spans="1:1">
       <c r="A1588" s="11"/>
     </row>
-    <row r="1589" spans="1:1">
+    <row r="1589" ht="14.4" spans="1:1">
       <c r="A1589" s="11"/>
     </row>
-    <row r="1590" spans="1:1">
+    <row r="1590" ht="14.4" spans="1:1">
       <c r="A1590" s="11"/>
     </row>
     <row r="1591" ht="15.75" customHeight="1" spans="1:1">
@@ -6561,21 +6610,21 @@
     <row r="1598" ht="13.5" customHeight="1" spans="1:1">
       <c r="A1598" s="11"/>
     </row>
-    <row r="1599" spans="1:1">
+    <row r="1599" ht="14.4" spans="1:1">
       <c r="A1599" s="11" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="1600" spans="1:1">
+    <row r="1600" ht="14.4" spans="1:1">
       <c r="A1600" s="11"/>
     </row>
-    <row r="1601" spans="1:1">
+    <row r="1601" ht="14.4" spans="1:1">
       <c r="A1601" s="11"/>
     </row>
-    <row r="1602" spans="1:1">
+    <row r="1602" ht="14.4" spans="1:1">
       <c r="A1602" s="11"/>
     </row>
-    <row r="1603" spans="1:1">
+    <row r="1603" ht="14.4" spans="1:1">
       <c r="A1603" s="11"/>
     </row>
     <row r="1604" ht="15.75" customHeight="1" spans="1:1">
@@ -6607,53 +6656,53 @@
     <row r="1612" ht="13.5" customHeight="1" spans="1:1">
       <c r="A1612" s="11"/>
     </row>
-    <row r="1613" spans="1:1">
+    <row r="1613" ht="14.4" spans="1:1">
       <c r="A1613" s="11" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="1614" spans="1:1">
+    <row r="1614" ht="14.4" spans="1:1">
       <c r="A1614" s="11"/>
     </row>
-    <row r="1615" spans="1:1">
+    <row r="1615" ht="14.4" spans="1:1">
       <c r="A1615" s="11"/>
     </row>
-    <row r="1616" spans="1:1">
+    <row r="1616" ht="14.4" spans="1:1">
       <c r="A1616" s="11"/>
     </row>
-    <row r="1617" spans="1:1">
+    <row r="1617" ht="14.4" spans="1:1">
       <c r="A1617" s="11"/>
     </row>
-    <row r="1618" spans="1:1">
+    <row r="1618" ht="14.4" spans="1:1">
       <c r="A1618" s="11"/>
     </row>
-    <row r="1619" spans="1:1">
+    <row r="1619" ht="14.4" spans="1:1">
       <c r="A1619" s="11"/>
     </row>
-    <row r="1620" spans="1:1">
+    <row r="1620" ht="14.4" spans="1:1">
       <c r="A1620" s="11" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="1621" spans="1:1">
+    <row r="1621" ht="14.4" spans="1:1">
       <c r="A1621" s="11"/>
     </row>
-    <row r="1622" spans="1:1">
+    <row r="1622" ht="14.4" spans="1:1">
       <c r="A1622" s="11"/>
     </row>
-    <row r="1623" spans="1:1">
+    <row r="1623" ht="14.4" spans="1:1">
       <c r="A1623" s="11"/>
     </row>
-    <row r="1624" spans="1:1">
+    <row r="1624" ht="14.4" spans="1:1">
       <c r="A1624" s="11"/>
     </row>
-    <row r="1625" spans="1:1">
+    <row r="1625" ht="14.4" spans="1:1">
       <c r="A1625" s="11"/>
     </row>
-    <row r="1626" spans="1:1">
+    <row r="1626" ht="14.4" spans="1:1">
       <c r="A1626" s="11"/>
     </row>
-    <row r="1627" spans="1:1">
+    <row r="1627" ht="14.4" spans="1:1">
       <c r="A1627" s="11"/>
     </row>
     <row r="1628" ht="31.5" customHeight="1" spans="1:1">
@@ -6661,272 +6710,272 @@
         <v>16</v>
       </c>
     </row>
-    <row r="1629" spans="1:1">
+    <row r="1629" ht="14.4" spans="1:1">
       <c r="A1629" s="11" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="1630" spans="1:1">
+    <row r="1630" ht="14.4" spans="1:1">
       <c r="A1630" s="11"/>
     </row>
-    <row r="1631" spans="1:1">
+    <row r="1631" ht="14.4" spans="1:1">
       <c r="A1631" s="11"/>
     </row>
-    <row r="1632" spans="1:1">
+    <row r="1632" ht="14.4" spans="1:1">
       <c r="A1632" s="11"/>
     </row>
-    <row r="1633" spans="1:1">
+    <row r="1633" ht="14.4" spans="1:1">
       <c r="A1633" s="11"/>
     </row>
-    <row r="1634" spans="1:1">
+    <row r="1634" ht="14.4" spans="1:1">
       <c r="A1634" s="11"/>
     </row>
-    <row r="1635" spans="1:1">
+    <row r="1635" ht="14.4" spans="1:1">
       <c r="A1635" s="11"/>
     </row>
-    <row r="1636" spans="1:1">
+    <row r="1636" ht="14.4" spans="1:1">
       <c r="A1636" s="11"/>
     </row>
-    <row r="1637" spans="1:1">
+    <row r="1637" ht="14.4" spans="1:1">
       <c r="A1637" s="11"/>
     </row>
-    <row r="1638" spans="1:1">
+    <row r="1638" ht="14.4" spans="1:1">
       <c r="A1638" s="11"/>
     </row>
-    <row r="1639" spans="1:1">
+    <row r="1639" ht="14.4" spans="1:1">
       <c r="A1639" s="11"/>
     </row>
-    <row r="1640" spans="1:1">
+    <row r="1640" ht="14.4" spans="1:1">
       <c r="A1640" s="11"/>
     </row>
-    <row r="1641" spans="1:1">
+    <row r="1641" ht="14.4" spans="1:1">
       <c r="A1641" s="11"/>
     </row>
-    <row r="1642" spans="1:1">
+    <row r="1642" ht="14.4" spans="1:1">
       <c r="A1642" s="11"/>
     </row>
-    <row r="1643" spans="1:1">
+    <row r="1643" ht="14.4" spans="1:1">
       <c r="A1643" s="11"/>
     </row>
-    <row r="1644" spans="1:1">
+    <row r="1644" ht="14.4" spans="1:1">
       <c r="A1644" s="11"/>
     </row>
-    <row r="1645" spans="1:1">
+    <row r="1645" ht="14.4" spans="1:1">
       <c r="A1645" s="11"/>
     </row>
-    <row r="1646" spans="1:1">
+    <row r="1646" ht="14.4" spans="1:1">
       <c r="A1646" s="11"/>
     </row>
-    <row r="1647" spans="1:1">
+    <row r="1647" ht="14.4" spans="1:1">
       <c r="A1647" s="11"/>
     </row>
-    <row r="1648" spans="1:1">
+    <row r="1648" ht="14.4" spans="1:1">
       <c r="A1648" s="11"/>
     </row>
-    <row r="1649" spans="1:1">
+    <row r="1649" ht="14.4" spans="1:1">
       <c r="A1649" s="11"/>
     </row>
-    <row r="1650" spans="1:1">
+    <row r="1650" ht="14.4" spans="1:1">
       <c r="A1650" s="11"/>
     </row>
-    <row r="1651" spans="1:1">
+    <row r="1651" ht="14.4" spans="1:1">
       <c r="A1651" s="11"/>
     </row>
-    <row r="1652" spans="1:1">
+    <row r="1652" ht="14.4" spans="1:1">
       <c r="A1652" s="11"/>
     </row>
-    <row r="1653" spans="1:1">
+    <row r="1653" ht="14.4" spans="1:1">
       <c r="A1653" s="11"/>
     </row>
-    <row r="1654" spans="1:1">
+    <row r="1654" ht="14.4" spans="1:1">
       <c r="A1654" s="11"/>
     </row>
-    <row r="1655" spans="1:1">
+    <row r="1655" ht="14.4" spans="1:1">
       <c r="A1655" s="11"/>
     </row>
-    <row r="1656" spans="1:1">
+    <row r="1656" ht="14.4" spans="1:1">
       <c r="A1656" s="11"/>
     </row>
-    <row r="1657" spans="1:1">
+    <row r="1657" ht="14.4" spans="1:1">
       <c r="A1657" s="11"/>
     </row>
-    <row r="1658" spans="1:1">
+    <row r="1658" ht="14.4" spans="1:1">
       <c r="A1658" s="11"/>
     </row>
-    <row r="1659" spans="1:1">
+    <row r="1659" ht="14.4" spans="1:1">
       <c r="A1659" s="11"/>
     </row>
-    <row r="1660" spans="1:1">
+    <row r="1660" ht="14.4" spans="1:1">
       <c r="A1660" s="11"/>
     </row>
-    <row r="1661" spans="1:1">
+    <row r="1661" ht="14.4" spans="1:1">
       <c r="A1661" s="11"/>
     </row>
-    <row r="1662" spans="1:1">
+    <row r="1662" ht="14.4" spans="1:1">
       <c r="A1662" s="11"/>
     </row>
-    <row r="1663" spans="1:1">
+    <row r="1663" ht="14.4" spans="1:1">
       <c r="A1663" s="11"/>
     </row>
-    <row r="1664" spans="1:1">
+    <row r="1664" ht="14.4" spans="1:1">
       <c r="A1664" s="11"/>
     </row>
-    <row r="1665" spans="1:1">
+    <row r="1665" ht="14.4" spans="1:1">
       <c r="A1665" s="11"/>
     </row>
-    <row r="1666" spans="1:1">
+    <row r="1666" ht="14.4" spans="1:1">
       <c r="A1666" s="11"/>
     </row>
-    <row r="1667" spans="1:1">
+    <row r="1667" ht="14.4" spans="1:1">
       <c r="A1667" s="11"/>
     </row>
-    <row r="1668" spans="1:1">
+    <row r="1668" ht="14.4" spans="1:1">
       <c r="A1668" s="11"/>
     </row>
-    <row r="1669" spans="1:1">
+    <row r="1669" ht="14.4" spans="1:1">
       <c r="A1669" s="11"/>
     </row>
-    <row r="1670" spans="1:1">
+    <row r="1670" ht="14.4" spans="1:1">
       <c r="A1670" s="11"/>
     </row>
-    <row r="1671" spans="1:1">
+    <row r="1671" ht="14.4" spans="1:1">
       <c r="A1671" s="11"/>
     </row>
-    <row r="1672" spans="1:1">
+    <row r="1672" ht="14.4" spans="1:1">
       <c r="A1672" s="11"/>
     </row>
-    <row r="1673" spans="1:1">
+    <row r="1673" ht="14.4" spans="1:1">
       <c r="A1673" s="11"/>
     </row>
-    <row r="1674" spans="1:1">
+    <row r="1674" ht="14.4" spans="1:1">
       <c r="A1674" s="11"/>
     </row>
-    <row r="1675" spans="1:1">
+    <row r="1675" ht="14.4" spans="1:1">
       <c r="A1675" s="11"/>
     </row>
-    <row r="1676" spans="1:1">
+    <row r="1676" ht="14.4" spans="1:1">
       <c r="A1676" s="11"/>
     </row>
-    <row r="1677" spans="1:1">
+    <row r="1677" ht="14.4" spans="1:1">
       <c r="A1677" s="11"/>
     </row>
-    <row r="1678" spans="1:1">
+    <row r="1678" ht="14.4" spans="1:1">
       <c r="A1678" s="11"/>
     </row>
-    <row r="1679" spans="1:1">
+    <row r="1679" ht="14.4" spans="1:1">
       <c r="A1679" s="11"/>
     </row>
-    <row r="1680" spans="1:1">
+    <row r="1680" ht="14.4" spans="1:1">
       <c r="A1680" s="11"/>
     </row>
-    <row r="1681" spans="1:1">
+    <row r="1681" ht="14.4" spans="1:1">
       <c r="A1681" s="11"/>
     </row>
-    <row r="1682" spans="1:1">
+    <row r="1682" ht="14.4" spans="1:1">
       <c r="A1682" s="11"/>
     </row>
-    <row r="1683" spans="1:1">
+    <row r="1683" ht="14.4" spans="1:1">
       <c r="A1683" s="11"/>
     </row>
-    <row r="1684" spans="1:1">
+    <row r="1684" ht="14.4" spans="1:1">
       <c r="A1684" s="11"/>
     </row>
-    <row r="1685" spans="1:1">
+    <row r="1685" ht="14.4" spans="1:1">
       <c r="A1685" s="11"/>
     </row>
-    <row r="1686" spans="1:1">
+    <row r="1686" ht="14.4" spans="1:1">
       <c r="A1686" s="11"/>
     </row>
-    <row r="1687" spans="1:1">
+    <row r="1687" ht="14.4" spans="1:1">
       <c r="A1687" s="11"/>
     </row>
-    <row r="1688" spans="1:1">
+    <row r="1688" ht="14.4" spans="1:1">
       <c r="A1688" s="11"/>
     </row>
-    <row r="1689" spans="1:1">
+    <row r="1689" ht="14.4" spans="1:1">
       <c r="A1689" s="11"/>
     </row>
-    <row r="1690" spans="1:1">
+    <row r="1690" ht="14.4" spans="1:1">
       <c r="A1690" s="11"/>
     </row>
-    <row r="1691" spans="1:1">
+    <row r="1691" ht="14.4" spans="1:1">
       <c r="A1691" s="11"/>
     </row>
-    <row r="1692" spans="1:1">
+    <row r="1692" ht="14.4" spans="1:1">
       <c r="A1692" s="11"/>
     </row>
-    <row r="1693" spans="1:1">
+    <row r="1693" ht="14.4" spans="1:1">
       <c r="A1693" s="11"/>
     </row>
-    <row r="1694" spans="1:1">
+    <row r="1694" ht="14.4" spans="1:1">
       <c r="A1694" s="11"/>
     </row>
-    <row r="1695" spans="1:1">
+    <row r="1695" ht="14.4" spans="1:1">
       <c r="A1695" s="11"/>
     </row>
-    <row r="1696" spans="1:1">
+    <row r="1696" ht="14.4" spans="1:1">
       <c r="A1696" s="11"/>
     </row>
-    <row r="1697" spans="1:1">
+    <row r="1697" ht="14.4" spans="1:1">
       <c r="A1697" s="11"/>
     </row>
-    <row r="1698" spans="1:1">
+    <row r="1698" ht="14.4" spans="1:1">
       <c r="A1698" s="11"/>
     </row>
-    <row r="1699" spans="1:1">
+    <row r="1699" ht="14.4" spans="1:1">
       <c r="A1699" s="11"/>
     </row>
-    <row r="1700" spans="1:1">
+    <row r="1700" ht="14.4" spans="1:1">
       <c r="A1700" s="11"/>
     </row>
-    <row r="1701" spans="1:1">
+    <row r="1701" ht="14.4" spans="1:1">
       <c r="A1701" s="11"/>
     </row>
-    <row r="1702" spans="1:1">
+    <row r="1702" ht="14.4" spans="1:1">
       <c r="A1702" s="11"/>
     </row>
-    <row r="1703" spans="1:1">
+    <row r="1703" ht="14.4" spans="1:1">
       <c r="A1703" s="11"/>
     </row>
-    <row r="1704" spans="1:1">
+    <row r="1704" ht="14.4" spans="1:1">
       <c r="A1704" s="11"/>
     </row>
-    <row r="1705" spans="1:1">
+    <row r="1705" ht="14.4" spans="1:1">
       <c r="A1705" s="11"/>
     </row>
-    <row r="1706" spans="1:1">
+    <row r="1706" ht="14.4" spans="1:1">
       <c r="A1706" s="11"/>
     </row>
-    <row r="1707" spans="1:1">
+    <row r="1707" ht="14.4" spans="1:1">
       <c r="A1707" s="11" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="1708" spans="1:1">
+    <row r="1708" ht="14.4" spans="1:1">
       <c r="A1708" s="11"/>
     </row>
-    <row r="1709" spans="1:1">
+    <row r="1709" ht="14.4" spans="1:1">
       <c r="A1709" s="11"/>
     </row>
-    <row r="1710" spans="1:1">
+    <row r="1710" ht="14.4" spans="1:1">
       <c r="A1710" s="11"/>
     </row>
-    <row r="1711" spans="1:1">
+    <row r="1711" ht="14.4" spans="1:1">
       <c r="A1711" s="11"/>
     </row>
-    <row r="1712" spans="1:1">
+    <row r="1712" ht="14.4" spans="1:1">
       <c r="A1712" s="11"/>
     </row>
-    <row r="1713" spans="1:1">
+    <row r="1713" ht="14.4" spans="1:1">
       <c r="A1713" s="11"/>
     </row>
-    <row r="1714" spans="1:1">
+    <row r="1714" ht="14.4" spans="1:1">
       <c r="A1714" s="11"/>
     </row>
-    <row r="1715" spans="1:1">
+    <row r="1715" ht="14.4" spans="1:1">
       <c r="A1715" s="11"/>
     </row>
-    <row r="1716" spans="1:1">
+    <row r="1716" ht="14.4" spans="1:1">
       <c r="A1716" s="11"/>
     </row>
     <row r="1717" spans="1:1">
@@ -6934,141 +6983,166 @@
         <v>30</v>
       </c>
     </row>
-    <row r="1718" spans="1:1">
+    <row r="1718" ht="14.4" spans="1:1">
       <c r="A1718" s="11" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="1719" spans="1:1">
+    <row r="1719" ht="14.4" spans="1:1">
       <c r="A1719" s="11"/>
     </row>
-    <row r="1720" spans="1:1">
+    <row r="1720" ht="14.4" spans="1:1">
       <c r="A1720" s="11"/>
     </row>
-    <row r="1721" spans="1:1">
+    <row r="1721" ht="14.4" spans="1:1">
       <c r="A1721" s="11"/>
     </row>
-    <row r="1722" spans="1:1">
+    <row r="1722" ht="14.4" spans="1:1">
       <c r="A1722" s="11" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="1723" spans="1:1">
+    <row r="1723" ht="14.4" spans="1:1">
       <c r="A1723" s="11"/>
     </row>
-    <row r="1724" spans="1:1">
+    <row r="1724" ht="14.4" spans="1:1">
       <c r="A1724" s="11"/>
     </row>
-    <row r="1725" spans="1:1">
+    <row r="1725" ht="14.4" spans="1:1">
       <c r="A1725" s="11"/>
     </row>
-    <row r="1726" spans="1:1">
+    <row r="1726" ht="14.4" spans="1:1">
       <c r="A1726" s="11"/>
     </row>
-    <row r="1727" spans="1:1">
+    <row r="1727" ht="14.4" spans="1:1">
       <c r="A1727" s="11"/>
     </row>
-    <row r="1728" spans="1:1">
+    <row r="1728" ht="14.4" spans="1:1">
       <c r="A1728" s="11"/>
     </row>
-    <row r="1729" spans="1:1">
+    <row r="1729" ht="14.4" spans="1:1">
       <c r="A1729" s="11"/>
     </row>
-    <row r="1730" spans="1:1">
+    <row r="1730" ht="14.4" spans="1:1">
       <c r="A1730" s="11"/>
     </row>
-    <row r="1731" spans="1:1">
+    <row r="1731" ht="14.4" spans="1:1">
       <c r="A1731" s="11"/>
     </row>
-    <row r="1732" spans="1:1">
+    <row r="1732" ht="14.4" spans="1:1">
       <c r="A1732" s="11"/>
     </row>
-    <row r="1733" spans="1:1">
+    <row r="1733" ht="14.4" spans="1:1">
       <c r="A1733" s="11" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="1734" spans="1:1">
+    <row r="1734" ht="14.4" spans="1:1">
       <c r="A1734" s="11"/>
     </row>
-    <row r="1735" spans="1:1">
+    <row r="1735" ht="14.4" spans="1:1">
       <c r="A1735" s="11"/>
     </row>
-    <row r="1736" spans="1:1">
+    <row r="1736" ht="14.4" spans="1:1">
       <c r="A1736" s="11"/>
     </row>
-    <row r="1737" spans="1:1">
+    <row r="1737" ht="14.4" spans="1:1">
       <c r="A1737" s="11"/>
     </row>
-    <row r="1738" spans="1:1">
+    <row r="1738" ht="14.4" spans="1:1">
       <c r="A1738" s="11"/>
     </row>
-    <row r="1739" spans="1:1">
+    <row r="1739" ht="14.4" spans="1:1">
       <c r="A1739" s="11"/>
     </row>
-    <row r="1740" spans="1:1">
+    <row r="1740" ht="14.4" spans="1:1">
       <c r="A1740" s="11"/>
     </row>
-    <row r="1741" spans="1:1">
+    <row r="1741" ht="14.4" spans="1:1">
       <c r="A1741" s="11"/>
     </row>
-    <row r="1742" spans="1:1">
+    <row r="1742" ht="14.4" spans="1:1">
       <c r="A1742" s="11"/>
     </row>
-    <row r="1743" spans="1:1">
+    <row r="1743" ht="14.4" spans="1:1">
       <c r="A1743" s="11"/>
     </row>
-    <row r="1744" spans="1:1">
+    <row r="1744" ht="14.4" spans="1:1">
       <c r="A1744" s="11" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="1745" spans="1:1">
+    <row r="1745" ht="14.4" spans="1:1">
       <c r="A1745" s="11"/>
     </row>
-    <row r="1746" spans="1:1">
+    <row r="1746" ht="14.4" spans="1:1">
       <c r="A1746" s="11"/>
     </row>
-    <row r="1747" spans="1:1">
+    <row r="1747" ht="14.4" spans="1:1">
       <c r="A1747" s="11"/>
     </row>
-    <row r="1748" spans="1:1">
+    <row r="1748" ht="14.4" spans="1:1">
       <c r="A1748" s="11"/>
     </row>
-    <row r="1749" spans="1:1">
+    <row r="1749" ht="14.4" spans="1:1">
       <c r="A1749" s="11" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="1750" spans="1:1">
+    <row r="1750" ht="14.4" spans="1:1">
       <c r="A1750" s="11"/>
     </row>
-    <row r="1751" spans="1:1">
+    <row r="1751" ht="14.4" spans="1:1">
       <c r="A1751" s="11"/>
     </row>
-    <row r="1752" spans="1:1">
+    <row r="1752" ht="14.4" spans="1:1">
       <c r="A1752" s="11"/>
     </row>
-    <row r="1753" spans="1:1">
+    <row r="1753" ht="14.4" spans="1:1">
       <c r="A1753" s="11"/>
     </row>
-    <row r="1754" spans="1:1">
+    <row r="1754" ht="14.4" spans="1:1">
       <c r="A1754" s="11"/>
     </row>
-    <row r="1755" spans="1:1">
+    <row r="1755" ht="14.4" spans="1:1">
       <c r="A1755" s="11"/>
     </row>
-    <row r="1756" spans="1:1">
+    <row r="1756" ht="14.4" spans="1:1">
       <c r="A1756" s="11"/>
     </row>
-    <row r="1757" spans="1:1">
+    <row r="1757" ht="14.4" spans="1:1">
       <c r="A1757" s="11"/>
     </row>
-    <row r="1758" spans="1:1">
+    <row r="1758" ht="14.4" spans="1:1">
       <c r="A1758" s="11"/>
     </row>
-    <row r="1759" spans="1:1">
+    <row r="1759" ht="14.4" spans="1:1">
       <c r="A1759" s="11"/>
+    </row>
+    <row r="1760" spans="1:1">
+      <c r="A1760" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="1761" spans="1:1">
+      <c r="A1761" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="1762" ht="409.5" spans="1:1">
+      <c r="A1762" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="1763" ht="31.2" spans="1:1">
+      <c r="A1763" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="1764" spans="1:1">
+      <c r="A1764" s="1" t="s">
+        <v>45</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="188">

--- a/src/excel/organization.xlsx
+++ b/src/excel/organization.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23040" windowHeight="9420"/>
+    <workbookView windowWidth="28800" windowHeight="12660"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="270" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="275" uniqueCount="50">
   <si>
     <t>name</t>
   </si>
@@ -140,46 +140,1299 @@
     <t>Senate Agriculture, Nutrition, and Forestry</t>
   </si>
   <si>
+    <t>INFORMATION AND COMMUNICATIONS TECHNOLOGY</t>
+  </si>
+  <si>
+    <t>PUBLIC INFORMATION</t>
+  </si>
+  <si>
+    <t>JUSTICE</t>
+  </si>
+  <si>
+    <t>BANKS AND FINANCIAL INTERMEDIARIES</t>
+  </si>
+  <si>
     <t>alls­herjar­nefnd</t>
   </si>
   <si>
     <t>mennta­mála­nefnd</t>
   </si>
   <si>
-    <t>M.P. 2015 poz. 364   akt indywidualny Uchwała Sejmu Rzeczypospolitej Polskiej z dnia 9 kwietnia 2015 r. w sprawie powołania Generalnego Inspektora Ochrony Danych Osobowych
-M.P. 2015 poz. 363   akt indywidualny Uchwała Senatu Rzeczypospolitej Polskiej z dnia 16 kwietnia 2015 r. w sprawie wyrażenia zgody na powołanie Generalnego Inspektora Ochrony Danych Osobowych
-M.P. 2015 poz. 25   akt indywidualny Uchwała Senatu Rzeczypospolitej Polskiej z dnia 18 grudnia 2014 r. w sprawie wyrażenia zgody na odwołanie Generalnego Inspektora Ochrony Danych Osobowych
-M.P. 2014 poz. 1224   akt indywidualny Uchwała Sejmu Rzeczypospolitej Polskiej z dnia 3 grudnia 2014 r. w sprawie odwołania Generalnego Inspektora Ochrony Danych Osobowych
-M.P. 2014 poz. 721   akt indywidualny Uchwała Sejmu Rzeczypospolitej Polskiej z dnia 25 lipca 2014 r. w sprawie powołania Generalnego Inspektora Ochrony Danych Osobowych
-M.P. 2014 poz. 706   akt indywidualny Uchwała Senatu Rzeczypospolitej Polskiej z dnia 7 sierpnia 2014 r. w sprawie wyrażenia zgody na powołanie Generalnego Inspektora Ochrony Danych Osobowych
-M.P. 2010 nr 53 poz. 719   akt indywidualny Uchwała Senatu Rzeczypospolitej Polskiej z dnia 22 lipca 2010 r. w sprawie wyrażenia zgody na powołanie Generalnego Inspektora Ochrony Danych Osobowych
-M.P. 2010 nr 53 poz. 715   akt indywidualny Uchwała Sejmu Rzeczypospolitej Polskiej z dnia 25 czerwca 2010 r. w sprawie powołania Generalnego Inspektora Ochrony Danych Osobowych
-M.P. 2006 nr 47 poz. 494   akt indywidualny Uchwała Senatu Rzeczypospolitej Polskiej z dnia 6 lipca 2006 r. w sprawie wyrażenia zgody na powołanie Generalnego Inspektora Ochrony Danych Osobowych
-M.P. 2006 nr 47 poz. 493   akt indywidualny Uchwała Sejmu Rzeczypospolitej Polskiej z dnia 23 czerwca 2006 r. w sprawie powołania Generalnego Inspektora Ochrony Danych Osobowych
-M.P. 2002 nr 19 poz. 329   akt indywidualny Uchwała Sejmu Rzeczypospolitej Polskiej z dnia 26 kwietnia 2002 r. w sprawie powołania Generalnego Inspektora Ochrony Danych Osobowych.
-M.P. 2002 nr 18 poz. 306   akt indywidualny Uchwała Senatu Rzeczypospolitej Polskiej z dnia 8 maja 2002 r. w sprawie wyrażenia zgody na powołanie Generalnego Inspektora Ochrony Danych Osobowych.
-M.P. 1998 nr 11 poz. 188   akt indywidualny Uchwała Sejmu Rzeczypospolitej Polskiej z dnia 2 kwietnia 1998 r. w sprawie powołania Generalnego Inspektora Ochrony Danych Osobowych.
-Dz.U. 2018 poz. 990   nieobowiązujący - uchylona podstawa prawna Rozporządzenie Prezydenta Rzeczypospolitej Polskiej z dnia 22 maja 2018 r. zmieniające rozporządzenie w sprawie nadania statutu Biuru Generalnego Inspektora Ochrony Danych Osobowych
-Dz.U. 2015 poz. 2020   nieobowiązujący - uchylona podstawa prawna Rozporządzenie Prezydenta Rzeczypospolitej Polskiej z dnia 19 listopada 2015 r. zmieniające rozporządzenie w sprawie nadania statutu Biuru Generalnego Inspektora Ochrony Danych Osobowych
-Dz.U. 2015 poz. 745   uznany za uchylony Rozporządzenie Ministra Administracji i Cyfryzacji z dnia 11 maja 2015 r. w sprawie trybu i sposobu realizacji zadań w celu zapewniania przestrzegania przepisów o ochronie danych osobowych przez administratora bezpieczeństwa informacji
-Dz.U. 2015 poz. 719   uznany za uchylony Rozporządzenie Ministra Administracji i Cyfryzacji z dnia 11 maja 2015 r. w sprawie sposobu prowadzenia przez administratora bezpieczeństwa informacji rejestru zbiorów danych
-Dz.U. 2014 poz. 1934   nieobowiązujący - uchylona podstawa prawna Rozporządzenie Ministra Administracji i Cyfryzacji z dnia 10 grudnia 2014 r. w sprawie wzorów zgłoszeń powołania i odwołania administratora bezpieczeństwa informacji
-Dz.U. 2011 nr 225 poz. 1350   nieobowiązujący - uchylona podstawa prawna Rozporządzenie Prezydenta Rzeczypospolitej Polskiej z dnia 10 października 2011 r. w sprawie nadania statutu Biuru Generalnego Inspektora Ochrony Danych Osobowych
-Dz.U. 2011 nr 103 poz. 601   uznany za uchylony Rozporządzenie Ministra Spraw Wewnętrznych i Administracji z dnia 11 maja 2011 r. zmieniające rozporządzenie w sprawie wzorów imiennego upoważnienia i legitymacji służbowej inspektora Biura Generalnego Inspektora Ochrony Danych Osobowych
-Dz.U. 2008 nr 229 poz. 1536   nieobowiązujący - uchylona podstawa prawna Rozporządzenie Ministra Spraw Wewnętrznych i Administracji z dnia 11 grudnia 2008 r. w sprawie wzoru zgłoszenia zbioru danych do rejestracji Generalnemu Inspektorowi Ochrony Danych Osobowych
-Dz.U. 2006 nr 203 poz. 1494   uznany za uchylony Rozporządzenie Prezydenta Rzeczypospolitej Polskiej z dnia 3 listopada 2006 r. w sprawie nadania statutu Biuru Generalnego Inspektora Ochrony Danych Osobowych
-Dz.U. 2004 nr 100 poz. 1025   uchylony Rozporządzenie Ministra Spraw Wewnętrznych i Administracji z dnia 29 kwietnia 2004 r. w sprawie wzoru zgłoszenia zbioru danych do rejestracji Generalnemu Inspektorowi Ochrony Danych Osobowych
-Dz.U. 2004 nr 100 poz. 1024   uznany za uchylony Rozporządzenie Ministra Spraw Wewnętrznych i Administracji z dnia 29 kwietnia 2004 r. w sprawie dokumentacji przetwarzania danych osobowych oraz warunków technicznych i organizacyjnych, jakim powinny odpowiadać urządzenia i systemy informatyczne służące do przetwarzania danych osobowych
-Dz.U. 2004 nr 94 poz. 923   uznany za uchylony Rozporządzenie Ministra Spraw Wewnętrznych i Administracji z dnia 22 kwietnia 2004 r. w sprawie wzorów imiennego upoważnienia i legitymacji służbowej inspektora Biura Generalnego Inspektora Ochrony Danych Osobowych
-Dz.U. 2003 nr 61 poz. 545   uznany za uchylony Rozporządzenie Ministra Spraw Wewnętrznych i Administracji z dnia 20 marca 2003 r. zmieniające rozporządzenie w sprawie określenia wzorów wniosku o udostępnienie danych osobowych, zgłoszenia zbioru danych do rejestracji oraz imiennego upoważnienia i legitymacji służbowej inspektora Biura Generalnego Inspektora Ochrony Danych Osobowych
-Dz.U. 2002 nr 154 poz. 1285   uznany za uchylony Rozporządzenie Ministra Spraw Wewnętrznych i Administracji z dnia 3 września 2002 r. zmieniające rozporządzenie w sprawie określenia wzorów wniosku o udostępnienie danych osobowych, zgłoszenia zbioru danych do rejestracji oraz imiennego upoważnienia i legitymacji służbowej inspektora Biura Generalnego Inspektora Ochrony Danych Osobowych.
-Dz.U. 2001 nr 121 poz. 1306   uznany za uchylony Rozporządzenie Ministra Spraw Wewnętrznych i Administracji z dnia 1 października 2001 r. zmieniające rozporządzenie w sprawie określenia podstawowych warunków technicznych i organizacyjnych, jakim powinny odpowiadać urządzenia i systemy informatyczne służące do przetwarzania danych osobowych.
-Dz.U. 2000 nr 98 poz. 1063   uchylony Rozporządzenie Prezydenta Rzeczypospolitej Polskiej z dnia 3 listopada 2000 r. zmieniające rozporządzenie w sprawie nadania statutu Biuru Generalnego Inspektora Ochrony Danych Osobowych.
-Dz.U. 1999 nr 93 poz. 1081   uznany za uchylony Rozporządzenie Ministra Spraw Wewnętrznych i Administracji z dnia 2 listopada 1999 r. zmieniające rozporządzenie w sprawie określenia wzorów wniosku o udostępnienie danych osobowych, zgłoszenia zbioru danych do rejestracji oraz imiennego upoważnienia i legitymacji służbowej inspektora Biura Generalnego Inspektora Ochrony Danych Osobowych.
-Dz.U. 1999 nr 6 poz. 49   uznany za uchylony Rozporządzenie Ministra Spraw Wewnętrznych i Administracji z dnia 8 stycznia 1999 r. zmieniające rozporządzenie w sprawie określenia wzorów wniosku o udostępnienie danych osobowych, zgłoszenia zbioru danych do rejestracji oraz imiennego upoważnienia i legitymacji służbowej inspektora Biura Generalnego Inspektora Ochrony Danych Osobowych.
-Dz.U. 1998 nr 80 poz. 522   uznany za uchylony Rozporządzenie Ministra Spraw Wewnętrznych i Administracji z dnia 3 czerwca 1998 r. w sprawie określenia wzorów wniosku o udostępnienie danych osobowych, zgłoszenia zbioru danych do rejestracji oraz imiennego upoważnienia i legitymacji służbowej inspektora Biura Generalnego Inspektora Ochrony Danych Osobowych.
-Dz.U. 1998 nr 80 poz. 521   uznany za uchylony Rozporządzenie Ministra Spraw Wewnętrznych i Administracji z dnia 3 czerwca 1998 r. w sprawie określenia podstawowych warunków technicznych i organizacyjnych, jakim powinny odpowiadać urządzenia i systemy informatyczne służące do przetwarzania danych osobowych.
-Dz.U. 1998 nr 73 poz. 464   uchylony Rozporządzenie Prezydenta Rzeczypospolitej Polskiej z dnia 29 maja 1998 r. w sprawie nadania statutu Biuru Generalnego Inspektora Ochrony Danych Osobowych.</t>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>M.P. 2015 poz. 364</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">			</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>akt indywidualny</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">	</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>Uchwa</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>ła Sejmu Rzeczypospolitej Polskiej z dnia 9 kwietnia 2015 r. w sprawie powołania Generalnego Inspektora Ochrony Danych Osobowych
+M.P. 2015 poz. 363</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">			</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>akt indywidualny</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">	</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>Uchwała Senatu Rzeczypospolitej Polskiej z dnia 16 kwietnia 2015 r. w sprawie wyrażenia zgody na powołanie Generalnego Inspektora Ochrony Danych Osobowych
+M.P. 2015 poz. 25</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">			</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>akt indywidualny</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">	</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>Uchwała Senatu Rzeczypospolitej Polskiej z dnia 18 grudnia 2014 r. w sprawie wyrażenia zgody na odwołanie Generalnego Inspektora Ochrony Danych Osobowych
+M.P. 2014 poz. 1224</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">			</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>akt indywidualny</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">	</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>Uchwała Sejmu Rzeczypospolitej Polskiej z dnia 3 grudnia 2014 r. w sprawie odwołania Generalnego Inspektora Ochrony Danych Osobowych
+M.P. 2014 poz. 721</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">			</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>akt indywidualny</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">	</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>Uchwała Sejmu Rzeczypospolitej Polskiej z dnia 25 lipca 2014 r. w sprawie powołania Generalnego Inspektora Ochrony Danych Osobowych
+M.P. 2014 poz. 706</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">			</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>akt indywidualny</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">	</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>Uchwała Senatu Rzeczypospolitej Polskiej z dnia 7 sierpnia 2014 r. w sprawie wyrażenia zgody na powołanie Generalnego Inspektora Ochrony Danych Osobowych
+M.P. 2010 nr 53 poz. 719</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">			</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>akt indywidualny</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">	</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>Uchwała Senatu Rzeczypospolitej Polskiej z dnia 22 lipca 2010 r. w sprawie wyrażenia zgody na powołanie Generalnego Inspektora Ochrony Danych Osobowych
+M.P. 2010 nr 53 poz. 715</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">			</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>akt indywidualny</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">	</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>Uchwała Sejmu Rzeczypospolitej Polskiej z dnia 25 czerwca 2010 r. w sprawie powołania Generalnego Inspektora Ochrony Danych Osobowych
+M.P. 2006 nr 47 poz. 494</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">			</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>akt indywidualny</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">	</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>Uchwała Senatu Rzeczypospolitej Polskiej z dnia 6 lipca 2006 r. w sprawie wyrażenia zgody na powołanie Generalnego Inspektora Ochrony Danych Osobowych
+M.P. 2006 nr 47 poz. 493</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">			</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>akt indywidualny</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">	</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>Uchwała Sejmu Rzeczypospolitej Polskiej z dnia 23 czerwca 2006 r. w sprawie powołania Generalnego Inspektora Ochrony Danych Osobowych
+M.P. 2002 nr 19 poz. 329</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">			</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>akt indywidualny</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">	</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>Uchwała Sejmu Rzeczypospolitej Polskiej z dnia 26 kwietnia 2002 r. w sprawie powołania Generalnego Inspektora Ochrony Danych Osobowych.
+M.P. 2002 nr 18 poz. 306</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">			</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>akt indywidualny</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">	</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>Uchwała Senatu Rzeczypospolitej Polskiej z dnia 8 maja 2002 r. w sprawie wyrażenia zgody na powołanie Generalnego Inspektora Ochrony Danych Osobowych.
+M.P. 1998 nr 11 poz. 188</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">			</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>akt indywidualny</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">	</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>Uchwała Sejmu Rzeczypospolitej Polskiej z dnia 2 kwietnia 1998 r. w sprawie powołania Generalnego Inspektora Ochrony Danych Osobowych.
+Dz.U. 2018 poz. 990</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">			</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>nieobowiązujący - uchylona podstawa prawna</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">	</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>Rozporządzenie Prezydenta Rzeczypospolitej Polskiej z dnia 22 maja 2018 r. zmieniające rozporządzenie w sprawie nadania statutu Biuru Generalnego Inspektora Ochrony Danych Osobowych
+Dz.U. 2015 poz. 2020</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">			</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>nieobowiązujący - uchylona podstawa prawna</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">	</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>Rozporządzenie Prezydenta Rzeczypospolitej Polskiej z dnia 19 listopada 2015 r. zmieniające rozporządzenie w sprawie nadania statutu Biuru Generalnego Inspektora Ochrony Danych Osobowych
+Dz.U. 2015 poz. 745</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">			</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>uznany za uchylony</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">	</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>Rozporządzenie Ministra Administracji i Cyfryzacji z dnia 11 maja 2015 r. w sprawie trybu i sposobu realizacji zadań w celu zapewniania przestrzegania przepisów o ochronie danych osobowych przez administratora bezpieczeństwa informacji
+Dz.U. 2015 poz. 719</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">			</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>uznany za uchylony</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">	</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>Rozporządzenie Ministra Administracji i Cyfryzacji z dnia 11 maja 2015 r. w sprawie sposobu prowadzenia przez administratora bezpieczeństwa informacji rejestru zbiorów danych
+Dz.U. 2014 poz. 1934</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">			</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>nieobowiązujący - uchylona podstawa prawna</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">	</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>Rozporządzenie Ministra Administracji i Cyfryzacji z dnia 10 grudnia 2014 r. w sprawie wzorów zgłoszeń powołania i odwołania administratora bezpieczeństwa informacji
+Dz.U. 2011 nr 225 poz. 1350</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">			</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>nieobowiązujący - uchylona podstawa prawna</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">	</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>Rozporządzenie Prezydenta Rzeczypospolitej Polskiej z dnia 10 października 2011 r. w sprawie nadania statutu Biuru Generalnego Inspektora Ochrony Danych Osobowych
+Dz.U. 2011 nr 103 poz. 601</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">			</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>uznany za uchylony</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">	</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>Rozporządzenie Ministra Spraw Wewnętrznych i Administracji z dnia 11 maja 2011 r. zmieniające rozporządzenie w sprawie wzorów imiennego upoważnienia i legitymacji służbowej inspektora Biura Generalnego Inspektora Ochrony Danych Osobowych
+Dz.U. 2008 nr 229 poz. 1536</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">			</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>nieobowiązujący - uchylona podstawa prawna</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">	</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>Rozporządzenie Ministra Spraw Wewnętrznych i Administracji z dnia 11 grudnia 2008 r. w sprawie wzoru zgłoszenia zbioru danych do rejestracji Generalnemu Inspektorowi Ochrony Danych Osobowych
+Dz.U. 2006 nr 203 poz. 1494</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">			</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>uznany za uchylony</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">	</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>Rozporządzenie Prezydenta Rzeczypospolitej Polskiej z dnia 3 listopada 2006 r. w sprawie nadania statutu Biuru Generalnego Inspektora Ochrony Danych Osobowych
+Dz.U. 2004 nr 100 poz. 1025</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">			</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>uchylony</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">	</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>Rozporządzenie Ministra Spraw Wewnętrznych i Administracji z dnia 29 kwietnia 2004 r. w sprawie wzoru zgłoszenia zbioru danych do rejestracji Generalnemu Inspektorowi Ochrony Danych Osobowych
+Dz.U. 2004 nr 100 poz. 1024</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">			</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>uznany za uchylony</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">	</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>Rozporządzenie Ministra Spraw Wewnętrznych i Administracji z dnia 29 kwietnia 2004 r. w sprawie dokumentacji przetwarzania danych osobowych oraz warunków technicznych i organizacyjnych, jakim powinny odpowiadać urządzenia i systemy informatyczne służące do przetwarzania danych osobowych
+Dz.U. 2004 nr 94 poz. 923</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">			</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>uznany za uchylony</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">	</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>Rozporządzenie Ministra Spraw Wewnętrznych i Administracji z dnia 22 kwietnia 2004 r. w sprawie wzorów imiennego upoważnienia i legitymacji służbowej inspektora Biura Generalnego Inspektora Ochrony Danych Osobowych
+Dz.U. 2003 nr 61 poz. 545</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">			</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>uznany za uchylony</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">	</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>Rozporządzenie Ministra Spraw Wewnętrznych i Administracji z dnia 20 marca 2003 r. zmieniające rozporządzenie w sprawie określenia wzorów wniosku o udostępnienie danych osobowych, zgłoszenia zbioru danych do rejestracji oraz imiennego upoważnienia i legitymacji służbowej inspektora Biura Generalnego Inspektora Ochrony Danych Osobowych
+Dz.U. 2002 nr 154 poz. 1285</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">			</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>uznany za uchylony</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">	</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>Rozporządzenie Ministra Spraw Wewnętrznych i Administracji z dnia 3 września 2002 r. zmieniające rozporządzenie w sprawie określenia wzorów wniosku o udostępnienie danych osobowych, zgłoszenia zbioru danych do rejestracji oraz imiennego upoważnienia i legitymacji służbowej inspektora Biura Generalnego Inspektora Ochrony Danych Osobowych.
+Dz.U. 2001 nr 121 poz. 1306</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">			</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>uznany za uchylony</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">	</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>Rozporządzenie Ministra Spraw Wewnętrznych i Administracji z dnia 1 października 2001 r. zmieniające rozporządzenie w sprawie określenia podstawowych warunków technicznych i organizacyjnych, jakim powinny odpowiadać urządzenia i systemy informatyczne służące do przetwarzania danych osobowych.
+Dz.U. 2000 nr 98 poz. 1063</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">			</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>uchylony</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">	</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>Rozporządzenie Prezydenta Rzeczypospolitej Polskiej z dnia 3 listopada 2000 r. zmieniające rozporządzenie w sprawie nadania statutu Biuru Generalnego Inspektora Ochrony Danych Osobowych.
+Dz.U. 1999 nr 93 poz. 1081</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">			</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>uznany za uchylony</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">	</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>Rozporządzenie Ministra Spraw Wewnętrznych i Administracji z dnia 2 listopada 1999 r. zmieniające rozporządzenie w sprawie określenia wzorów wniosku o udostępnienie danych osobowych, zgłoszenia zbioru danych do rejestracji oraz imiennego upoważnienia i legitymacji służbowej inspektora Biura Generalnego Inspektora Ochrony Danych Osobowych.
+Dz.U. 1999 nr 6 poz. 49</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">			</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>uznany za uchylony</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">	</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>Rozporządzenie Ministra Spraw Wewnętrznych i Administracji z dnia 8 stycznia 1999 r. zmieniające rozporządzenie w sprawie określenia wzorów wniosku o udostępnienie danych osobowych, zgłoszenia zbioru danych do rejestracji oraz imiennego upoważnienia i legitymacji służbowej inspektora Biura Generalnego Inspektora Ochrony Danych Osobowych.
+Dz.U. 1998 nr 80 poz. 522</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">			</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>uznany za uchylony</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">	</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>Rozporządzenie Ministra Spraw Wewnętrznych i Administracji z dnia 3 czerwca 1998 r. w sprawie określenia wzorów wniosku o udostępnienie danych osobowych, zgłoszenia zbioru danych do rejestracji oraz imiennego upoważnienia i legitymacji służbowej inspektora Biura Generalnego Inspektora Ochrony Danych Osobowych.
+Dz.U. 1998 nr 80 poz. 521</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">			</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>uznany za uchylony</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">	</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>Rozporządzenie Ministra Spraw Wewnętrznych i Administracji z dnia 3 czerwca 1998 r. w sprawie określenia podstawowych warunków technicznych i organizacyjnych, jakim powinny odpowiadać urządzenia i systemy informatyczne służące do przetwarzania danych osobowych.
+Dz.U. 1998 nr 73 poz. 464</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">			</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>uchylony</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">	</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>Rozporządzenie Prezydenta Rzeczypospolitej Polskiej z dnia 29 maja 1998 r. w sprawie nadania statutu Biuru Generalnego Inspektora Ochrony Danych Osobowych.</t>
+    </r>
   </si>
   <si>
     <t>RADA MINISTRÓW
@@ -194,12 +1447,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="23">
+  <fonts count="27">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -226,16 +1479,89 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Times New Roman"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -249,37 +1575,23 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -293,30 +1605,7 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -325,23 +1614,15 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -356,18 +1637,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <charset val="134"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="33">
@@ -379,7 +1657,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -391,7 +1693,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -403,7 +1711,109 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -415,145 +1825,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -660,11 +1938,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -674,6 +1950,15 @@
       <top/>
       <bottom style="medium">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -693,21 +1978,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -719,24 +1989,6 @@
       </top>
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -755,6 +2007,32 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -763,10 +2041,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -775,137 +2053,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="15" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="8" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="17" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="17" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="17" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -949,6 +2227,15 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="10" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1299,12 +2586,12 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:A1764"/>
+  <dimension ref="A1:A1769"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A1763" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A1751" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="A1764" sqref="A1764"/>
+      <selection pane="bottomLeft" activeCell="C1765" sqref="C1765"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6"/>
@@ -7119,29 +8406,54 @@
     <row r="1759" ht="14.4" spans="1:1">
       <c r="A1759" s="11"/>
     </row>
-    <row r="1760" spans="1:1">
-      <c r="A1760" s="1" t="s">
+    <row r="1760" ht="14.4" spans="1:1">
+      <c r="A1760" s="15" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="1761" spans="1:1">
-      <c r="A1761" s="1" t="s">
+    <row r="1761" ht="14.4" spans="1:1">
+      <c r="A1761" s="15" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="1762" ht="409.5" spans="1:1">
-      <c r="A1762" s="1" t="s">
+    <row r="1762" ht="14.4" spans="1:1">
+      <c r="A1762" s="15" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="1763" ht="14.4" spans="1:1">
+      <c r="A1763" s="15" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="1763" ht="31.2" spans="1:1">
-      <c r="A1763" s="1" t="s">
+    <row r="1764" ht="14.4" spans="1:1">
+      <c r="A1764" s="15" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="1764" spans="1:1">
-      <c r="A1764" s="1" t="s">
+    <row r="1765" ht="14.4" spans="1:1">
+      <c r="A1765" s="16" t="s">
         <v>45</v>
+      </c>
+    </row>
+    <row r="1766" ht="14.4" spans="1:1">
+      <c r="A1766" s="17" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="1767" ht="409.5" spans="1:1">
+      <c r="A1767" s="17" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="1768" ht="27.6" spans="1:1">
+      <c r="A1768" s="17" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="1769" ht="14.4" spans="1:1">
+      <c r="A1769" s="17" t="s">
+        <v>49</v>
       </c>
     </row>
   </sheetData>
